--- a/data/context_scg_home.xlsx
+++ b/data/context_scg_home.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasunimsuwan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E088F9EC-A445-1D4A-A49C-03EFB8B2336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31431C34-48C0-0E47-BAF9-9F7CE3D74679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{4845C39F-9F50-9C4F-9591-143131F091DE}"/>
+    <workbookView xWindow="2180" yWindow="1840" windowWidth="36000" windowHeight="21480" xr2:uid="{4845C39F-9F50-9C4F-9591-143131F091DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,23 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>บริการต่อเติมหลังคาโรงรถ กันสาด
-รับติดตั้งพื้นที่ขั้นต่ำ 15 ตร.ม.ขึ้นไป
-ราคาติดตั้งเริ่มต้น ตามวัสดุของกันสาด
-- หลังคา ShinkoLite  ราคาเริ่มต้น 81,000 บาท (5,400 บาท/ตร.ม)
-- หลังคาไวนิล สีขาว  ราคาเริ่มต้น 72,000 บาท (4,800 บาท/ตร.ม.)
-- หลังคาโปร่งแสง นิวไลท์  ราคาเริ่มต้น 82,500 บาท (5,500 บาท/ตร.ม.)
-- หลังคาโปร่งแสง ลอนกันสาด  ราคาเริ่มต้น 63,000 บาท (4,200 บาท/ตร.ม.)
-- หลังคาเมทัลชีท  ราคาเริ่มต้น 54,000 บาท (3,600 บาท/ตร.ม.)
--------------------------------------
-- ราคาติดตั้งแบบไร้เสา
-- ราคารวมวัสดุแผ่น, โครงเหล็ก และวัสดุตามเงื่อนไขที่กำหนด
-- ราคาไม่รวมเครื่องใช้ไฟฟ้าและของตกแต่ง
-- ราคาไม่รวมค่าเช่านั่งร้าน, งานระบบไฟฟ้า, รางน้ำฝน, ฝ้าระแนง และเสาเข็ม หรือโครงสร้างใต้ดิน
-- ราคาที่แน่นอนจะต้องเสนอหลังจากเข้าวัดตามพื้นที่หน้างานจริง</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ค่าเสาพร้อมเข็มเหล็ก ราคาเริ่มต้น 10,500 บาท/ต้น // ค่าเสา ราคาเริ่มต้น 5,500 บาท/ต้น ไม่รวมลงเสาเข็ม</t>
   </si>
@@ -83,23 +67,6 @@
 สมาร์ท - รางน้ำจะมีหยักกันน้ำกระเซ็นออก เหมาะติดตั้งกับบ้านทรงจั่ว, ปั้นหยา และเพิงหมาแหงน มีสีขาว เทา น้ำตาล</t>
   </si>
   <si>
-    <t>บริการกระเบื้องคอนกรีตปูพื้น
-รับติดตั้งพื้นที่ขั้นต่ำ 30 ตร.ม.ขึ้นไป
-ราคาติดตั้งเริ่มต้น บนพื้นดิน
-- รุ่น London  ราคาเริ่มต้น 44,700 บาท (1,490 บาท/ตร.ม.)
-- รุ่น UVT  ราคาเริ่มต้น 47,700 บาท (1,590 บาท/ตร.ม.)
-- รุ่น VENTOLA  ราคาเริ่มต้น 47,700 บาท (1,590 บาท/ตร.ม.)
---------------------------------------------
-ราคาติดตั้งเริ่มต้น บนพื้นซีเมนต์คอนกรีต
-- รุ่น London  ราคาเริ่มต้น 47,700 บาท (1,590 บาท/ตร.ม.)
-- รุ่น UVT  ราคาเริ่มต้น 50,700 บาท (1,690 บาท/ตร.ม.)
-- รุ่น VENTOLA  ราคาเริ่มต้น 50,700 บาท (1,690 บาท/ตร.ม.)
---------------------------------------------
-- ราคาติดตั้งเริ่มต้น รวม แผ่นกระเบื้องคอนกรีต, ช่างติดตั้ง
-- ราคารวมการปรับระดับ 1 ชั้น : พื้นดิน ปูบนพื้นทราย หนาไม่เกิน 5 ซม./พื้นคอนกรีต ปูบนปูนทราย หนาไม่เกิน 3 ซม.
-- ราคาไม่รวมค่าขอบคันหิน และอุปกรณ์เสริมต่างๆ ที่จะใช้เพิ่มที่หน้างาน</t>
-  </si>
-  <si>
     <t>อุปกรณ์เสริม
 - ขอบคันหิน ราคา 400 บาท/เมตร
 - ปรับระดับฝาบ่อพักเดิม ราคา 1,000 บาท/บ่อ
@@ -146,23 +113,6 @@
 - ราคาไม่รวม ปรับระดับฝาบ่อพัก/ปรับระดับฝาถังบำบัด</t>
   </si>
   <si>
-    <t>บริการติดตั้งรั้ว ระแนงบังตา ไฟเบอร์ซีเมนต์
-รับติดตั้งพื้นที่ขั้นต่ำ 15 ตร.ม.ขึ้นไป
-ราคาเริ่มต้น รวมแผ่นไม้ และโครงเหล็ก พร้อมช่างติดตั้ง
-- รุ่น ขนาด 3 นิ้ว เว้นร่อง 2 นิ้ว ราคาเริ่มต้น 42,000 บาท (2,800 บาท/ตร.ม.)
-- รุ่น ไลน์ 2 นิ้ว เว้นร่อง 2 นิ้ว ราคาเริ่มต้น 51,000 บาท (3,400 บาท/ตร.ม.)
-- รุ่น ไลน์ 2 นิ้ว เว้นร่อง 1 นิ้ว ราคาเริ่มต้น 58,500 บาท (3,900 บาท/ตร.ม.)
-- รุ่น ไลน์ 1 นิ้ว เว้นร่อง 2 นิ้ว ราคาเริ่มต้น 58,500 บาท (3,900 บาท/ตร.ม.)
-- รุ่น ไลน์ 1 นิ้ว เว้นร่อง 1 นิ้ว ราคาเริ่มต้น 70,500 บาท (4,700 บาท/ตร.ม.)
-- รุ่น Fretwork  ราคาเริ่มต้น 63,000 บาท (4,200 บาท/ตร.ม.)
--------------------------------------
-เงื่อนไขให้บริการเบื้องต้น
-- ติดตั้งบนรั้วคอนกรีตเดิมของลูกค้า ความสูงไม่เกิน 3 เมตร วัดจากพื้นดินถึงสูงสุดของแผ่น
-- ไม่รับติดตั้งเป็นรั้วสำเร็จรูป หรือติดตั้งกับโครงรั้วเหล็ก
-- ไม่รับติดตั้งบนระเบียง หรือติดตั้งบนพื้นดิน
-- ราคาไม่รวมลงเสาเข็ม หรือโครงสร้างใต้ดิน</t>
-  </si>
-  <si>
     <t>ความหนา : ไฟเบอร์ซิเมนต์ - 12 มม. / ไลน์ - 25 มม. (1 นิ้ว) / Fretwork - 8 มม.</t>
   </si>
   <si>
@@ -201,9 +151,6 @@
 - Pro : ห้องดูหนังฟังเพลง / ค่ากั้นเสียง (SCT) - มากกว่า 59 / ผนังหนาเพิ่ม - 8.5 ซม.</t>
   </si>
   <si>
-    <t xml:space="preserve">แอร์ เราจะไม่ได้ไปย้ายครับ จะทำผนังกันเสียงโดยรอบ โดยเว้นกรอบช่องแอร์ไว้ </t>
-  </si>
-  <si>
     <t>บริการประตู-หน้าต่าง กันเสียง
 รับติดตั้งพื้นที่ขั้นต่ำ 2 ตร.ม.ขึ้นไป
 ราคาติดตั้งเริ่มต้น 36,400 บาท (18,200 บาท/ตร.ม.)
@@ -225,18 +172,6 @@
 - Scenera Collection : วัสดุผลิตจากฉนวนใยแก้วขึ้นรูปเป็นแผ่นแข็ง หุ้มรอบด้านด้วยผ้าชนิดเคลือบสารกันน้ำ</t>
   </si>
   <si>
-    <t>บริการต่อเติมพื้นไม้เทียม
-รับติดตั้งพื้นที่ขั้นต่ำ 15 ตร.ม.ขึ้นไป
-ราคาติดตั้งเริ่มต้น ตามรุ่นของวัสดุ
-- พื้นไม้เทียมไฟเบอร์ซิเมนต์  ราคาเริ่มต้น 64,500 บาท (4,300 บาท/ตร.ม.)
-- ไม้พื้นทีคลิป คัลเลอร์ทรู  ราคาเริ่มต้น 67,500 บาท (4,500 บาท/ตร.ม.)
-- พื้นไม้เทียม WPC  ราคาเริ่มต้น 87,000 บาท (5,800 บาท/ตร.ม.)
-------------------------------------------
-ติดตั้งที่ความสูงไม่เกิน 5 ซม. เหนือพื้นดิน
-ราคารวม โครงเหล็ก, แผ่นพื้นไม้เทียม, แผ่นปิดขอบ, ค่าแรงในการติดตั้ง
-ราคาไม่งานโครงสร้างใต้ดิน เช่น งานลงเข็ม /เทตอม่อ / แทพื้นคอนกรีต</t>
-  </si>
-  <si>
     <t>บริการต่อเติมระเบียงบ้าน
 รับติดตั้งพื้นที่ขั้นต่ำ 15 ตร.ม.ขึ้นไป
 ราคาเริ่มต้น 171,000 บาท (11,400 บาท/ตร.ม.)
@@ -244,74 +179,6 @@
 - ราคารวมลงเสาเข็มเหล็ก, หลังคากันสาด และพื้นไม้เทียม
 - ไม่รวมตกแต่งผนัง, เครื่องใช้ไฟฟ้า และของตกแต่ง
 - ราคาที่แน่นอนจะต้องเสนอหลังจากเข้าวัดตามพื้นที่หน้างานจริง</t>
-  </si>
-  <si>
-    <t>บริการต่อเติมห้องครัว รับต่อเติมพื้นที่ขั้นต่ำ 6.6 ตร.ม.  
-ราคาเริ่มต้น 343,200 บาท (52,000 บาท/ตร.ม.)
-วัสดุตามเงื่อนไขที่กำหนด (ห้องเปล่า)
-- ราคารวมลงเสาเข็มไมโครไพล์
-- โครงสร้างห้องเป็นเหล็ก / หลังคาเป็นเมทัลชีท(ทึบแสง) / ผนังก่ออิฐ Q-Con  พร้อมทาสีผนัง / พื้นปูกระเบื้องเซรามิค
-- ประตูบานเลื่อน 1 บาน และ หน้าต่าง 1 บาน (ตามมาตราฐาน) 
-- ราคานี้ยังไม่รวมเครื่องใช้ไฟฟ้า และไม่รวมชุดบิ้วอิน
-- ราคาประเมินการ สามารถ +/- 20% หลังการสำรวจพื้นที่หน้างาน และการเลือกฟังก์ชั่นการใช้งาน
-- ราคานี้ยังไม่รวมรายการรื้อถอนต่างๆที่หน้างาน  
---------------------------------------------
-เงื่อนไขให้บริการเบื้องต้น
-- ส่วนต่อเติมใหม่ ห่างจากโครงสร้างบ้านเดิม ไม่ยึดโครงสร้างติดกัน
-- ระยะห่างจากรั้วถึงห้องต่อเติม มากกว่า 50 ซม.
-- ไม่ทำบนโครงสร้างเดิมของลูกค้า
-- ไม่ต่อเติมบนระบบสุขาภิบาลเดิมของลูกค้า</t>
-  </si>
-  <si>
-    <t>บริการต่อเติมส่วนซักล้าง รับต่อเติมพื้นที่ขั้นต่ำ 3.9 ตร.ม. 
-ราคาเริ่มต้น 202,800 บาท (52,000 บาท/ตร.ม.)
-วัสดุตามเงื่อนไขที่กำหนด (ห้องเปล่า)
-- ราคารวมลงเสาเข็มไมโครไพล์
-- โครงสร้างห้องเป็นเหล็ก / หลังคาเป็นเมทัลชีท(ทึบแสง) / ผนังก่ออิฐ Q-Con  พร้อมทาสีผนัง / พื้นปูกระเบื้องเซรามิค
-- ประตูบานเลื่อน 1 บาน และ หน้าต่าง 1 บาน (ตามมาตราฐาน) 
-- ราคานี้ยังไม่รวมเครื่องใช้ไฟฟ้า และไม่รวมชุดบิ้วอิน
-- ราคาประเมินการ สามารถ +/- 20% หลังการสำรวจพื้นที่หน้างาน และการเลือกฟังก์ชั่นการใช้งาน
-- ราคานี้ยังไม่รวมรายการรื้อถอนต่างๆที่หน้างาน  
---------------------------------------------
-เงื่อนไขให้บริการเบื้องต้น
-- ส่วนต่อเติมใหม่ ห่างจากโครงสร้างบ้านเดิม ไม่ยึดโครงสร้างติดกัน
-- ระยะห่างจากรั้วถึงห้องต่อเติม มากกว่า 50 ซม.
-- ไม่ทำบนโครงสร้างเดิมของลูกค้า
-- ไม่ต่อเติมบนระบบสุขาภิบาลเดิมของลูกค้า</t>
-  </si>
-  <si>
-    <t>บริการต่อเติมห้องอเนกประสงค์  รับต่อเติมพื้นที่ขั้นต่ำ 12 ตร.ม.
-ราคาเริ่มต้น 487,200 บาท (40,600/ ตารางเมตร)
-วัสดุตามเงื่อนไขที่กำหนด (ห้องเปล่า)
-- ราคารวมลงเสาเข็มไมโครไพล์
-- โครงสร้างห้องเป็นเหล็ก / หลังคาเป็นเมทัลชีท(ทึบแสง) / ผนังก่ออิฐ Q-Con  พร้อมทาสีผนัง / พื้นปูกระเบื้องเซรามิค
-- ประตูบานเลื่อน 1 บาน และ หน้าต่าง 1 บาน (ตามมาตราฐาน) 
-- ราคานี้ยังไม่รวมเครื่องใช้ไฟฟ้า และไม่รวมชุดบิ้วอิน
-- ราคาประเมินการนี้ สามารถ +/- 20% หลังการสำรวจพื้นที่หน้างาน และการเลือกฟังก์ชั่นการใช้งานอีกครั้ง
-- ราคานี้ยังไม่รวมรายการรื้อถอนต่างๆที่หน้างาน  
---------------------------------------------
-เงื่อนไขให้บริการเบื้องต้น
-- ส่วนต่อเติมใหม่ ห่างจากโครงสร้างบ้านเดิม ไม่ยึดโครงสร้างติดกัน
-- ระยะห่างจากรั้วถึงห้องต่อเติม มากกว่า 50 ซม.
-- ไม่ทำบนโครงสร้างเดิมของลูกค้า
-- ไม่ต่อเติมบนระบบสุขาภิบาลเดิมของลูกค้า</t>
-  </si>
-  <si>
-    <t>บริการต่อเติมห้องผู้สูงอายุ  รับต่อเติมพื้นที่ขั้นต่ำ 21.6 ตร.ม.
-ราคาเริ่มต้น 1,123,200 บาท (52,000 บาท/ตร.ม.)
-วัสดุตามเงื่อนไขที่กำหนด (ห้องเปล่า)
-- ราคารวมลงเสาเข็มไมโครไพล์
-- โครงสร้างห้องเป็นเหล็ก / หลังคาเป็นเมทัลชีท(ทึบแสง) / ผนังก่ออิฐ Q-Con  พร้อมทาสีผนัง / พื้นปูกระเบื้องเซรามิค
-- ประตูบานเลื่อน 1 บาน และ หน้าต่าง 1 บาน (ตามมาตราฐาน) 
-- ราคานี้ยังไม่รวมเครื่องใช้ไฟฟ้า และไม่รวมชุดบิ้วอิน
-- ราคาประเมินการนี้ สามารถ +/- 20% หลังการสำรวจพื้นที่หน้างาน และการเลือกฟังก์ชั่นการใช้งานอีกครั้ง
-- ราคานี้ยังไม่รวมรายการรื้อถอนต่างๆที่หน้างาน  
---------------------------------------------
-เงื่อนไขให้บริการเบื้องต้น
-- ส่วนต่อเติมใหม่ ห่างจากโครงสร้างบ้านเดิม ไม่ยึดโครงสร้างติดกัน
-- ระยะห่างจากรั้วถึงห้องต่อเติม มากกว่า 50 ซม.
-- ไม่ทำบนโครงสร้างเดิมของลูกค้า
-- ไม่ต่อเติมบนระบบสุขาภิบาลเดิมของลูกค้า</t>
   </si>
   <si>
     <t>บริการ Repair ซ่อมรั่วเฉพาะจุด ราคาเริ่มต้น 20,000 บาท
@@ -331,12 +198,197 @@
 - ราคาที่แน่นอนจะต้องประเมินจากหน้างานจริงเท่านั้น</t>
   </si>
   <si>
+    <t>บริการ Repaint พ่นสีหลังคาเก่า รับพื้นที่ขั้นต่ำ 200 ตร.ม. 
+ราคาเริ่มต้น 64,000 บาท (320 บาท/ตร.ม.)
+--------------------------------------------
+เงื่อนไขให้บริการเบื้องต้น 
+- บ้านเดี่ยว เท่านั้น
+- รับเฉพาะหลังคาคอนกรีตเท่านั้น
+- รับประกันงานติดตั้ง 1 ปี
+-------------------------------------------
+ขั้นตอนบริการ
+จำนวนรอบการพ่นสี ขึ้นอยู่กับอายุปีของหลังคา
+1.ล้างทำความสะอาด ขจัดคราบฝุ่น
+2.พ่นสีรองพื้น 1 รอบ
+3.พ่นสีใหม่ 2 รอบ</t>
+  </si>
+  <si>
+    <t>สีพิเศษ : 80 บาท/ตร.ม.
+ทากันซึม : 180 บาท/ตร.ม./รอบ
+ทากันรา : 110 บาท/ตร.ม./รอบ</t>
+  </si>
+  <si>
+    <t>บริการ Top Up Roof รับติดตั้งพื้นที่ขั้นต่ำ 50 ตร.ม. 
+ราคาเริ่มต้น 60,000 บาท (1,200 บาท/ตร.ม.)
+--------------------------------------------
+เงื่อนไขให้บริการเบื้องต้น 
+- ทาวน์โฮม เท่านั้น
+- ทาวน์โฮม : กระเบื้องลอนคู่ทุกแบรนด์
+- บ้านเดี่ยว พรีม่า, โปรลอน ยกเว้นโอลิมปิก
+- ติดตั้งความสูงไม่เกิน 3 ชั้น
+- ติดตั้ง Metal Sheet สี AluZinc หนา 0.35 mm. เท่านั้น
+- ไม่รับงานใกล้สายไฟฟ้าแรงสูง 3 เมตร
+- รับประกันงานติดตั้ง 1 ปี</t>
+  </si>
+  <si>
+    <t>หลังคาเมทัลรูฟ รุ่น ลอนคู่
+ราคาเริ่มต้น 500 บาท/แผ่น (ความยาว 2.20 เมตร)
+--------------------------------------------
+- สินค้าติดตั้งเอง ไม่ใช่บริการติดตั้ง
+- ราคาเฉพาะแผ่น ไม่รวมอุปกรณ์ยึดแผ่น
+- ติดตั้งกับหลังคาลอนคู่ได้ทุกแบรนด์
+- มี 2 ขนาดความยาว คือ 2.20 เมตร กับ 3.20 เมตร
+- สินค้าสต็อกบางสาขา ตรวจสอบสต็อกก่อนสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>HomeSmile ตั้งอยู่ที่ SCG HOME Experience ชั้น 3 
+สาขาเลียบทางด่วนเอกมัย-รามอินทรา (CDC) กรุงเทพมหานคร
+เปิดให้บริการทุกวัน เวลา 10.00 - 19.00 น.
+https://maps.app.goo.gl/oBu3W8CFPTjVmiHW7</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>บริการต่อเติมหลังคาโรงรถ กันสาด
+รับติดตั้งพื้นที่ขั้นต่ำ 15 ตร.ม.ขึ้นไป
+ราคาติดตั้งเริ่มต้น ตามวัสดุของกันสาด
+- หลังคา ShinkoLite ราคาเริ่มต้น 81,000 บาท (5,400 บาท/ตร.ม)
+- หลังคาไวนิล สีขาว ราคาเริ่มต้น 72,000 บาท (4,800 บาท/ตร.ม.)
+- หลังคาโปร่งแสง นิวไลท์ ราคาเริ่มต้น 82,500 บาท (5,500 บาท/ตร.ม.)
+- หลังคาโปร่งแสง ลอนกันสาด ราคาเริ่มต้น 63,000 บาท (4,200 บาท/ตร.ม.)
+- หลังคาเมทัลชีท ราคาเริ่มต้น 54,000 บาท (3,600 บาท/ตร.ม.)
+-------------------------------------
+- ราคาติดตั้งแบบไร้เสา
+- ราคารวมวัสดุแผ่น, โครงเหล็ก และวัสดุตามเงื่อนไขที่กำหนด
+- ราคาไม่รวมเครื่องใช้ไฟฟ้าและของตกแต่ง
+- ราคาไม่รวมค่าเช่านั่งร้าน, งานระบบไฟฟ้า, รางน้ำฝน, ฝ้าระแนง และเสาเข็ม หรือโครงสร้างใต้ดิน
+- ราคาที่แน่นอนจะต้องเสนอหลังจากเข้าวัดตามพื้นที่หน้างานจริง</t>
+  </si>
+  <si>
+    <t>บริการกระเบื้องคอนกรีตปูพื้น
+รับติดตั้งพื้นที่ขั้นต่ำ 30 ตร.ม.ขึ้นไป
+ราคาติดตั้งเริ่มต้น บนพื้นดิน
+- รุ่น London ราคาเริ่มต้น 44,700 บาท (1,490 บาท/ตร.ม.)
+- รุ่น UVT ราคาเริ่มต้น 47,700 บาท (1,590 บาท/ตร.ม.)
+- รุ่น VENTOLA ราคาเริ่มต้น 47,700 บาท (1,590 บาท/ตร.ม.)
+--------------------------------------------
+ราคาติดตั้งเริ่มต้น บนพื้นซีเมนต์คอนกรีต
+- รุ่น London ราคาเริ่มต้น 47,700 บาท (1,590 บาท/ตร.ม.)
+- รุ่น UVT ราคาเริ่มต้น 50,700 บาท (1,690 บาท/ตร.ม.)
+- รุ่น VENTOLA ราคาเริ่มต้น 50,700 บาท (1,690 บาท/ตร.ม.)
+--------------------------------------------
+- ราคาติดตั้งเริ่มต้น รวม แผ่นกระเบื้องคอนกรีต, ช่างติดตั้ง
+- ราคารวมการปรับระดับ 1 ชั้น : พื้นดิน ปูบนพื้นทราย หนาไม่เกิน 5 ซม./พื้นคอนกรีต ปูบนปูนทราย หนาไม่เกิน 3 ซม.
+- ราคาไม่รวมค่าขอบคันหิน และอุปกรณ์เสริมต่างๆ ที่จะใช้เพิ่มที่หน้างาน</t>
+  </si>
+  <si>
+    <t>บริการติดตั้งรั้ว ระแนงบังตา ไฟเบอร์ซีเมนต์
+รับติดตั้งพื้นที่ขั้นต่ำ 15 ตร.ม.ขึ้นไป
+ราคาเริ่มต้น รวมแผ่นไม้ และโครงเหล็ก พร้อมช่างติดตั้ง
+- รุ่น ขนาด 3 นิ้ว เว้นร่อง 2 นิ้ว ราคาเริ่มต้น 42,000 บาท (2,800 บาท/ตร.ม.)
+- รุ่น ไลน์ 2 นิ้ว เว้นร่อง 2 นิ้ว ราคาเริ่มต้น 51,000 บาท (3,400 บาท/ตร.ม.)
+- รุ่น ไลน์ 2 นิ้ว เว้นร่อง 1 นิ้ว ราคาเริ่มต้น 58,500 บาท (3,900 บาท/ตร.ม.)
+- รุ่น ไลน์ 1 นิ้ว เว้นร่อง 2 นิ้ว ราคาเริ่มต้น 58,500 บาท (3,900 บาท/ตร.ม.)
+- รุ่น ไลน์ 1 นิ้ว เว้นร่อง 1 นิ้ว ราคาเริ่มต้น 70,500 บาท (4,700 บาท/ตร.ม.)
+- รุ่น Fretwork ราคาเริ่มต้น 63,000 บาท (4,200 บาท/ตร.ม.)
+-------------------------------------
+เงื่อนไขให้บริการเบื้องต้น
+- ติดตั้งบนรั้วคอนกรีตเดิมของลูกค้า ความสูงไม่เกิน 3 เมตร วัดจากพื้นดินถึงสูงสุดของแผ่น
+- ไม่รับติดตั้งเป็นรั้วสำเร็จรูป หรือติดตั้งกับโครงรั้วเหล็ก
+- ไม่รับติดตั้งบนระเบียง หรือติดตั้งบนพื้นดิน
+- ราคาไม่รวมลงเสาเข็ม หรือโครงสร้างใต้ดิน</t>
+  </si>
+  <si>
+    <t>แอร์ เราจะไม่ได้ไปย้ายครับ จะทำผนังกันเสียงโดยรอบ โดยเว้นกรอบช่องแอร์ไว้</t>
+  </si>
+  <si>
+    <t>บริการต่อเติมพื้นไม้เทียม
+รับติดตั้งพื้นที่ขั้นต่ำ 15 ตร.ม.ขึ้นไป
+ราคาติดตั้งเริ่มต้น ตามรุ่นของวัสดุ
+- พื้นไม้เทียมไฟเบอร์ซิเมนต์ ราคาเริ่มต้น 64,500 บาท (4,300 บาท/ตร.ม.)
+- ไม้พื้นทีคลิป คัลเลอร์ทรู ราคาเริ่มต้น 67,500 บาท (4,500 บาท/ตร.ม.)
+- พื้นไม้เทียม WPC ราคาเริ่มต้น 87,000 บาท (5,800 บาท/ตร.ม.)
+------------------------------------------
+ติดตั้งที่ความสูงไม่เกิน 5 ซม. เหนือพื้นดิน
+ราคารวม โครงเหล็ก, แผ่นพื้นไม้เทียม, แผ่นปิดขอบ, ค่าแรงในการติดตั้ง
+ราคาไม่งานโครงสร้างใต้ดิน เช่น งานลงเข็ม /เทตอม่อ / แทพื้นคอนกรีต</t>
+  </si>
+  <si>
+    <t>บริการต่อเติมห้องครัว รับต่อเติมพื้นที่ขั้นต่ำ 6.6 ตร.ม. 
+ราคาเริ่มต้น 343,200 บาท (52,000 บาท/ตร.ม.)
+วัสดุตามเงื่อนไขที่กำหนด (ห้องเปล่า)
+- ราคารวมลงเสาเข็มไมโครไพล์
+- โครงสร้างห้องเป็นเหล็ก / หลังคาเป็นเมทัลชีท(ทึบแสง) / ผนังก่ออิฐ Q-Con พร้อมทาสีผนัง / พื้นปูกระเบื้องเซรามิค
+- ประตูบานเลื่อน 1 บาน และ หน้าต่าง 1 บาน (ตามมาตราฐาน) 
+- ราคานี้ยังไม่รวมเครื่องใช้ไฟฟ้า และไม่รวมชุดบิ้วอิน
+- ราคาประเมินการ สามารถ +/- 20% หลังการสำรวจพื้นที่หน้างาน และการเลือกฟังก์ชั่นการใช้งาน
+- ราคานี้ยังไม่รวมรายการรื้อถอนต่างๆที่หน้างาน 
+--------------------------------------------
+เงื่อนไขให้บริการเบื้องต้น
+- ส่วนต่อเติมใหม่ ห่างจากโครงสร้างบ้านเดิม ไม่ยึดโครงสร้างติดกัน
+- ระยะห่างจากรั้วถึงห้องต่อเติม มากกว่า 50 ซม.
+- ไม่ทำบนโครงสร้างเดิมของลูกค้า
+- ไม่ต่อเติมบนระบบสุขาภิบาลเดิมของลูกค้า</t>
+  </si>
+  <si>
+    <t>บริการต่อเติมส่วนซักล้าง รับต่อเติมพื้นที่ขั้นต่ำ 3.9 ตร.ม. 
+ราคาเริ่มต้น 202,800 บาท (52,000 บาท/ตร.ม.)
+วัสดุตามเงื่อนไขที่กำหนด (ห้องเปล่า)
+- ราคารวมลงเสาเข็มไมโครไพล์
+- โครงสร้างห้องเป็นเหล็ก / หลังคาเป็นเมทัลชีท(ทึบแสง) / ผนังก่ออิฐ Q-Con พร้อมทาสีผนัง / พื้นปูกระเบื้องเซรามิค
+- ประตูบานเลื่อน 1 บาน และ หน้าต่าง 1 บาน (ตามมาตราฐาน) 
+- ราคานี้ยังไม่รวมเครื่องใช้ไฟฟ้า และไม่รวมชุดบิ้วอิน
+- ราคาประเมินการ สามารถ +/- 20% หลังการสำรวจพื้นที่หน้างาน และการเลือกฟังก์ชั่นการใช้งาน
+- ราคานี้ยังไม่รวมรายการรื้อถอนต่างๆที่หน้างาน 
+--------------------------------------------
+เงื่อนไขให้บริการเบื้องต้น
+- ส่วนต่อเติมใหม่ ห่างจากโครงสร้างบ้านเดิม ไม่ยึดโครงสร้างติดกัน
+- ระยะห่างจากรั้วถึงห้องต่อเติม มากกว่า 50 ซม.
+- ไม่ทำบนโครงสร้างเดิมของลูกค้า
+- ไม่ต่อเติมบนระบบสุขาภิบาลเดิมของลูกค้า</t>
+  </si>
+  <si>
+    <t>บริการต่อเติมห้องอเนกประสงค์ รับต่อเติมพื้นที่ขั้นต่ำ 12 ตร.ม.
+ราคาเริ่มต้น 487,200 บาท (40,600/ ตารางเมตร)
+วัสดุตามเงื่อนไขที่กำหนด (ห้องเปล่า)
+- ราคารวมลงเสาเข็มไมโครไพล์
+- โครงสร้างห้องเป็นเหล็ก / หลังคาเป็นเมทัลชีท(ทึบแสง) / ผนังก่ออิฐ Q-Con พร้อมทาสีผนัง / พื้นปูกระเบื้องเซรามิค
+- ประตูบานเลื่อน 1 บาน และ หน้าต่าง 1 บาน (ตามมาตราฐาน) 
+- ราคานี้ยังไม่รวมเครื่องใช้ไฟฟ้า และไม่รวมชุดบิ้วอิน
+- ราคาประเมินการนี้ สามารถ +/- 20% หลังการสำรวจพื้นที่หน้างาน และการเลือกฟังก์ชั่นการใช้งานอีกครั้ง
+- ราคานี้ยังไม่รวมรายการรื้อถอนต่างๆที่หน้างาน 
+--------------------------------------------
+เงื่อนไขให้บริการเบื้องต้น
+- ส่วนต่อเติมใหม่ ห่างจากโครงสร้างบ้านเดิม ไม่ยึดโครงสร้างติดกัน
+- ระยะห่างจากรั้วถึงห้องต่อเติม มากกว่า 50 ซม.
+- ไม่ทำบนโครงสร้างเดิมของลูกค้า
+- ไม่ต่อเติมบนระบบสุขาภิบาลเดิมของลูกค้า</t>
+  </si>
+  <si>
+    <t>บริการต่อเติมห้องผู้สูงอายุ รับต่อเติมพื้นที่ขั้นต่ำ 21.6 ตร.ม.
+ราคาเริ่มต้น 1,123,200 บาท (52,000 บาท/ตร.ม.)
+วัสดุตามเงื่อนไขที่กำหนด (ห้องเปล่า)
+- ราคารวมลงเสาเข็มไมโครไพล์
+- โครงสร้างห้องเป็นเหล็ก / หลังคาเป็นเมทัลชีท(ทึบแสง) / ผนังก่ออิฐ Q-Con พร้อมทาสีผนัง / พื้นปูกระเบื้องเซรามิค
+- ประตูบานเลื่อน 1 บาน และ หน้าต่าง 1 บาน (ตามมาตราฐาน) 
+- ราคานี้ยังไม่รวมเครื่องใช้ไฟฟ้า และไม่รวมชุดบิ้วอิน
+- ราคาประเมินการนี้ สามารถ +/- 20% หลังการสำรวจพื้นที่หน้างาน และการเลือกฟังก์ชั่นการใช้งานอีกครั้ง
+- ราคานี้ยังไม่รวมรายการรื้อถอนต่างๆที่หน้างาน 
+--------------------------------------------
+เงื่อนไขให้บริการเบื้องต้น
+- ส่วนต่อเติมใหม่ ห่างจากโครงสร้างบ้านเดิม ไม่ยึดโครงสร้างติดกัน
+- ระยะห่างจากรั้วถึงห้องต่อเติม มากกว่า 50 ซม.
+- ไม่ทำบนโครงสร้างเดิมของลูกค้า
+- ไม่ต่อเติมบนระบบสุขาภิบาลเดิมของลูกค้า</t>
+  </si>
+  <si>
     <t>บริการ Re-Roof เปลี่ยนกระเบื้องหลังคาทั้งผืน
 ราคาเริ่มต้น 120,000 บาท
 ราคาติดตั้งเริ่มต้น ตามวัสดุของหลังคา
 - กระเบื้องไฟเบอร์ซีเมนต์ : ลอนคู่ 900 บาท/ตร.ม. | พรีม่า 1,200 บาท/ตร.ม.
 - กระเบื้องคอนกรีต : CPAC 1,200 บาท/ตร.ม. | Prestige 1,300 บาท/ตร.ม. | Neustile 1,700 บาท
-- กระเบื้องเซรามิก :  Celica 1,900 บาท/ตร.ม. | Excella 2,100 บาท/ตร.ม.
+- กระเบื้องเซรามิก : Celica 1,900 บาท/ตร.ม. | Excella 2,100 บาท/ตร.ม.
 -------------------------------------
 เงื่อนไขให้บริการเบื้องต้น
 - เปลี่ยนกระเบื้องหลังคาทั้งผืน
@@ -351,63 +403,14 @@
 - ราคาที่แน่นอนจะต้องประเมินจากหน้างานจริงเท่านั้น</t>
   </si>
   <si>
-    <t>บริการ Repaint พ่นสีหลังคาเก่า รับพื้นที่ขั้นต่ำ 200 ตร.ม. 
-ราคาเริ่มต้น 64,000 บาท (320 บาท/ตร.ม.)
---------------------------------------------
-เงื่อนไขให้บริการเบื้องต้น 
-- บ้านเดี่ยว เท่านั้น
-- รับเฉพาะหลังคาคอนกรีตเท่านั้น
-- รับประกันงานติดตั้ง 1 ปี
--------------------------------------------
-ขั้นตอนบริการ
-จำนวนรอบการพ่นสี ขึ้นอยู่กับอายุปีของหลังคา
-1.ล้างทำความสะอาด ขจัดคราบฝุ่น
-2.พ่นสีรองพื้น 1 รอบ
-3.พ่นสีใหม่ 2 รอบ</t>
-  </si>
-  <si>
-    <t>สีพิเศษ : 80 บาท/ตร.ม.
-ทากันซึม : 180 บาท/ตร.ม./รอบ
-ทากันรา : 110 บาท/ตร.ม./รอบ</t>
-  </si>
-  <si>
-    <t>บริการ Top Up Roof รับติดตั้งพื้นที่ขั้นต่ำ 50 ตร.ม. 
-ราคาเริ่มต้น 60,000 บาท (1,200 บาท/ตร.ม.)
---------------------------------------------
-เงื่อนไขให้บริการเบื้องต้น 
-- ทาวน์โฮม เท่านั้น
-- ทาวน์โฮม : กระเบื้องลอนคู่ทุกแบรนด์
-- บ้านเดี่ยว พรีม่า, โปรลอน ยกเว้นโอลิมปิก
-- ติดตั้งความสูงไม่เกิน 3 ชั้น
-- ติดตั้ง Metal Sheet สี AluZinc หนา 0.35 mm. เท่านั้น
-- ไม่รับงานใกล้สายไฟฟ้าแรงสูง 3 เมตร
-- รับประกันงานติดตั้ง 1 ปี</t>
-  </si>
-  <si>
-    <t>หลังคาเมทัลรูฟ รุ่น ลอนคู่
-ราคาเริ่มต้น 500 บาท/แผ่น (ความยาว 2.20 เมตร)
---------------------------------------------
-- สินค้าติดตั้งเอง ไม่ใช่บริการติดตั้ง
-- ราคาเฉพาะแผ่น ไม่รวมอุปกรณ์ยึดแผ่น
-- ติดตั้งกับหลังคาลอนคู่ได้ทุกแบรนด์
-- มี 2 ขนาดความยาว คือ 2.20 เมตร กับ 3.20 เมตร
-- สินค้าสต็อกบางสาขา ตรวจสอบสต็อกก่อนสั่งซื้อ</t>
-  </si>
-  <si>
-    <t>HomeSmile ตั้งอยู่ที่ SCG HOME Experience ชั้น 3 
-สาขาเลียบทางด่วนเอกมัย-รามอินทรา (CDC) กรุงเทพมหานคร
-เปิดให้บริการทุกวัน เวลา 10.00 - 19.00 น.
-https://maps.app.goo.gl/oBu3W8CFPTjVmiHW7</t>
-  </si>
-  <si>
     <t>บริการต่อเติมหลังคาโรงรถ กันสาด (แบบ ระบบ Prefab)
 รับติดตั้งพื้นที่ขั้นต่ำ 15 ตร.ม.ขึ้นไป
 ราคาติดตั้งเริ่มต้น ตามวัสดุของกันสาด
-- หลังคา ShinkoLite  ราคาเริ่มต้น 85,500 บาท (5,700 บาท/ตร.ม)
-- หลังคาไวนิล สีขาว  ราคาเริ่มต้น 76,500 บาท (5,100 บาท/ตร.ม.)
-- หลังคาโปร่งแสง นิวไลท์  ราคาเริ่มต้น 87,000 บาท (5,800 บาท/ตร.ม.)
-- หลังคาโปร่งแสง ลอนกันสาด  ราคาเริ่มต้น 67,500 บาท (4,500 บาท/ตร.ม.)
-- หลังคาเมทัลชีท  ราคาเริ่มต้น 58,500 บาท (3,900 บาท/ตร.ม.)
+- หลังคา ShinkoLite ราคาเริ่มต้น 85,500 บาท (5,700 บาท/ตร.ม)
+- หลังคาไวนิล สีขาว ราคาเริ่มต้น 76,500 บาท (5,100 บาท/ตร.ม.)
+- หลังคาโปร่งแสง นิวไลท์ ราคาเริ่มต้น 87,000 บาท (5,800 บาท/ตร.ม.)
+- หลังคาโปร่งแสง ลอนกันสาด ราคาเริ่มต้น 67,500 บาท (4,500 บาท/ตร.ม.)
+- หลังคาเมทัลชีท ราคาเริ่มต้น 58,500 บาท (3,900 บาท/ตร.ม.)
 -------------------------------------
 - ราคาติดตั้งแบบไร้เสา
 - ราคารวมวัสดุแผ่น, โครงเหล็ก และวัสดุตามเงื่อนไขที่กำหนด
@@ -422,29 +425,188 @@
 - ราคาเริ่มต้น 44,700 บาท (1,450 บาท/ตร.ม.)
 --------------------------------------------
 ราคาติดตั้งเริ่มต้น บนพื้นซีเมนต์คอนกรีต
-- รุ่น London  ราคาเริ่มต้น 47,700 บาท (1,590 บาท/ตร.ม.)
-- รุ่น UVT  ราคาเริ่มต้น 50,700 บาท (1,690 บาท/ตร.ม.)
-- รุ่น VENTOLA  ราคาเริ่มต้น 50,700 บาท (1,690 บาท/ตร.ม.)
+- รุ่น London ราคาเริ่มต้น 47,700 บาท (1,590 บาท/ตร.ม.)
+- รุ่น UVT ราคาเริ่มต้น 50,700 บาท (1,690 บาท/ตร.ม.)
+- รุ่น VENTOLA ราคาเริ่มต้น 50,700 บาท (1,690 บาท/ตร.ม.)
 --------------------------------------------
 - ราคาติดตั้งเริ่มต้น รวม แผ่นกระเบื้องคอนกรีต, ช่างติดตั้ง
 - ราคารวมการปรับระดับ 1 ชั้น : พื้นดิน ปูบนพื้นทราย หนาไม่เกิน 5 ซม./พื้นคอนกรีต ปูบนปูนทราย หนาไม่เกิน 3 ซม.
 - ราคาไม่รวมค่าขอบคันหิน และอุปกรณ์เสริมต่างๆ ที่จะใช้เพิ่มที่หน้างาน</t>
   </si>
   <si>
-    <t>context</t>
+    <t>เปลี่ยนพื้นที่บ้านให้ครบครันและสวยงามได้ทุกฤดูด้วยบริการต่อเติมโรงรถกันสาดแผ่นอะคริลิกโปร่งแสง SHINKOLITE!
+คุณสมบัติ
+- โปร่งแสงและทนทานทุกฤดูกาล: ไม่ว่าจะเป็นฝนตกหรือแดดร้อน แผ่นอะคริลิก SHINKOLITE ของเราก็สามารถรับมือได้อย่างยอดเยี่ยม
+- กันฝนไม่ให้เกิดเสียงดัง: หมดกังวลเรื่องเสียงดังรบกวนจากฝนตก ให้คุณได้สัมผัสความเงียบสงบได้ตลอดเวลา
+- กรองแสงแดดและป้องกัน UV: ปกป้องคุณและครอบครัวจากแสงแดดที่แรงเกินไป พร้อมทั้งป้องกันรังสี UV อันตราย
+- ลดอุณหภูมิใต้หลังคา: ลดอุณหภูมิใต้หลังคาได้สูงสุดถึง 10 องศา ให้คุณได้สัมผัสความเย็นสบายในบ้านของคุณ
+-------------------------
+แผ่นอะคริลิกโปร่งแสง SHINKOLITE ให้เลือกถึง 3 รุ่น เพื่อตอบสนองความต้องการที่หลากหลาย
+- HEAT CUT SERIES ให้ความโปร่ง โล่ง ช่วยตัดรังสียูวี
+- SUPERIOR SERIES ช่วยกรองแสง พรางสายตา
+- SHADE SERIES ช่วยสร้างร่มเงาที่เป็นธรรมชาติจากแสงที่ส่องผ่าน
+--------------------------------------------------------
+ราคาเริ่มต้นเพียง 4,900 บาท/ตร.ม.</t>
+  </si>
+  <si>
+    <t>บริการต่อเติมมุมซักล้าง บอกลาผ้าเหม็นอับ
+ช่วงนี้ฝนเริ่มมาแล้ว HomeSmile เอาใจสายพ่อบ้านแม่บ้าน ด้วยบริการต่อเติมส่วนซักล้าง ที่ครบทั้งฟังก์ชันการใช้งาน พร้อมความสวยงามเป็นระเบียบ
+เพราะส่วนซักล้างเป็นอีกมุมของบ้านที่ไม่ควรมองข้าม
+โฮมสมายล์จึงออกแบบให้ตอบโจทย์การใช้งานได้สะดวกและครบครันในพื้นที่เดียวไม่ว่าจะ ซัก อบ ตาก แม้มีพื้นที่จำกัด
+ฟรี! ปรึกษากับผู้เชี่ยวชาญ พร้อมรับราคาประมาณการ ไม่มีค่าใช้จ่าย!
+----------------------------------------------
+บริการต่อเติมบ้านแบบ one-stop service
+- มั่นใจ งานตรงปก หมดห่วงทุกปัญหาด้วยทีมช่างมืออาชีพ
+- ง่าย สะดวก มีผู้เชี่ยวชาญช่วยดูแลทุกขั้นตอน
+- ส่งงานตรงเวลา มีมาตรฐาน เชื่อถือได้
+- พร้อมรับประกันงานติดตั้ง 1 ปี</t>
+  </si>
+  <si>
+    <t>ต้องการต่อเติมห้องที่ปรับเปลี่ยนการใช้งานได้ตามต้องการ มาปรึกษาผู้ที่เชี่ยวชาญฟรีกับโฮมสมายล์
+- ระบบการต่อเติมบ้านรูปแบบใหม่จากโฮมสมายล์ เพื่อการอยู่อาศัยที่ดีกว่า ด้วยระบบ SmartSpace+ ที่เลือกใช้โครงสร้าง Light Gauge Steel System คำนวณด้วยระบบคอมพิวเตอร์ แข็งแรง แม่นยำ ติดตั้งได้เร็วกว่า พร้อมเสริมชั้นฉนวนด้วยวัสดุพิเศษและเลือกใช้ประตูหน้าต่างเฉพาะรุ่น เพื่อกันร้อน กันฝุ่นและเสียงรบกวน เพิ่มประสิทธิภาพการอยู่อาศัย ทำให้บ้าน
+- เย็นกว่า
+- เงียบกว่า
+- ติดตั้งเร็วกว่า
+-----------------------------------------------------------
+ต่อเติมห้องอเนกประสงค์กับ HomeSmile 
+- ง่าย สะดวก ครบ จบในที่เดียว
+- ดูแลทุกขั้นตอนโดยผู้เชี่ยวชาญ SCG
+- มั่นใจ พร้อมการรับประกัน
+-----------------------------------------------------------
+- ค่าสำรวจ 2,000.-</t>
+  </si>
+  <si>
+    <t>อยากเปลี่ยนมุมเปล่ารอบบ้านให้สวยงาม เพิ่มพื้นที่แห่งความสุข ทำกิจกรรมร่วมกับครอบครัว 
+--------------------------------------------
+บริการต่อเติมมุมพักผ่อนรอบบ้าน
+- เพิ่มฟังก์ซันการใช้งานพร้อมดีไซน์ที่สวยงาม
+- ง่าย มีแบบให้เลือก คุมงบได้
+- สะดวก จบงานได้ในที่เดียว
+- ติดตั้งโดยทีมช่างมืออาชีพ พร้อมการรับประกัน
+---------------------------------------------
+ปรับภูมิทัศน์รอบบ้านให้สวยด้วยบริการติดตั้งพื้นกระเบื้องคอนกรีต
+ราคา1,490 บาท
+- สีสันลวดลายสวยงามเหมือนธรรมชาติ
+-ผิวสัมผัสสมจริง ด้วยพื้นผิวร่องลายลึกกว่ากระเบื้องเซรามิค
+แข็งแกร่งด้วยความหนาถึง 3.5 ชม. รองรับน้ำหนักได้สูง
+- โครงสร้างพื้นแน่น ใช้เครื่องตบอัดพื้นถึง 3 ขั้นตอน มั่นใจความแข็งแรง
+- ติดตั้งโดยทีมงานมืออาชีพ สวยงาม ผิวบล็อกเรียบเสมอกัน
+- คำนวณทิศทางไหลของน้ำ ป้องกันน้ำขัง ยึดอายุการใช้งาน รับประกับงานติดตั้ง 1 ปี
+---------------------------------------------
+เพิ่มพื้นที่สวยเป็นธรรมชาติด้วยบริการติดตั้งพื้นไม้เทียม WPC รุ่น WOODSENSE
+ราคา4,900 บาท
+- สีในเนื้อไม้ สวยดุจธรรมชาติ
+- กันลื่น ทนชื้น ดูแลรักษาง่าย
+- ใช้วัสดุและอุปกรณ์ติดตั้งที่ได้มาตรฐาน มั่นใจในความแข็งแรง
+- ติดตั้งโดยทีมงานมืออาชีพ พร้อมรับประกันงานติดตั้ง 1 ปี
+---------------------------------------
+โปรโมชันพิเศษสำหรับในวันงานเท่านั้น 
+- ต่อเติมมุมพักผ่อนรอบบ้าน ค่าสำรวจ 3,000 บาท 
+- ติดตั้งพื้นกระเบื้องคอนกรีตหรือพื้นภายนอก ค่าสำรวจ 1,000 บาท</t>
+  </si>
+  <si>
+    <t>บริการต่อเติมกันสาด ด้วยระบบโครงหลังคาสำเร็จรูป PREFAB มั่นใจในความคงทน แข็งแรง วัสดุมีให้เลือกหลากหลายตามความต้องการทั้งแผ่นโปร่งแสงและทึบแสง ทำให้บ้านสวยงาม ช่วยป้องกันรถที่คุณรักจากแดดและฝน 
+- โครงเหล็กผลิตได้มาตรฐานจากโรงงาน
+- โครงสร้างแข็งแรง คำนวนระยะยื่นอย่างเหมาะสม
+- ติดตั้งไว หน้างานสะอาดกว่า
+-----------------------------------------
+- ค่าสำรวจเริ่มต้น 1,000 บาท 
+- ต่อเติมกันสาดแผ่นอะคริลิคชินโคไลท์ รุ่น Heat Cut 7,300 บาท/ตร.ม.
+-------------------------------------------
+นอกจากต่อเติมกันสาดแล้ว ทางโฮมสมายล์บริการต่อเติมบ้านครบวงจร ยังมีบริการ ต่อเติมโรงรถแบบมีเสา (2เสา 4 เสา) กับ ต่อเติมโรงรถที่แยกออกจากตัวบ้าน (Stand-Alone) อีกด้วย
+บริการต่อเติมทั้งหมดจาก HomeSmile ดูแลโดยผู้เชี่ยวชาญ SCG พร้อมการรับประกัน</t>
+  </si>
+  <si>
+    <t>โปรโมชันเด็ด สุดพิเศษมาแล้ว สำหรับงานสถาปนิก'67 เท่านั้น หลากหลายบริการให้ได้เลือกสรร ยิ่งเปิดสำรวจมากยิ่งคุ้ม ราคาพิเศษเริ่มต้น 499 บาท ปกติ 1,000 บาท ปรึกษาผู้เชี่ยวชาญ SCG ฟรี!
+1. ต่อเติมโรงรถ กันสาด วัสดุหลังคาทั้งโปร่งแสงและทึบแสง
+-แผ่นอะคริลิคโปร่งแสง รุ่น Heat Cut (ลดความร้อนใต้หลังคาได้ 5°C)
+ราคาพิเศษ 5,800 บาท/ตร.ม. พร้อมติดตั้ง ปกติ 7,000 บาท/ตร.ม.
+- แผ่นทึบแสงไวนิล (แข็งแรงทนทานต่อสภาวะอากาศ) 
+ราคาพิเศษ 4,200 บาท/ตร.ม. พร้อมติดตั้ง ปกติ 4,800 บาท/ตร.ม.
+-------------------------------------------------------
+2. ต่อเติมห้องครัว ส่วนซักล้าง หรือห้องอเนกประสงค์
+- ค่าสำรวจ 2,000 บาท 
+---------------------------------------------------------
+3. ต่อเติมพื้นที่รอบบ้าน 
+-ค่าสำรวจพิเศษต่อเติมมุมพักผ่อนรอบบ้าน 3,000 บาท 
+-ติดตั้งกระเบื้องคอนกรีต ราคา 1,490 บาท/ตร.ม.</t>
+  </si>
+  <si>
+    <t>SET เตาแก๊สฝัง + เครื่องดูดควัน HAFELE
+ราคาเพียง 7,900.- (จากปกติ 19,820.-)
+----------------------------------------------------
+คุณสมบัติ
+- วัสดุ : สเตนเลสสตีล
+- กำลังดูด 1,200 ลบ.ม.
+- ปรับระดับแรงดูดได้ 3 ระดับ
+- พลังงานรวมที่ใช้ 224 วัตต์</t>
+  </si>
+  <si>
+    <t>ประตูไว้ใช้ภายในบ้านที่มีลายไม้เสมือนจริง ทั้งยังติดตั้งได้ทันที และราคาดีไม่น้อย ขอแนะนำ “ประตูเมลามีน” 
+------------------------------------------------------------------- 
+- ประตูเมลามีน ราคาเริ่มต้น 1,900.00 บาท / บาน</t>
+  </si>
+  <si>
+    <t>บริการติดตั้งพื้นคอนกรีตพิมพ์ลาย โดย CPAC”
+---------------------------------------------
+- ค่าสำรวจหน้างานราคา 1,000 บ. 
+- พื้นที่ 1-30 ตร.ม. (Topping ความหนา 7 ซม.) ราคา 43,000 บ. ส่วนเกินคิดเพิ่ม 900 บ./ตร.ม.
+- พื้นที่ 1-30 ตร.ม. (ความหนา 10 ซม.) ราคา 66,000 บ. ส่วนเกินคิดเพิ่ม 1,600 บ./ตร.ม.
+- พื้นที่ 1-30 ตร.ม. (ความหนา 12.5 ซม.) ราคา 69,000 บ. ส่วนเกินคิดเพิ่ม 1,700 บ./ตร.ม.</t>
+  </si>
+  <si>
+    <t>ปกป้องพื้นลามิเนตของคุณด้วยแผ่นพีอีโฟม
+จาก Home Choice by SCG Home
+--------------------------------------------------
+- ขนาด 1.3 ม. x 15 ม. x 1.0 มม.
+ราคาเพียง 189.-/ม้วน (จากปกติ 209.-/ม้วน)
+- ขนาด 1.3 ม. x 15 ม. x 2.0 มม.
+ราคาเพียง 229.-/ม้วน (จากปกติ 279.-/ม้วน)
+-----------------------------------------------------
+คุณสมบัติ
+- แผ่นโฟมสำหรับรองพื้นเพื่อการปูพื้นไม้ลามิเนต
+- ผลิตจากพลาสติกโพลีเอทิลีนเกรด A มีความเหนียว
+- แข็งแรงทนทานต่อแรงกระแทก และความร้อนได้ดี</t>
+  </si>
+  <si>
+    <t>รั้วเตี้ยไปอยากต่อให้สูงขึ้น อยากทำแผงบังตากั้นให้รู้สึกเป็นสัดส่วน เป็นส่วนตัว จัดให้ได้ด้วย “ไม้ระแนงไฟเบอร์ซีเมนต์” ได้ฟีลแบบไม้แต่ทนกว่า ดูแลรักษาง่ายกว่า ปลวกไม่กิน... ชอบลุคไหนกัน จัดไป!!! 
+- ไม้บังตาตกแต่ง เอสซีจี เดคคอร์ 
+- รั้วระแนงบังตา รุ่น ไลน์ 
+- รั้วระแนงบังตา รุ่น Fretwork
+--------------------------------------------------- 
+ติดตั้ง รั้ว ระแนงบังตา ไฟเบอร์ซิเมนต์ โดย HomeSmile (เริ่มต้น 2,800 บ./ตร.ม.)</t>
+  </si>
+  <si>
+    <t>หล่อพื้น เทพื้นหน้าบ้านทั้งที เอาแบบดีๆ ทนๆ
+---------------------------------------------------------------
+หล่อพื้นคอนกรีตเสริมเหล็ก Standard Floor (เท ปาด ขัด) โดยทีมช่าง CPAC (เริ่มต้น 45,900 บาท)-
+- พื้นที่ 1-30 ตร.ม. ความหนา 10 ซม. เริ่มต้นเพียง 45,900 บาท 
+- พื้นที่ 1-30 ตร.ม. ความหนา 12.5 ซม. เริ่มต้นเพียง 48,900 บาท</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,12 +629,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,190 +980,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AEA82-BF8D-D54E-A5FA-BADEDC03F209}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="90.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="323" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="323" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="356" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="289" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="306" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="289" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="289" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="170" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="306" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="306" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="306" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="306" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="340" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+    <row r="36" spans="1:1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/context_scg_home.xlsx
+++ b/data/context_scg_home.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasunimsuwan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31431C34-48C0-0E47-BAF9-9F7CE3D74679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BFECA5-FD4E-5D46-827E-BB41FDC59A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="1840" windowWidth="36000" windowHeight="21480" xr2:uid="{4845C39F-9F50-9C4F-9591-143131F091DE}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{4845C39F-9F50-9C4F-9591-143131F091DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ค่าเสาพร้อมเข็มเหล็ก ราคาเริ่มต้น 10,500 บาท/ต้น // ค่าเสา ราคาเริ่มต้น 5,500 บาท/ต้น ไม่รวมลงเสาเข็ม</t>
   </si>
@@ -582,6 +582,276 @@
 หล่อพื้นคอนกรีตเสริมเหล็ก Standard Floor (เท ปาด ขัด) โดยทีมช่าง CPAC (เริ่มต้น 45,900 บาท)-
 - พื้นที่ 1-30 ตร.ม. ความหนา 10 ซม. เริ่มต้นเพียง 45,900 บาท 
 - พื้นที่ 1-30 ตร.ม. ความหนา 12.5 ซม. เริ่มต้นเพียง 48,900 บาท</t>
+  </si>
+  <si>
+    <t>กาวซีเมนต์ จระเข้เอ็กซ์ตรีม
+นวัตกรรมกาวซีเมนต์ สำหรับกระเบื้อง Big Slab
+ปูกระเบื้องทุกชนิด หินอ่อน หินธรรมชาติขนาดใหญ่ยักษ์
+ปูทับได้ทั้ง กระเบื้อง ไม้อัดโครงสร้าง ไฟเบอร์ซีเมนต์
+แรงยึดเกาะสูงพิเศษ ทนต่อแรงสั่นสะเทือน
+ได้รับมาตรฐานสูงสุดทั้งมาตรฐานยุโรปและอเมริกา
+ลักษณะการใช้งาน
+กาวซีเมนต์ จระเข้เอ็กซ์ตรีม เป็นปูนกาวที่เหมาะสำหรับปูกระเบื้อง Big Slab กระเบื้องขนาดใหญ่ทุกชนิด และใช้ปูทับพื้นเดิมได้ แรงยึดเกาะสูงพิเศษ ยืดหยุ่นสูง และทนต่อทุกสภาพอากาศ
+ผลิตภัณฑ์ที่สามารถเพิ่มคะแนนในการรับรองมาตรฐานอาคารเขียว
+มาตรฐานอเมริกา : ANSI A 118.1, A 118.4, A 118.15
+มาตรฐานยุโรป : EN 12004 C2S2E ระดับสูงสุดของโลก
+สีของผลิตภัณฑ์ : สีเทา
+ขนาดบรรจุ : 20 กิโลกรัม/ถุง
+ห้องมีขนาด 10 ตารางเมตร
+กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
+  </si>
+  <si>
+    <t>กาวซีเมนต์ จระเข้สโตนเมท
+กาวซีเมนต์สีขาวสำหรับปูหินอ่อน หินธรรมชาติ ลดการเกิดคราบขาว
+ปูนกาวปูกระเบื้องใช้ได้ในพื้นที่ที่มีความชื้นสูง 
+ลดการเกิดคราบขาวด้วย WCAC Technology
+ปูกระเบื้องขนาดใหญ่มากทุกชนิด พื้นและผนัง ภายใน-ภายนอกอาคาร
+เนื้อกาวสีขาวเนียน ช่วยให้หินอ่อน หินธรรมชาติสีอ่อน สวยสดใส
+ใช้ได้ทั้งพื้นและผนัง
+ลักษณะการใช้งาน
+กาวซีเมนต์ จระเข้สโตนเมท เป็นปูนกาวสีขาว เหมาะสำหรับใช้ปูหินอ่อน หินธรรมชาติ และกระเบื้องทุกชนิด ทั้งภายใน-ภายนอกอาคาร ช่วยป้องกันการเกิดคราบขาวได้เป็นอย่างดี
+มาตรฐานอเมริกา : ANSI A 118.1, A 118.4,A 118.15
+สีของผลิตภัณฑ์ : สีขาว
+ขนาดบรรจุ : 20 กิโลกรัม/ถุง
+ห้องมีขนาด 10 ตารางเมตร
+กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
+  </si>
+  <si>
+    <t>กาวซีเมนต์ จระเข้เกรย์สโตนเมท
+กาวซีเมนต์สำหรับปูกระเบื้องและหินธรรมชาติสีเข้ม ลดการเกิดคราบขาว
+ปูนกาวปูกระเบื้องใช้ได้ในพื้นที่ที่มีความชื้นสูง
+ลดการเกิดคราบขาว ด้วย CAC Technology
+เหมาะสำหรับกระเบื้องทุกชนิดและหินธรรมชาติสีเข้ม ทุกขนาด
+ใช้ได้ทั้งพื้นและผนัง
+ลักษณะการใช้งาน
+กาวซีเมนต์ จระเข้เกรย์สโตนเมท มีส่วนผสมของซีเมนต์ชนิดพิเศษที่มีคุณสมบัติป้องกันการเกิดคราบขาวได้ดี จึงเหมาะกับงานติดตั้งกระเบื้องและหินธรรมชาติสีเข้มทุกชนิด
+ผลิตภัณฑ์ที่สามารถเพิ่มคะแนนในการรับรองมาตรฐานอาคารเขียว
+มาตรฐานอเมริกา : ANSI A118.1, A118.4, A118.15
+สีของผลิตภัณฑ์ : สีเทา
+ขนาดบรรจุ : 20 กิโลกรัม/ถุง
+ห้องมีขนาด 10 ตารางเมตร
+กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
+  </si>
+  <si>
+    <t>กาวซีเมนต์ ชาละวัน
+กาวซีเมนต์คุณภาพดี ปูนกาวยืดหยุ่นสูงและยึดเกาะแน่น
+ปูนกาวปูกระเบื้องแกรนิตโต้พื้นขนาดมาตรฐาน ภายใน-ภายนอกอาคาร
+ปูกระเบื้องเซรามิกทุกขนาด พื้นและผนัง ภายในอาคาร
+ใช้งานง่ายไม่ต้องแช่กระเบื้องในน้ำก่อนปู
+ลักษณะการใช้งาน
+กาวซีเมนต์ ชาละวัน เป็นปูนกาวที่เหมาะสำหรับงานปูกระเบื้องแกรนิตโต้ขนาดมาตรฐาน และกระเบื้องทั่วไป ยึดเกาะเหนียวแน่นกว่าปูนดำ ใช้งานง่าย สามารถใช้ปูกระเบื้องพื้นและผนังภายใน-ภายนอกอาคาร โดยไม่ต้องแช่กระเบื้องในน้ำก่อนปู
+สีของผลิตภัณฑ์ : สีเทา
+ขนาดบรรจุ : 20 กิโลกรัม/ถุง
+ห้องมีขนาด 10 ตารางเมตร
+กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
+  </si>
+  <si>
+    <t>กาวซีเมนต์ เกเตอร์
+กาวซีเมนต์คุณภาพเกินคุ้ม ปูนกาวยึดเกาะสูง สะดวก ใช้งานง่าย
+ปูกระเบื้องแกรนิตโต้พื้นขนาดมาตรฐาน ภายในอาคาร
+กระเบื้องเซรามิกทุกขนาด พื้นและผนัง ภายในอาคาร
+สะดวกไม่ต้องแช่กระเบื้องในน้ำก่อนปู
+ลักษณะการใช้งาน
+กาวซีเมนต์เกเตอร์ ประกอบด้วยปูนซีเมนต์ปอร์ตแลนด์ ทราย และวัสดุผสมพิเศษอื่น ๆ ทำให้ผลิตภัณฑ์มีคุณสมบัติที่ให้การยึดเกาะสูง สำหรับงานปูกระเบื้องเซรามิกทั่วไป ใช้ได้ทั้งพื้นและผนัง ภายในอาคาร โดยไม่ต้องแช่กระเบื้องก่อนปู
+สีของผลิตภัณฑ์ : สีเทา
+ขนาดบรรจุ : 20 กิโลกรัม / 25 กิโลกรัม/ถุง
+ห้องมีขนาด 10 ตารางเมตร
+กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
+กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
+  </si>
+  <si>
+    <t>กาวยาแนว จระเข้ แพลทินัม
+กาวยาแนวสำหรับกระเบื้องสระว่ายน้ำ สปา ซาวน่า
+• รับแรงอัด แรงดันน้ำ ทนอุณหภูมิสูง ยึดเกาะสูง
+• แห้งตัวเร็ว เปิดใช้พื้นที่ได้ไว เติมน้ำได้หลังยาแนว 24 ชั่วโมง
+• ลดคราบขาว ด้วย WCAC Technology
+• ยับยั้งราดำและตะไคร่น้ำด้วยเทคโนโลยีไมโครแบน
+• สำหรับร่องยาแนวขนาด 2-15 มม.
+ลักษณะการใช้งาน
+กาวยาแนว จระเข้ แพลทินัม เป็นปูนยาแนวสูตรพิเศษที่เหมาะสำหรับงานปูกระเบื้องพื้นที่ที่ต้องการความทนทานสูงและงานยาแนวภายนอกอาคาร เช่น สระว่ายน้ำ สปา ซาวน่า ช่วยยับยั้งราดำ ตะไคร่น้ำ และแบคทีเรีย มาตรฐานอเมริกา
+มาตรฐานอเมริกา : ANSI A 118.6 (Sanded), ANSI A 118.7 (Sanded)
+สีของผลิตภัณฑ์  : 9 เฉดสี
+- ขาวไข่มุก
+- สีครีมงาช้าง
+- ครีม
+- สีเขียวตองอ่อน
+- สีเขียวพรมศิลา
+- ฟ้ารุ่งอรุณ
+- น้ำเงินไพลิน
+- เทาแกรนิต
+- ดำลิกไนต์
+ขนาดบรรจุ : 1 กก. / ถุง
+หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
+ห้องมีขนาด 10 ตารางเมตร
+ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 4 ถุง</t>
+  </si>
+  <si>
+    <t>กาวยาแนว จระเข้ พรีเมี่ยม พลัส เงิน
+สูตรพิเศษที่ช่วยยับยั้งการเกิดราดำรายแรก ด้วยเทคโนโลยีไมโครแบน
+ยับยั้งการเกิดราดำด้วยเทคโนโลยีไมโครแบน
+ลดการสะสมของคราบสกปรกฝังแน่นด้วยสารไฮโดรโฟบิก
+ยึดเกาะสูง ไม่หลุดล่อน ไม่หดตัวด้วยกาวลาเท็กซ์พอลิเมอร์
+เหมาะสำหรับภายในและภายนอกอาคาร
+สำหรับร่องยาแนวขนาด 1-7 มม.
+ลักษณะการใช้งาน
+กาวยาแนว จระเข้ พรีเมี่ยม พลัส เงิน เป็นปูนยาแนวเนื้อละเอียดชนิดพิเศษที่เหมาะสำหรับงานปูกระเบื้องที่มีร่องยาแนวไม่เกิน 7 มม. มีคุณสมบัติยับยั้งราดำ ลดการสะสมของคราบสกปรกฝังแน่น และเพิ่มแรงยึดเกาะ ใช้งานได้ทั้งภายในและภายนอกอาคาร
+ผลิตภัณฑ์ที่สามารถเพิ่มคะแนนในการรับรองมาตรฐานอาคารเขียว
+มาตรฐานอเมริกา : ANSI A 118.6 (Unsanded), ANSI A 118.7 (Unsanded)
+สีของผลิตภัณฑ์  : 35 เฉดสี
+ขนาดบรรจุ : 1 กก./ถุง
+หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
+ห้องมีขนาด 10 ตารางเมตร
+ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 3 ถุง</t>
+  </si>
+  <si>
+    <t>กาวยาแนว ชาละวัน
+กาวยาแนวสำหรับกระเบื้องทั่วไป ใช้ง่าย คุ้มค่า ราคาประหยัด
+• ยึดเกาะสูง ไม่หลุดล่อน ไม่แตกร้าว
+• อายุการใช้งานยาวนาน
+• ใช้ได้ทั้งภายใน ภายนอกอาคาร
+• ผิวยาแนวละเอียด ยาแนวได้ง่ายและสวยงาม
+• สำหรับร่องยาแนวขนาด 1-7 มม.
+ลักษณะการใช้งาน
+กาวยาแนวชาละวัน มีส่วนผสมของปูนซีเมนต์ปอร์ตแลนด์ เคมี และสีชนิดพิเศษ ไม่เป็นอันตรายต่อผู้ใช้ และมีอายุการใช้งานที่ยาวนานเหมาะสำหรับร่องที่ต้องการยาแนวไม่เกิน 7 มม. ใช้ได้ทั้งงานภายนอก ภายใน ผิวของยาแนวจะมีลักษณะที่ละเอียด ทำให้อุดร่องยาแนวได้ง่ายสวยงาม เป็นผลิตภัณท์ผสมสำเร็จเพียงเติมน้ำ และผสมให้เข้ากันก็สามารถใช้งานได้ทันที
+สีของผลิตภัณฑ์ : 30 สี
+ขนาดบรรจุ : 1 กก. / ถุง
+หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
+ห้องมีขนาด 10 ตารางเมตร
+ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 3 ถุง</t>
+  </si>
+  <si>
+    <t>กาวยาแนว จระเข้เงิน
+กาวยาแนวมาตรฐานอเมริกา สำหรับยาแนวกระเบื้องทั่วไป
+ให้การยึดเกาะสูง ไม่หลุดล่อน ไม่หดตัว
+ทำความสะอาดง่าย
+อายุการใช้งานยาวนาน
+ใช้ได้ทั้งภายใน ภายนอกอาคาร
+ปลอดภัยต่อสุขภาพ
+สำหรับร่องยาแนวขนาด 1-7 มม.
+ลักษณะการใช้งาน
+กาวยาแนว จระเข้เงิน เป็นปูนยาแนวชนิดพิเศษที่เหมาะสำหรับใช้ยาแนวพื้นที่ที่ต้องการความทนทานสูง ใช้กับร่องยาแนวที่มีขนาดไม่เกิน 7 มม. มีคุณสมบัติช่วยปกปิดรอยต่อร่องกระเบื้องได้อย่างเรียบเนียนสวยงาม รับแรงอัดและแรงดันน้ำได้สูง ใช้ได้ทั้งงานภายในและภายนอก 
+มาตรฐานอเมริกา : ANSI A 118.6 (Unsanded)
+มาตรฐานยุโรป : EN 13888 CG1
+สีของผลิตภัณฑ์ : 39 เฉดสี
+ขนาดบรรจุ : 1 กก./ถุง
+หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
+ห้องมีขนาด 10 ตารางเมตร
+ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 3 ถุง</t>
+  </si>
+  <si>
+    <t>กาวยาแนว จระเข้ บล็อกแก้ว
+กาวยาแนวมาตรฐานอเมริกา สำหรับบล็อกแก้วและงานยาแนวร่องกว้างพิเศษ
+เพิ่มแรงยึดเกาะพิเศษ ยึดเกาะแก้ว ดีเยี่ยม ไม่หลุดล่อน ด้วยสารเอ็กซ์ตร้าบอนด์
+ร่องยาแนวสวย ไม่แตกร้าว ไม่แตกลายงา แม้ร่องขนาดกว้างมาก
+ยับยั้งราดำด้วยเทคโนโลยีไมโครแบน
+ลดคราบสกปรกฝังแน่นด้วยสารไฮโดรโฟบิก
+กาวยาแนวสำหรับบล็อกแก้ว กระเบื้องดินเผา ใช้ได้ทั้งภายในและภายนอกอาคาร
+สำหรับร่องยาแนวขนาด 8-15 มม.
+ลักษณะการใช้งาน
+กาวยาแนว จระเข้ บล็อกแก้ว เป็นปูนยาแนวบล็อกแก้วโดยเฉพาะ มีส่วนผสมพิเศษที่เหมาะสำหรับร่องยาแนวที่ไม่เกิน 8-15 มม. มีคุณสมบัติยับยั้งราดำ ลดการสะสมของคราบสกปรกฝังแน่น และเพิ่มแรงยึดเกาะ ใช้งานได้ทั้งภายในและภายนอกอาคาร รวมถึงพื้นที่ที่ต้องการความสะอาดเป็นพิเศษ
+มาตรฐานอเมริกา : ANSI A 118.6 (Sanded), A 118.7 (Sanded)
+สีของผลิตภัณฑ์ : 10 เฉดสี
+บรรจุขนาด : 1 กก./ถุง
+หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
+ห้องมีขนาด 10 ตารางเมตร
+ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 4 ถุง</t>
+  </si>
+  <si>
+    <t>จระเข้ โพลี-ยู ซีล
+โพลียูริเทนซีลแลนท์
+คุณสมบัติเด่น
+สามารถอุดรอยต่อในที่ที่มีการเคลื่อนตัว
+มีความยืดหยุ่นตัวสูง &gt;700%
+ใช้ได้ทั้งงานภายในและภายนอก
+สามารถทาสีทับได้ โดยไม่ต้องรองพื้น
+แห้งเร็ว
+ลักษณะการใช้งาน
+ใช้อุดรอยต่อของแผ่นคอนกรีตหล่อสำเร็จ ผนังก่ออิฐฉาบปูน
+ใช้อุดร่องกันแตก รอยต่อโครงสร้าง อุดรอยแตกร้าวเพื่อกันรั่วซึม
+ใช้อุดร่องโดยรอบขอบวงกบประตู หน้าต่างไม้ อลูมิเนียม สแตนเลส โลหะ
+ใช้อุดรอยต่อของผนังอาคาร ทั้งที่เป็นโลหะ คอนกรีต ปูนฉาบ กระเบื้องแผ่นเรียบ แผ่นผนังสำเร็จรูป
+ใช้อุดรอยต่อกระเบื้องมุงหลังคา
+ใช้ยาแนวกระเบื้องเซรามิก หิน สุขภัณฑ์
+สีของผลิตภัณฑ์ : สีเทา สีขาว
+การบรรจุ
+ขนาดบรรจุ : 310 มล.
+ร่องขนาด 1x1 ซม. ได้ความยาวประมาณ 3 เมตร ต่อ 300 มล.</t>
+  </si>
+  <si>
+    <t>จระเข้ รูฟ ชิลด์
+อะคริลิคทากันซึมหลังคาและดาดฟ้า
+ยืดหยุ่นตัวสูงกว่า 500%  ปกปิดรอยแตกลายงา
+อะคริลิกคุณภาพสูง ทนทานแช่น้ำขังได้นานกว่าอะคริลิกทั่วไป
+ใช้งานได้หลากหลายพื้นที่
+ทนฝน ทน UV
+สะดวก ใช้งานง่าย เปิดฝาใช้ได้ทันที
+ยึดเกาะกับวัสดุได้หลากหลายพื้นที่
+สามารถผสมสีหรือทาสีทับได้
+เหมาะสำหรับกันซึมดาดฟ้าที่ระบายน้ำได้ดี หลังคาคอนกรีต หลังคาเหล็ก รอยต่อบัวกันน้ำ ครอบสันหลังคา และเหมาะกับการทาปกปิดรอยแตกลายงาผนังอาคาร ทากลบรอยต่อผนังที่อุดด้วย ซีลแลนท์ สามารถยึดเกาะกับวัสดุได้หลากหลาย เช่น คอนกรีต ปูนฉาบ พลาสติก PVC เหล็ก สังกะสี อลูมิเนียม กระเบื้องมุงหลังคา พื้นแผ่นยางมะตอย ไม้ อิฐ และอื่น ๆ
+มาตรฐาน : ASTM D412, ASTM C121
+สีของผลิตภัณฑ์: สีขาว, สีเทาเข้ม, สีเทา (สะท้อนความร้อน)
+ขนาดบรรจุ:
+20 กิโลกรัม/ถัง
+4 กิโลกรัม/กระป๋อง
+1 กิโลกรัม/กระป๋อง 
+ขนาดห้อง 10 ตาราง
+ไม่ทารองพื้น 1 กิโลกรัม ต้องใช้ 10 กระป๋อง
+ไม่ทารองพื้น 4 กิโลกรัม ต้องใช้ 3 กระป๋อง
+ไม่ทารองพื้น 20 กิโลกรัม ต้องใช้ 1 กระป๋อง
+ทารองพื้น 1 กิโลกรัม ต้องใช้ 5 กระป๋อง
+ทารองพื้น 4 กิโลกรัม ต้องใช้ 2 กระป๋อง 
+ทารองพื้น 20 กิโลกรัม ต้องใช้ 1 กระป๋อง</t>
+  </si>
+  <si>
+    <t>จระเข้ อัลตร้า เฟล็กซ์
+ซีเมนต์กันซึมชนิดยืดหยุ่นสูง (แบบ 2 ส่วนผสม)
+ใช้งานง่าย โดยการทาด้วยแปรง
+มีความยืดหยุ่นตัวสูง ปกปิดรอยร้าวได้ดี
+ทนทานต่อการสั่นสะเทือน
+สามารถปูกระเบื้องทับได้
+สามารถทนแรงดันน้ำได้ โดยไม่รั่วซึม
+ลักษณะการใช้งาน
+เหมาะสำหรับงานกันซึมในงานซีเมนต์ทั่วไป และอื่น ๆ เช่น กันซึมรอยต่อระหว่างพื้นและผนัง พื้นที่ที่มีขอบสันโค้ง ดาดฟ้า ห้องน้ำ แท็งค์เก็บน้ำ บ่อเลี้ยงปลา พื้นที่ที่มีโอกาสขยับเคลื่อนไหว หรือทาก่อนปูกระเบื้อง
+สีของผลิตภัณฑ์ : สีเทา
+มาตรฐาน : ASTM C121, ASTM D412, ASTM D624, ASTM D2240, ASTM D4541
+ขนาดบรรจุ : 25 กิโลกรัม/ชุด (ปูน 15 กก. น้ำยา 10 ลิตร)
+ห้องขนาด 10 ตารางเมตร
+ปริมาณทั้งหมดที่ใช้ 25 กิโลกรัม
+ใช้สินค้า 1 ชุด
+ห้องขนาด 25 ตารางเมตร
+ปริมาณทั้งหมดที่ใช้ 62.50 กิโลกรัม
+ใช้สินค้า 3 ชุด</t>
+  </si>
+  <si>
+    <t>จระเข้ สกิมโค้ท สมูท
+ปูนฉาบบาง ชนิดเนื้อละเอียด
+คุณสมบัติเด่น
+สำหรับงานฉาบบาง 0.3-3 มม.
+ให้ผิวผนังแกร่ง มีความคงทน ไม่หลุดล่อน มีการยึดเกาะสูง
+ตกแต่งพื้นผิวให้มีความเรียบเนียน ไม่เป็นฝุ่น
+ปกปิดรอยแตกร้าว แตกลายงาและปรับพื้นผิวให้สม่ำเสมอ
+ทนต่อสภาวะอากาศได้ดี
+สามารถทาสีทับหรือปูวัสดุปิดทับได้
+มาตรฐาน : ASTM C109, ASTM C348, ASTM D4541, TIS 285, มอก 3056-2563
+สีของผลิตภัณฑ์ : สีเทา สีขาว
+การบรรจุ
+ขนาดบรรจุ : 25 กิโลกรัม/ถุง, 20 กิโลกรัม/ถุง, 5 กิโลกรัม/ถุง
+ผลิตภัณฑ์สามารถเพิ่มคะแนนในการรับรองมาตรฐานอาคารเขียว LEED, WELL, TREES
+ห้องขนาด 10 ตารางเมตร
+สินค้า 5 กิโลกรัม : ปริมาณที่ใช้ 12.50 กิโลกรัม ใช้สินค้า 3 ถุง
+สินค้า 25 กิโลกรัม : ปริมาณที่ใช้ 12.50 กิโลกรัม ใช้สินค้า 1 ถุง
+ห้องขนาด 25 ตารางเมตร
+สินค้า 5 กิโลกรัม : ปริมาณที่ใช้ 31.25 กิโลกรัม ใช้สินค้า 7 ถุง
+สินค้า 25 กิโลกรัม : ปริมาณที่ใช้ 31.25 กิโลกรัม ใช้สินค้า 2 ถุง</t>
   </si>
 </sst>
 </file>
@@ -980,15 +1250,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AEA82-BF8D-D54E-A5FA-BADEDC03F209}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="90.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="130.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -1227,6 +1497,76 @@
         <v>46</v>
       </c>
     </row>
+    <row r="48" spans="1:1" ht="340" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="323" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="356" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="323" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="356" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="404" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="388" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="404" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="388" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/context_scg_home.xlsx
+++ b/data/context_scg_home.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasunimsuwan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasunimsuwan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BFECA5-FD4E-5D46-827E-BB41FDC59A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB788399-8A2B-8946-AE9A-99B808E2BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{4845C39F-9F50-9C4F-9591-143131F091DE}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21480" xr2:uid="{4845C39F-9F50-9C4F-9591-143131F091DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>ค่าเสาพร้อมเข็มเหล็ก ราคาเริ่มต้น 10,500 บาท/ต้น // ค่าเสา ราคาเริ่มต้น 5,500 บาท/ต้น ไม่รวมลงเสาเข็ม</t>
   </si>
@@ -584,281 +584,331 @@
 - พื้นที่ 1-30 ตร.ม. ความหนา 12.5 ซม. เริ่มต้นเพียง 48,900 บาท</t>
   </si>
   <si>
-    <t>กาวซีเมนต์ จระเข้เอ็กซ์ตรีม
-นวัตกรรมกาวซีเมนต์ สำหรับกระเบื้อง Big Slab
-ปูกระเบื้องทุกชนิด หินอ่อน หินธรรมชาติขนาดใหญ่ยักษ์
-ปูทับได้ทั้ง กระเบื้อง ไม้อัดโครงสร้าง ไฟเบอร์ซีเมนต์
-แรงยึดเกาะสูงพิเศษ ทนต่อแรงสั่นสะเทือน
-ได้รับมาตรฐานสูงสุดทั้งมาตรฐานยุโรปและอเมริกา
-ลักษณะการใช้งาน
-กาวซีเมนต์ จระเข้เอ็กซ์ตรีม เป็นปูนกาวที่เหมาะสำหรับปูกระเบื้อง Big Slab กระเบื้องขนาดใหญ่ทุกชนิด และใช้ปูทับพื้นเดิมได้ แรงยึดเกาะสูงพิเศษ ยืดหยุ่นสูง และทนต่อทุกสภาพอากาศ
-ผลิตภัณฑ์ที่สามารถเพิ่มคะแนนในการรับรองมาตรฐานอาคารเขียว
-มาตรฐานอเมริกา : ANSI A 118.1, A 118.4, A 118.15
-มาตรฐานยุโรป : EN 12004 C2S2E ระดับสูงสุดของโลก
-สีของผลิตภัณฑ์ : สีเทา
-ขนาดบรรจุ : 20 กิโลกรัม/ถุง
-ห้องมีขนาด 10 ตารางเมตร
-กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
-  </si>
-  <si>
-    <t>กาวซีเมนต์ จระเข้สโตนเมท
-กาวซีเมนต์สีขาวสำหรับปูหินอ่อน หินธรรมชาติ ลดการเกิดคราบขาว
-ปูนกาวปูกระเบื้องใช้ได้ในพื้นที่ที่มีความชื้นสูง 
-ลดการเกิดคราบขาวด้วย WCAC Technology
-ปูกระเบื้องขนาดใหญ่มากทุกชนิด พื้นและผนัง ภายใน-ภายนอกอาคาร
-เนื้อกาวสีขาวเนียน ช่วยให้หินอ่อน หินธรรมชาติสีอ่อน สวยสดใส
-ใช้ได้ทั้งพื้นและผนัง
-ลักษณะการใช้งาน
-กาวซีเมนต์ จระเข้สโตนเมท เป็นปูนกาวสีขาว เหมาะสำหรับใช้ปูหินอ่อน หินธรรมชาติ และกระเบื้องทุกชนิด ทั้งภายใน-ภายนอกอาคาร ช่วยป้องกันการเกิดคราบขาวได้เป็นอย่างดี
-มาตรฐานอเมริกา : ANSI A 118.1, A 118.4,A 118.15
-สีของผลิตภัณฑ์ : สีขาว
-ขนาดบรรจุ : 20 กิโลกรัม/ถุง
-ห้องมีขนาด 10 ตารางเมตร
-กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
-  </si>
-  <si>
-    <t>กาวซีเมนต์ จระเข้เกรย์สโตนเมท
-กาวซีเมนต์สำหรับปูกระเบื้องและหินธรรมชาติสีเข้ม ลดการเกิดคราบขาว
-ปูนกาวปูกระเบื้องใช้ได้ในพื้นที่ที่มีความชื้นสูง
-ลดการเกิดคราบขาว ด้วย CAC Technology
-เหมาะสำหรับกระเบื้องทุกชนิดและหินธรรมชาติสีเข้ม ทุกขนาด
-ใช้ได้ทั้งพื้นและผนัง
-ลักษณะการใช้งาน
-กาวซีเมนต์ จระเข้เกรย์สโตนเมท มีส่วนผสมของซีเมนต์ชนิดพิเศษที่มีคุณสมบัติป้องกันการเกิดคราบขาวได้ดี จึงเหมาะกับงานติดตั้งกระเบื้องและหินธรรมชาติสีเข้มทุกชนิด
-ผลิตภัณฑ์ที่สามารถเพิ่มคะแนนในการรับรองมาตรฐานอาคารเขียว
-มาตรฐานอเมริกา : ANSI A118.1, A118.4, A118.15
-สีของผลิตภัณฑ์ : สีเทา
-ขนาดบรรจุ : 20 กิโลกรัม/ถุง
-ห้องมีขนาด 10 ตารางเมตร
-กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
-  </si>
-  <si>
-    <t>กาวซีเมนต์ ชาละวัน
-กาวซีเมนต์คุณภาพดี ปูนกาวยืดหยุ่นสูงและยึดเกาะแน่น
-ปูนกาวปูกระเบื้องแกรนิตโต้พื้นขนาดมาตรฐาน ภายใน-ภายนอกอาคาร
-ปูกระเบื้องเซรามิกทุกขนาด พื้นและผนัง ภายในอาคาร
-ใช้งานง่ายไม่ต้องแช่กระเบื้องในน้ำก่อนปู
-ลักษณะการใช้งาน
-กาวซีเมนต์ ชาละวัน เป็นปูนกาวที่เหมาะสำหรับงานปูกระเบื้องแกรนิตโต้ขนาดมาตรฐาน และกระเบื้องทั่วไป ยึดเกาะเหนียวแน่นกว่าปูนดำ ใช้งานง่าย สามารถใช้ปูกระเบื้องพื้นและผนังภายใน-ภายนอกอาคาร โดยไม่ต้องแช่กระเบื้องในน้ำก่อนปู
-สีของผลิตภัณฑ์ : สีเทา
-ขนาดบรรจุ : 20 กิโลกรัม/ถุง
-ห้องมีขนาด 10 ตารางเมตร
-กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
-  </si>
-  <si>
-    <t>กาวซีเมนต์ เกเตอร์
-กาวซีเมนต์คุณภาพเกินคุ้ม ปูนกาวยึดเกาะสูง สะดวก ใช้งานง่าย
-ปูกระเบื้องแกรนิตโต้พื้นขนาดมาตรฐาน ภายในอาคาร
-กระเบื้องเซรามิกทุกขนาด พื้นและผนัง ภายในอาคาร
-สะดวกไม่ต้องแช่กระเบื้องในน้ำก่อนปู
-ลักษณะการใช้งาน
-กาวซีเมนต์เกเตอร์ ประกอบด้วยปูนซีเมนต์ปอร์ตแลนด์ ทราย และวัสดุผสมพิเศษอื่น ๆ ทำให้ผลิตภัณฑ์มีคุณสมบัติที่ให้การยึดเกาะสูง สำหรับงานปูกระเบื้องเซรามิกทั่วไป ใช้ได้ทั้งพื้นและผนัง ภายในอาคาร โดยไม่ต้องแช่กระเบื้องก่อนปู
-สีของผลิตภัณฑ์ : สีเทา
-ขนาดบรรจุ : 20 กิโลกรัม / 25 กิโลกรัม/ถุง
-ห้องมีขนาด 10 ตารางเมตร
-กระเบื้อง ขนาดไม่เกิน 5 X 5 เซนติเมตร จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 6x6 เซนติเมตร - 30x30 เซนติเมตร  จำนวนกาวซีเมนต์ 2 ถุง
-กระเบื้องขนาด 40x40 เซนติเมตร ขึ้นไป จำนวนกาวซีเมนต์ 4 ถุง</t>
-  </si>
-  <si>
-    <t>กาวยาแนว จระเข้ แพลทินัม
-กาวยาแนวสำหรับกระเบื้องสระว่ายน้ำ สปา ซาวน่า
-• รับแรงอัด แรงดันน้ำ ทนอุณหภูมิสูง ยึดเกาะสูง
-• แห้งตัวเร็ว เปิดใช้พื้นที่ได้ไว เติมน้ำได้หลังยาแนว 24 ชั่วโมง
-• ลดคราบขาว ด้วย WCAC Technology
-• ยับยั้งราดำและตะไคร่น้ำด้วยเทคโนโลยีไมโครแบน
-• สำหรับร่องยาแนวขนาด 2-15 มม.
-ลักษณะการใช้งาน
-กาวยาแนว จระเข้ แพลทินัม เป็นปูนยาแนวสูตรพิเศษที่เหมาะสำหรับงานปูกระเบื้องพื้นที่ที่ต้องการความทนทานสูงและงานยาแนวภายนอกอาคาร เช่น สระว่ายน้ำ สปา ซาวน่า ช่วยยับยั้งราดำ ตะไคร่น้ำ และแบคทีเรีย มาตรฐานอเมริกา
-มาตรฐานอเมริกา : ANSI A 118.6 (Sanded), ANSI A 118.7 (Sanded)
-สีของผลิตภัณฑ์  : 9 เฉดสี
-- ขาวไข่มุก
-- สีครีมงาช้าง
-- ครีม
-- สีเขียวตองอ่อน
-- สีเขียวพรมศิลา
-- ฟ้ารุ่งอรุณ
-- น้ำเงินไพลิน
-- เทาแกรนิต
-- ดำลิกไนต์
-ขนาดบรรจุ : 1 กก. / ถุง
-หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
-ห้องมีขนาด 10 ตารางเมตร
-ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 4 ถุง</t>
-  </si>
-  <si>
-    <t>กาวยาแนว จระเข้ พรีเมี่ยม พลัส เงิน
-สูตรพิเศษที่ช่วยยับยั้งการเกิดราดำรายแรก ด้วยเทคโนโลยีไมโครแบน
-ยับยั้งการเกิดราดำด้วยเทคโนโลยีไมโครแบน
-ลดการสะสมของคราบสกปรกฝังแน่นด้วยสารไฮโดรโฟบิก
-ยึดเกาะสูง ไม่หลุดล่อน ไม่หดตัวด้วยกาวลาเท็กซ์พอลิเมอร์
-เหมาะสำหรับภายในและภายนอกอาคาร
-สำหรับร่องยาแนวขนาด 1-7 มม.
-ลักษณะการใช้งาน
-กาวยาแนว จระเข้ พรีเมี่ยม พลัส เงิน เป็นปูนยาแนวเนื้อละเอียดชนิดพิเศษที่เหมาะสำหรับงานปูกระเบื้องที่มีร่องยาแนวไม่เกิน 7 มม. มีคุณสมบัติยับยั้งราดำ ลดการสะสมของคราบสกปรกฝังแน่น และเพิ่มแรงยึดเกาะ ใช้งานได้ทั้งภายในและภายนอกอาคาร
-ผลิตภัณฑ์ที่สามารถเพิ่มคะแนนในการรับรองมาตรฐานอาคารเขียว
-มาตรฐานอเมริกา : ANSI A 118.6 (Unsanded), ANSI A 118.7 (Unsanded)
-สีของผลิตภัณฑ์  : 35 เฉดสี
-ขนาดบรรจุ : 1 กก./ถุง
-หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
-ห้องมีขนาด 10 ตารางเมตร
-ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 3 ถุง</t>
-  </si>
-  <si>
-    <t>กาวยาแนว ชาละวัน
-กาวยาแนวสำหรับกระเบื้องทั่วไป ใช้ง่าย คุ้มค่า ราคาประหยัด
-• ยึดเกาะสูง ไม่หลุดล่อน ไม่แตกร้าว
-• อายุการใช้งานยาวนาน
-• ใช้ได้ทั้งภายใน ภายนอกอาคาร
-• ผิวยาแนวละเอียด ยาแนวได้ง่ายและสวยงาม
-• สำหรับร่องยาแนวขนาด 1-7 มม.
-ลักษณะการใช้งาน
-กาวยาแนวชาละวัน มีส่วนผสมของปูนซีเมนต์ปอร์ตแลนด์ เคมี และสีชนิดพิเศษ ไม่เป็นอันตรายต่อผู้ใช้ และมีอายุการใช้งานที่ยาวนานเหมาะสำหรับร่องที่ต้องการยาแนวไม่เกิน 7 มม. ใช้ได้ทั้งงานภายนอก ภายใน ผิวของยาแนวจะมีลักษณะที่ละเอียด ทำให้อุดร่องยาแนวได้ง่ายสวยงาม เป็นผลิตภัณท์ผสมสำเร็จเพียงเติมน้ำ และผสมให้เข้ากันก็สามารถใช้งานได้ทันที
-สีของผลิตภัณฑ์ : 30 สี
-ขนาดบรรจุ : 1 กก. / ถุง
-หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
-ห้องมีขนาด 10 ตารางเมตร
-ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 3 ถุง</t>
-  </si>
-  <si>
-    <t>กาวยาแนว จระเข้เงิน
-กาวยาแนวมาตรฐานอเมริกา สำหรับยาแนวกระเบื้องทั่วไป
-ให้การยึดเกาะสูง ไม่หลุดล่อน ไม่หดตัว
-ทำความสะอาดง่าย
-อายุการใช้งานยาวนาน
-ใช้ได้ทั้งภายใน ภายนอกอาคาร
-ปลอดภัยต่อสุขภาพ
-สำหรับร่องยาแนวขนาด 1-7 มม.
-ลักษณะการใช้งาน
-กาวยาแนว จระเข้เงิน เป็นปูนยาแนวชนิดพิเศษที่เหมาะสำหรับใช้ยาแนวพื้นที่ที่ต้องการความทนทานสูง ใช้กับร่องยาแนวที่มีขนาดไม่เกิน 7 มม. มีคุณสมบัติช่วยปกปิดรอยต่อร่องกระเบื้องได้อย่างเรียบเนียนสวยงาม รับแรงอัดและแรงดันน้ำได้สูง ใช้ได้ทั้งงานภายในและภายนอก 
-มาตรฐานอเมริกา : ANSI A 118.6 (Unsanded)
-มาตรฐานยุโรป : EN 13888 CG1
-สีของผลิตภัณฑ์ : 39 เฉดสี
-ขนาดบรรจุ : 1 กก./ถุง
-หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
-ห้องมีขนาด 10 ตารางเมตร
-ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 3 ถุง</t>
-  </si>
-  <si>
-    <t>กาวยาแนว จระเข้ บล็อกแก้ว
-กาวยาแนวมาตรฐานอเมริกา สำหรับบล็อกแก้วและงานยาแนวร่องกว้างพิเศษ
-เพิ่มแรงยึดเกาะพิเศษ ยึดเกาะแก้ว ดีเยี่ยม ไม่หลุดล่อน ด้วยสารเอ็กซ์ตร้าบอนด์
-ร่องยาแนวสวย ไม่แตกร้าว ไม่แตกลายงา แม้ร่องขนาดกว้างมาก
-ยับยั้งราดำด้วยเทคโนโลยีไมโครแบน
-ลดคราบสกปรกฝังแน่นด้วยสารไฮโดรโฟบิก
-กาวยาแนวสำหรับบล็อกแก้ว กระเบื้องดินเผา ใช้ได้ทั้งภายในและภายนอกอาคาร
-สำหรับร่องยาแนวขนาด 8-15 มม.
-ลักษณะการใช้งาน
-กาวยาแนว จระเข้ บล็อกแก้ว เป็นปูนยาแนวบล็อกแก้วโดยเฉพาะ มีส่วนผสมพิเศษที่เหมาะสำหรับร่องยาแนวที่ไม่เกิน 8-15 มม. มีคุณสมบัติยับยั้งราดำ ลดการสะสมของคราบสกปรกฝังแน่น และเพิ่มแรงยึดเกาะ ใช้งานได้ทั้งภายในและภายนอกอาคาร รวมถึงพื้นที่ที่ต้องการความสะอาดเป็นพิเศษ
-มาตรฐานอเมริกา : ANSI A 118.6 (Sanded), A 118.7 (Sanded)
-สีของผลิตภัณฑ์ : 10 เฉดสี
-บรรจุขนาด : 1 กก./ถุง
-หมายเหตุ ภาพและสีที่แสดงบนเว็บไซต์อาจมีความแตกต่างจากสินค้าจริง เนื่องจากการตั้งค่าแสดงผลของแต่ละหน้าจอ
-ห้องมีขนาด 10 ตารางเมตร
-ความยาวพื้นกระบื้อง 10 ซม. ความกว้างของกระเบื้อง 10 ซม. ความหนาของกระเบื้อง 4 มม. ความกว้างของร่องยาแนว 4 มม. ต้องใช้สินค้า 4 ถุง</t>
-  </si>
-  <si>
-    <t>จระเข้ โพลี-ยู ซีล
-โพลียูริเทนซีลแลนท์
-คุณสมบัติเด่น
-สามารถอุดรอยต่อในที่ที่มีการเคลื่อนตัว
-มีความยืดหยุ่นตัวสูง &gt;700%
-ใช้ได้ทั้งงานภายในและภายนอก
-สามารถทาสีทับได้ โดยไม่ต้องรองพื้น
-แห้งเร็ว
-ลักษณะการใช้งาน
-ใช้อุดรอยต่อของแผ่นคอนกรีตหล่อสำเร็จ ผนังก่ออิฐฉาบปูน
-ใช้อุดร่องกันแตก รอยต่อโครงสร้าง อุดรอยแตกร้าวเพื่อกันรั่วซึม
-ใช้อุดร่องโดยรอบขอบวงกบประตู หน้าต่างไม้ อลูมิเนียม สแตนเลส โลหะ
-ใช้อุดรอยต่อของผนังอาคาร ทั้งที่เป็นโลหะ คอนกรีต ปูนฉาบ กระเบื้องแผ่นเรียบ แผ่นผนังสำเร็จรูป
-ใช้อุดรอยต่อกระเบื้องมุงหลังคา
-ใช้ยาแนวกระเบื้องเซรามิก หิน สุขภัณฑ์
-สีของผลิตภัณฑ์ : สีเทา สีขาว
-การบรรจุ
-ขนาดบรรจุ : 310 มล.
-ร่องขนาด 1x1 ซม. ได้ความยาวประมาณ 3 เมตร ต่อ 300 มล.</t>
-  </si>
-  <si>
-    <t>จระเข้ รูฟ ชิลด์
-อะคริลิคทากันซึมหลังคาและดาดฟ้า
-ยืดหยุ่นตัวสูงกว่า 500%  ปกปิดรอยแตกลายงา
-อะคริลิกคุณภาพสูง ทนทานแช่น้ำขังได้นานกว่าอะคริลิกทั่วไป
-ใช้งานได้หลากหลายพื้นที่
-ทนฝน ทน UV
-สะดวก ใช้งานง่าย เปิดฝาใช้ได้ทันที
-ยึดเกาะกับวัสดุได้หลากหลายพื้นที่
-สามารถผสมสีหรือทาสีทับได้
-เหมาะสำหรับกันซึมดาดฟ้าที่ระบายน้ำได้ดี หลังคาคอนกรีต หลังคาเหล็ก รอยต่อบัวกันน้ำ ครอบสันหลังคา และเหมาะกับการทาปกปิดรอยแตกลายงาผนังอาคาร ทากลบรอยต่อผนังที่อุดด้วย ซีลแลนท์ สามารถยึดเกาะกับวัสดุได้หลากหลาย เช่น คอนกรีต ปูนฉาบ พลาสติก PVC เหล็ก สังกะสี อลูมิเนียม กระเบื้องมุงหลังคา พื้นแผ่นยางมะตอย ไม้ อิฐ และอื่น ๆ
-มาตรฐาน : ASTM D412, ASTM C121
-สีของผลิตภัณฑ์: สีขาว, สีเทาเข้ม, สีเทา (สะท้อนความร้อน)
-ขนาดบรรจุ:
-20 กิโลกรัม/ถัง
-4 กิโลกรัม/กระป๋อง
-1 กิโลกรัม/กระป๋อง 
-ขนาดห้อง 10 ตาราง
-ไม่ทารองพื้น 1 กิโลกรัม ต้องใช้ 10 กระป๋อง
-ไม่ทารองพื้น 4 กิโลกรัม ต้องใช้ 3 กระป๋อง
-ไม่ทารองพื้น 20 กิโลกรัม ต้องใช้ 1 กระป๋อง
-ทารองพื้น 1 กิโลกรัม ต้องใช้ 5 กระป๋อง
-ทารองพื้น 4 กิโลกรัม ต้องใช้ 2 กระป๋อง 
-ทารองพื้น 20 กิโลกรัม ต้องใช้ 1 กระป๋อง</t>
-  </si>
-  <si>
-    <t>จระเข้ อัลตร้า เฟล็กซ์
-ซีเมนต์กันซึมชนิดยืดหยุ่นสูง (แบบ 2 ส่วนผสม)
-ใช้งานง่าย โดยการทาด้วยแปรง
-มีความยืดหยุ่นตัวสูง ปกปิดรอยร้าวได้ดี
-ทนทานต่อการสั่นสะเทือน
-สามารถปูกระเบื้องทับได้
-สามารถทนแรงดันน้ำได้ โดยไม่รั่วซึม
-ลักษณะการใช้งาน
-เหมาะสำหรับงานกันซึมในงานซีเมนต์ทั่วไป และอื่น ๆ เช่น กันซึมรอยต่อระหว่างพื้นและผนัง พื้นที่ที่มีขอบสันโค้ง ดาดฟ้า ห้องน้ำ แท็งค์เก็บน้ำ บ่อเลี้ยงปลา พื้นที่ที่มีโอกาสขยับเคลื่อนไหว หรือทาก่อนปูกระเบื้อง
-สีของผลิตภัณฑ์ : สีเทา
-มาตรฐาน : ASTM C121, ASTM D412, ASTM D624, ASTM D2240, ASTM D4541
-ขนาดบรรจุ : 25 กิโลกรัม/ชุด (ปูน 15 กก. น้ำยา 10 ลิตร)
-ห้องขนาด 10 ตารางเมตร
-ปริมาณทั้งหมดที่ใช้ 25 กิโลกรัม
-ใช้สินค้า 1 ชุด
-ห้องขนาด 25 ตารางเมตร
-ปริมาณทั้งหมดที่ใช้ 62.50 กิโลกรัม
-ใช้สินค้า 3 ชุด</t>
-  </si>
-  <si>
-    <t>จระเข้ สกิมโค้ท สมูท
-ปูนฉาบบาง ชนิดเนื้อละเอียด
-คุณสมบัติเด่น
-สำหรับงานฉาบบาง 0.3-3 มม.
-ให้ผิวผนังแกร่ง มีความคงทน ไม่หลุดล่อน มีการยึดเกาะสูง
-ตกแต่งพื้นผิวให้มีความเรียบเนียน ไม่เป็นฝุ่น
-ปกปิดรอยแตกร้าว แตกลายงาและปรับพื้นผิวให้สม่ำเสมอ
-ทนต่อสภาวะอากาศได้ดี
-สามารถทาสีทับหรือปูวัสดุปิดทับได้
-มาตรฐาน : ASTM C109, ASTM C348, ASTM D4541, TIS 285, มอก 3056-2563
-สีของผลิตภัณฑ์ : สีเทา สีขาว
-การบรรจุ
-ขนาดบรรจุ : 25 กิโลกรัม/ถุง, 20 กิโลกรัม/ถุง, 5 กิโลกรัม/ถุง
-ผลิตภัณฑ์สามารถเพิ่มคะแนนในการรับรองมาตรฐานอาคารเขียว LEED, WELL, TREES
-ห้องขนาด 10 ตารางเมตร
-สินค้า 5 กิโลกรัม : ปริมาณที่ใช้ 12.50 กิโลกรัม ใช้สินค้า 3 ถุง
-สินค้า 25 กิโลกรัม : ปริมาณที่ใช้ 12.50 กิโลกรัม ใช้สินค้า 1 ถุง
-ห้องขนาด 25 ตารางเมตร
-สินค้า 5 กิโลกรัม : ปริมาณที่ใช้ 31.25 กิโลกรัม ใช้สินค้า 7 ถุง
-สินค้า 25 กิโลกรัม : ปริมาณที่ใช้ 31.25 กิโลกรัม ใช้สินค้า 2 ถุง</t>
+    <t xml:space="preserve">สอบถามรายละเอียดเพิ่มเติมได้ที่ :
+- ทางอินบ็อกซ์ &gt; m.me/SCGHomeOfficial 
+- ทาง Line: @scghome &gt; https://line.me/R/ti/p/@scghome
+ช้อปสะดวกขึ้นด้วย SCG HOME APP ดาวน์โหลดได้แล้ววันนี้ คลิกเลย! https://onelink.to/3dg4ey
+</t>
+  </si>
+  <si>
+    <t>เหล่าทาสฟังทางนี้ ใครกำลังมองหากระเบื้องที่ตอบโจทย์เพื่อนสี่ขา ห้ามพลาด‼️ กับกระเบื้องที่สวย หลากหลาย เหมาะกับทุกชีวิตในบ้าน 
+Pet Collection จาก GELATO กระเบื้อง Pet Friendly เพื่อคนรักสัตว์ ที่ผสานนวัตกรรม SAFE PAWS TECH ซึ่งมีคุณสมบัติพิเศษอย่าง
+- Anti Slip ป้องกันการลื่นไถล ช่วยให้สัตว์เลี้ยงเดินและทรงตัวอย่างมีประสิทธิภาพ
+- Smooth Surface ให้สัมผัสที่นุ่มนวล และลดการเสียดสีของอุ้งเท้าสัตว์เลี้ยง
+- Nano Silver Technology ช่วยยับยั้งการเจริญเติบโตของแบคทีเรีย ให้ความ Hygienic ขั้นสุด
+เลือกสิ่งที่ดีสำหรับน้องๆ อย่าลืมมาช้อปกันน้า
+ดูกระเบื้อง GELATO Stone Light Grip สีเทา คลิก https://bit.ly/3Wtw8OM
+ดูกระเบื้อง GELATO Stone Warm Grip สีเบจ คลิก https://bit.ly/3Ws0mBP
+*เงื่อนไขเป็นไปตามที่บริษัทฯ กำหนด</t>
+  </si>
+  <si>
+    <t>น้ำดื่มจะสะอาดได้ต้องใช้.. "เครื่องกรองน้ำ STIEBEL ELTRON รุ่น Fountain 7S" ที่ผ่านการรับรองมาตรฐานด้านสาธารณะสุข ความปลอดภัย และสิ่งแวดล้อม จาก NSF
+- ระบบกรอง 7 ขั้นตอน น้ำสด สะอาด ดื่มได้ รสชาติดี ล้างผัก ผลไม้ ก็มั่นใจ
+- เยื่อกรอง Ultrafiltration กรองเชื้อแบคทีเรียขนาดเล็กได้ถึง 0.01 ไมครอน
+- ชั้นหิน Silverlite เพิ่มความปลอดภัยกับระบบกรองด้วยไอออนเงินและแร่ธาตุหลายชนิด ป้องกันการเจริญเติบโตของแบคทีเรีย
+- ระบบเดินน้ำทางเดียว (One-Way) ช่วยลดอัตราการเกิดสารปนเปื้อน แบคทีเรีย และจุลินทรีย์
+- ไม่ต้องพึ่งไฟฟ้าในการใช้งาน
+- ควบคุมปริมาณน้ำ ใช้งานง่ายด้วยวาล์วเปิด-ปิดที่ตัวเครื่อง
+- ท่ออ่อนสเตนเลส ปรับ/หมุนได้ 360 องศา ตอบโจทย์ทุกการใช้งานในครัว
+สนใจ "เครื่องกรองน้ำ STIEBEL ELTRON รุ่น Fountain 7S" ราคาพิเศษ 11,400.00 บาท / เครื่อง (จากปกติ 18,090 บาท)</t>
+  </si>
+  <si>
+    <t>บอกรักแม่ครั้งนี้ไม่ใช่แค่หยอดคำหวาน แต่จะปรับปรุงบ้านให้สะดวก ปลอดภัย โดนใจแม่เต็มๆ เลือกซื้อสินค้าบริการปรับปรุงบ้านฉบับรักแม่ (อย่าลืมดูโปรโมชันดีๆ แต่ละหน้าสินค้า/บริการ)
+- พื้นในบ้านไม่ลื่น... พื้นลดแรงกระแทกพร้อมติดตั้ง (เริ่มต้นม้วนละ 30,000 บ.)
+- ขึ้นชั้นบน ลงชั้นล่าง ง่าย ปลอดภัยไม่เหนื่อย... ติดลิฟต์บ้าน ลิฟต์บันไดพร้อมติดตั้ง (เริ่มต้น 139,000 บ.) 
+- เลือกซื้อราวจับทรงตัว....(เริ่มต้นชิ้นละ 1,800 บ.) คลิก &gt;&gt; https://bit.ly/3ylGeJE
+-เบาใจได้เมื่อแม่อยู่บ้านคนเดียว...กับอุปกรณ์ขอความช่วยเหลือฉุกเฉินประจำบ้าน .... (เริ่มต้น ชุดละ 16,900 บ.)</t>
+  </si>
+  <si>
+    <t>คอร์ทกลางบ้าน สัมผัสอบอุ่น ลุคธรรมชาติ
+- สนใจ ระแนงตกแต่ง เอสซีจี รุ่น รัสติค ผิวลายเสี้ยน ขนาด 7.5x300x0.8 ซม. สีซีเมนต์ ราคา 43.00 - 50.00 บาท / ชิ้น
+- สนใจ กระเบื้องคอตโต้ GP 20x120 ริเวอร์วู้ดเบจ(HYG)R10ตัดขอบPM ราคา 700.00 บาท / กล่อง
+SCG GREEN SALE! สินค้าวัสดุตกแต่ง DECAAR By SCG รับส่วนลดเริ่มต้น 200 บาท ตั้งแต่วันที่ 1 ก.ค. 67 - 30 ก.ย. 67</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">โปรโมชันบริการเรื่องบ้านสุดคุ้ม! อยู่บ้านก็ช้อปได้สะดวกตลอดวัน! ที่ SCGHOME.com
+- ชำระค่าสำรวจหรือมัดจำวันนี้ผ่านเว็บไซต์ SCGHOME.com รับข้อเสนอเดียวกันกับงานบ้านและสวนแฟร์ MidYear 2024! และรับโปรพิเศษเพิ่มอีก!
+- ส่วนลดสูงสุด 130,0000 บาท
+- บัตรเติมน้ำมันสูงสุด 6,000 บาท
+- สนใจจองบริการ คลิก &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://bit.ly/3Yx7OOQ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">หลากหลายบริการเรื่องบ้านที่ตอบครบทุกความต้องการ ไม่ว่าจะเป็น
+- บริการซ่อม/เปลี่ยน หลังคาร้าว รั่ว ซึม
+- บริการติดตั้งระบบหลังคาโซลาร์
+- บริการติดตั้งโรงรถ กันสาด 
+- บริการติดตั้งฉนวนกันความร้อน
+- บริการปรับปรุงพื้นรอบบ้าน
+- บริการต่อเติมครัว
+- และบริการอื่นๆ อีกมากมาย ดูเพิ่มเติม คลิก &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://bit.ly/3Yx7OOQ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+หมายเหตุ:
+- ระยะเวลาโปรโมชัน วันที่ 2 ส.ค. 67 - 11 ส.ค. 67
+- กรอกโค้ดที่กำหนดในแต่ละบริการเพื่อรับสิทธิ์โปรโมชัน
+- บริการที่ร่วมโปรโมชันแต่ละรายการมีผู้ให้บริการ / พื้นที่ให้บริการ / รายละเอียดโปรโมชันที่แตกต่างกัน โปรดตรวจสอบรายละเอียดโปรโมชันก่อนทำการชำระเงิน ดูรายละเอียดโปรโมชันทั้งหมด คลิก https://bit.ly/3Yx7OOQ
+- โปรโมชันดังกล่าวเฉพาะผู้ที่สั่งซื้อสินค้าและบริการผ่านทาง SCG HOME ONLINE เท่านั้น
+- เงื่อนไขเป็นไปตามที่บริษัทกำหนด</t>
+    </r>
+  </si>
+  <si>
+    <t>เตียงนอนเก่าแข็งหรือนิ่มเกินไปทำให้นอนหลับไม่สบาย SCGHOME.COM ขอแนะนำ “10 ข้อดี เตียงปรับระดับไฟฟ้าพร้อมที่นอนยางพารา The Bed รุ่น Luxury” ‼​
+- สนใจ: The Bed รุ่น Luxury เตียงปรับระดับไฟฟ้าพร้อมที่นอนยางพารา​
+- ราคาเริ่มต้น: 59,900 บาท / ชิ้น​
+- คลิกเลย: https://bit.ly/4ccFiVA</t>
+  </si>
+  <si>
+    <t>*ใช้มิเตอร์ TOU ร่วมกับหลังคาโซลาร์ จะดีหรือไม่ ? หาคำตอบได้ใน VDO https://www.facebook.com/reel/471506892475138
+*ติดตั้ง “หลังคาโซลาร์ SCG Solar Roof" พร้อมบริการครบวงจร” (เริ่มต้น 117,000 บ. ราคารวมค่าระบบโซลาร์ ค่าติดตั้ง และการดำเนินการขออนุญาตหน่วยงานรัฐทั้งหมด) คลิก &gt;&gt; https https://bit.ly/4dpo6xl
+แจกโค้ดโปรโมชัน SOLJUL24 “ติดตั้งหลังคาโซลาร์เซลล์ SCG Solar Roof” เฉพาะวันที่ 1 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น!! 
+- ค่าสำรวจ 2,000.- ลดพิเศษเหลือเพียง 500.- และรับคืนเป็นส่วนลดเมื่อใช้บริการติดตั้ง 
+- ชำระค่าติดตั้งรับส่วนลดสูงสุด 100,000 บาท โดยยอดทุกๆ 100,000 บาท รับส่วนลด 10,000 บาท
+- เลือกผ่อนชำระ 0% นาน 10 เดือน เมื่อชำระดัวยบัตรเครดิตร่วมรายการตามเงื่อนไข
+- โปรโมชันอื่นๆ เพิ่มเติมจากบัตรเครดิตร่วมรายการตามเงื่อนไข
+รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/4c4tnJC</t>
+  </si>
+  <si>
+    <t>" ซีเมนต์บอร์ด เอสซีจี" สามารถนำไปประยุกต์ใช้งานได้อย่างหลากหลายมากกกว่าที่คิด โดยเฉพาะงานโชว์ผิวผนังปูนเปลือย เท่ ๆ ตามสไตล์ลอฟต์ บทความนี้จะพาทุกคนไปรู้จักให้มากขึ้น • อ่านต่อ.. คลิก https://bit.ly/4d4Gzzn
+- สนใจ แผ่นสมาร์ทบอร์ด-ซีเมนต์บอร์ดและซีเมนต์วูด
+- ราคาเริ่มต้น 45.00 - 54.00 บาท / ชิ้น 
+- คลิก https://bit.ly/3ykQxNU</t>
+  </si>
+  <si>
+    <t>ฝักบัวสำหรับสัตว์เลี้ยง COTTO
+- ผลิตจากพลาสติก ABS แข็งแรง ทนทาน 
+- ปรับระดับน้ำได้ 4 ฟังก์ชั่น : Full Spray, Half Spray, Rinsing, Flush
+- หน้าฝักบัวเป็นแปรงซิลิโคน อ่อนโยนต่อสัตว์เลี้ยง 
+- มาพร้อมกับสายและขอแขวนฝักบัว
+สนใจ ฝักบัวสำหรับสัตว์เลี้ยง COTTO 
+- ราคาพิเศษ 890.00 บาท / ชิ้น จากปกติ 1,010.00 บาท</t>
+  </si>
+  <si>
+    <t>ปัจจุบันสภาพอากาศแปรปรวน เกิดพายุฝนฟ้าคะนอง ซึ่งปัญหานี้เป็นสิ่งที่ใกล้ตัวมาก โดยเฉพาะบ้านหากหลังคาบ้านคุณไม่แข็งแรงพออาจจะเกิดปัญหาหลังคารั่ว ร้าว หรือหลุดปลิวได้
+เลือกใช้หลังคาที่มั่นใจ หลังคาไฟเบอร์ซีเมนต์ เอสซีจี รุ่น ลอนคู่ไฮบริด 
+- อย่างหนา ต้องหลังคาเอสซีจี หนาที่สุด 5.5 มม.
+- แข็งแรง ทนทาน ด้วยเทคโนโลยี Fiber Hybrid+
+- สีสวย ยึดเกาะแน่น เคลือบ 2 ชั้น
+- บ้านไม่ร้อนอบอ้าว เพราะเป็นวัสดุนำความร้อนต่ำ
+- เสียงเบากว่า เมทัลชีททั่วไป 17%
+- ปลอดภัยไร้ใยหิน ซึ่งเป็นสารก่อมะเร็ง
+- ได้มาตรฐาน มอก. มั่นใจด้วยคุณภาพจาก SCG</t>
+  </si>
+  <si>
+    <t>*ถ้าใช้เครื่องฟอกอากาศแล้วภูมิแพ้ยังไม่หาย แสดงว่าเครื่องฟอกของเราอาจไม่สามารถกำจัดสารที่เราแพ้ได้ งั้นลองมาดู “เครื่องเติมอากาศดี” ที่กรองอากาศจากภายนอกให้สะอาดก่อนเข้าบ้าน อาจจะเวิร์กกว่า
+*ติดตั้ง “เครื่องเติมอากาศดี” SCG Active Air Quality (เริ่มต้น 20,900 บ.) 
+โปรโมชัน “ติดตั้งเครื่องเติมอากาศดี SCG Active Air Quality” เฉพาะวันที่ 1 ก.ค. 67 - 31 ก.ค. 67 เท่านั้น !!! 
+- ซื้อสินค้าพร้อมติดตั้ง ตามเงื่อนไข รับส่วนลดพิเศษทุกรุ่น 5% กรอกโค้ด AAQJUN24
+- พิเศษ เมื่อซื้อ AAQ จำนวน 3 เครื่องขึ้นไปรุ่นใดก็ได้ สำหรับติดตั้งภายในบ้านเดียวกัน รับส่วนลด 8 % จากราคาปกติ กรอกโค้ด AAQ3UP8
+- เลือกผ่อน 0% 3 เดือน กับธนาคารที่ร่วมรายการ 
+- รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3LFbq9H
+โปรโมชัน ค่าสำรวจเพื่อเตรียมติดตั้งเครื่องเติมอากาศดี เหลือเพียง 1500 บาท !! จากปกติ 2,000 บาท เมื่อกรอกโค้ด AAQSV724 และ ชำระค่าสำรวจภายใน 8 ก.ค. 67 - 31 ก.ค. 67
+- รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3WB0Fvp
+.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ต่อเติมหลังคาโรงรถหน้าบ้าน หรือกันสาดเหนือประตูหน้าต่าง ด้วย “แผ่นหลังคาอะคริลิก SHINKOLITE” ทำให้บ้านดูทันสมัย สว่าง สบายตา ไม่ว่าจะเป็นแผ่นโปร่งใสเทียบเท่ากระจก หรือแผ่นโปร่งแสงนวลตา มาพร้อมคุณสมบัติช่วยกันฝน ลดร้อน และคุณสมบัติด้านอื่น ๆ ที่น่าสนใจอีกมากมาย
+- สนใจ “แผ่นหลังคาอะคริลิก SHINKOLITE” ราคาเริ่มต้น 6,386.00 บาท / ชิ้น 
+โปรโมชัน ลดฉ่ำ รับฝน ! บริการต่อเติมหลังคาโรงรถ กันสาด โดย HomeSmile สำรวจหน้างาน ราคาพิเศษ 499 บาท จากปกติ 1,000 บาท ตั้งแต่วันที่ 8 ก.ค. 67 - 31 ส.ค. 67 
+</t>
+  </si>
+  <si>
+    <t>เตรียมพร้อมสำหรับพัฒนาการลูก ตั้งแต่หัดพลิกตัว นั่ง คลาน ตั้งไข่ ยืน เดิน “คอกกั้นเด็กปลอดสาร แบรนด์ GEKO ไซส์ L” มั่นใจได้ในเรื่องความแข็งแรง ปลอดภัย ปลอดสาร อีกทั้งสามารถปรับรูปแบบได้หลากหลาย จึงใช้ได้ตั้งแต่เด็กเล็กจนโต หากพร้อมแล้ว ไปชมวิดีโอการรีวิวสินค้ากันเลยค่ะ https://fb.watch/tMltfR7cuY/
+*รวมสนใจสินค้า “คอกกั้นเด็ก GEKO" ราคาเริ่มต้น 12,900.00 บาท / ชุด คลิก https://bit.ly/3zU9l7l 
+- ออกแบบโครงสร้างโดยวิศวกร มั่นใจในความแข็งแรงปลอดภัย
+- ใช้ PE Foam คุณภาพสูง นุ่มแต่ไม่ยุบตัว รองรับแรงกระแทกได้ดี หนา 7.5 cm
+- ใช้หนังที่ผ่านการทดสอบจาก SGS Lab ว่าผ่านมาตรฐานของเล่นเด็ก EN71-3 ปลอดสาร BPA, Phthalates, DMF, PVC, Formaldehyde (มีให้เลือก 2 รุ่น คือหนัง PU และหนัง Silicone)
+- ไม่มีการใช้กาวสารระเหย ตะปู น็อตหรือชิ้นส่วนโลหะที่อาจก่อให้เกิดอันตรายในการยึดชิ้นส่วนของคอก</t>
+  </si>
+  <si>
+    <t>ปัญหาของรั้วบ้านเตี้ยคือ ไม่ปลอดภัย ไม่เป็นส่วนตัว... แก้ได้ไม่ยาก คือต่อเติมรั้วให้สูงขึ้น จะทำแบบทึบ แบบโปร่ง หรือถือโอกาสตกแต่งรั้วให้สวย สร้างบรรยากาศใหม่ๆ ไปเลยก็ได้...
+สนใจต่อเติมรั้วระแนงไม้เทียมกับ HomeSmile (อย่าลืมเลื่อนดูโปรโมชันดีๆ ท้ายหน้า!!!)
+- ต่อเติมรั้วระแนงไฟเบอร์ซีเมนต์ (เริ่มต้น 2,800 บาท/ตร.ม.) 
+- ต่อเติมรั้วระแนงไวนิล (เริ่มต้น 3,200 บาท/ตร.ม.) 
+โปรโมชัน “ติดตั้ง รั้ว ระแนงบังตา ไฟเบอร์ซิเมนต์ โดย HomeSmile ” เฉพาะวันที่ 8 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น !!! 
+- ต่อที่ 1: สำรวจหน้างานงานเพียง 499 บาท จากปกติ 1,000 บาท เมื่อกรอกโค้ด HSSH245 (นำมาเป็นส่วนลดค่าบริการติดตั้งได้)
+- ต่อที่ 2: เลือกรับบัตรเติมน้ำมันหรือสิทธิ์ผ่อน 0% ตามเงื่อนไข
+- ต่อที่ 3: โปรฯ เพิ่มเติมจากบัตรเครดิตร่วมรายการ ตามเงื่อนไข
+รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/4cPqugN</t>
+  </si>
+  <si>
+    <t>รีวิว เตียงปรับระด้บไฟฟ้า+ที่นอนยางพารา The Bed Luxury ที่นอนยางพาราเพื่อสุขภาพ แบบ FULL LATEX พร้อมรีโมทสั่งการ 2 อัน 
+รายละเอียดรีโมทคอนโทรล : 
+- ZERO G โหมดท่านอนสภาวะไร้แรงโน้มถ่วง
+- ANTI SNORE (ZZZ) โหมดท่านอนลดอาการนอนกรน
+- TV โหมดปรับระดับดูทีวี
+- FLAT โหมดท่านอนแนวราบ
+- HEAD UP ปรับระดับหัวเตียงขึ้น
+- HEAD DOWN ปรับระดับหัวเตียงลง
+- FOOT UP ปรับระดับปลายเตียงขึ้น
+- FOOT DOWN ปรับระดับปลายเตียงลง
+ดูสินค้าเพิ่มเติม &gt;&gt; https://bit.ly/3SmX15F
+สนใจ เตียงปรับระด้บไฟฟ้า+ที่นอนยางพารา The Bed Luxury ราคาพิเศษ 53,900.00 บาท / ชิ้น จากปกติ 59,900.00 บาท
+คลิกเลย https://bit.ly/3SmX15F</t>
+  </si>
+  <si>
+    <t>แดดแรงเมืองไทยแปลงเป็นไฟฟ้าใช้ตอนกลางวันได้ มาฟังเสียงเจ้าของบริษัทและเจ้าของบ้านที่ติดตั้งหลังคาโซลาร์ ว่าใช้ไฟฟ้าได้อย่างมั่นใจขนาดไหน ประหยัดค่าไฟกันมากน้อยเพียงใด ตามดู VDO กันเลยค่ะ ^^
+สนใจ ระบบหลังคาโซลาร์ เอสซีจี SCG Solar Roof พร้อมบริการครบวงจร (รวมติดตั้งและขออนุญาตจากหน่วยงานราชการ)
+- สำหรับบ้านพักอาศัย เริ่มต้น 117,000 บ.
+- สำหรับอาคารสำนักงาน โรงงาน เริ่มต้น 709,000 บ. 
+- ดูรายละเอียดบริการ คลิก &gt;&gt; https://bit.ly/3WfULyw
+โค้ดโปรโมชัน: SOLJUL24 “ติดตั้งหลังคาโซลาร์ SCG Solar Roof” เฉพาะ 1 ก.ค. 67 - 31 ส.ค. 67 นี้ รับสิทธิ์พิเศษ !!
+- ค่าสำรวจ 2,000.- ลดพิเศษเหลือเพียง 500.- และรับคืนเป็นส่วนลดเมื่อใช้บริการติดตั้ง
+- รับส่วนลดสูงสุด 100,000 บาท โดยยอดทุกๆ 100,000 บาท รับส่วนลด 10,000 บาท เมื่อชำระค่าติดตั้งระหว่างวันที่ 1 ก.ค. 67 - 31 ส.ค. 67
+- เลือกผ่อนชำระ 0% นาน 10 เดือน เมื่อยอดใช้จ่าย 20,000 บาท ขึ้นไปด้วยบัตรเครดิตที่ร่วมรายการตามเงื่อนไข
+- รับโปรฯ เพิ่มเติม ตามเงื่อนไขของบัตรเครดิตแต่ละธนาคารที่ร่วมรายการ
+ดูรายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3zVC2AE</t>
+  </si>
+  <si>
+    <t>ที่สุดของประสิทธิภาพดการชำระล้างอันทรงพลัง
+สุขภัณฑ์ใหม่ สวยล้ำทันสมัย สุขภัณฑ์ชิ้นเดียว Armani รุ่น HC-2420 สีขาว
+- สนใจดูรายละเอียดสินค้า คลิก &gt; https://bit.ly/4d7MTX6
+- ชำระล้างเงียบ สะอาดหมดจด ด้วยระบบน้ำวน Siphon Vortex
+- Urea-Formaldehyde ฝารองนั่งผลิตจากพลาสติกคุณภาพสูง
+- บรรจุน้ำได้ 3/6 ลิตร
+- ฝารองนั่ง เปิด-ปิด ได้อย่างนุ่มนวล
+- รับประกันตัวสุขภัณฑ์นานถึง 10 ปี (รับประกันอุปกรณ์ 1 ปี)
+- แถมฟรี! สายน้ำดี ประเก็นดับกลิ่น
+ดูโบรชัวร์ ลดใหญ่กลางปี คลิก &gt; https://bit.ly/3zh45u1
+ใครสนใจมาช้อปได้เลยที่ร้าน SCG HOME ทุกสาขาทั่วประเทศ
+ดูสาขาใกล้บ้านท่านคลิกเลย &gt;&gt; https://bit.ly/47QdS63
+*เงื่อนไขเป็นไปตามที่บริษัทฯ กำหนด/โปรดตรวจสอบโปรโมชัน ณ จุดขาย
+*โปรโมชันนี้เฉพาะช้อปหน้าร้าน SCG HOME เท่านั้น</t>
+  </si>
+  <si>
+    <t>ไม่ใช่ทุกคนที่อยากให้บ้านมีกันสาดยื่นออกมา หรือบางทีหน้าตาบ้านเราก็ไม่เหมาะกับการมีกันสาด แต่พอเจอแดดฝนเมืองไทยเข้าไปก็ยอมใจ คงต้องทำอะไรซักอย่าง ทางออกมีอะไรบ้าง...
+- กันสาดพับได้ 
+- หลังคาพับได้สำหรับ Skylight
+- ม่านม้วนแนวดิ่ง 
+สนใจติดตั้ง “กันสาดพับได้ หลังคาพับได้สำหรับ Skylight ม่านม้วนแนวดิ่ง” (กันสาดพับได้ ราคาเริ่มต้น 20,000 บ.) พร้อมโปรโมชันดีๆ ท้ายหน้า คลิก &gt;&gt; https://bit.ly/3LzGYxR
+โปรโมชัน ติดตั้ง “กันสาดพับได้ หลังคาพับได้สำหรับ Skylight ม่านม้วนแนวดิ่ง” เฉพาะวันที่ 1 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น !!! 
+- ต่อที่ 1: ค่าสำรวจ หน้างานเหลือเพียง 499 บาท จากปกติ 1,000 บาท เมื่อกรอกโค้ด SSS2407
+- ต่อที่ 2: เลือกรับบัตรเติมน้ำมัน ปตท หรือสิทธิ์ผ่อน 0% ตามเงื่อนไข
+- ต่อที่ 3: โปรฯ เพิ่มเติมจากบัตรเครดิตร่วมรายการ ตามเงื่อนไข
+รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3Smcy5I</t>
+  </si>
+  <si>
+    <t>ใหม่ กระเบื้อง Home Choice by SCG Home 
+ขนาด 60x120 ซม. สวย แกร่งทนทาน ใช้งานได้ทั้งพื้นและผนัง
+- ผลิตจากแกนิตโตคุณภาพดี
+- ลวดลายคมชัด สีสันไม่ซีดจางง่าย
+- ดูแลรักษา และทำความสะอาดง่าย
+ติดต่อขอใบเสนอราคา คลิก https://bit.ly/4emBpzO
+ดูโบรชัวร์ ลดใหญ่กลางปี คลิก &gt; https://bit.ly/3zh45u1
+ใครสนใจมาช้อปได้เลยที่ร้าน SCG HOME ทุกสาขาทั่วประเทศ
+ดูสาขาใกล้บ้านท่านคลิกเลย &gt;&gt;https://bit.ly/47QdS63
+*เงื่อนไขเป็นไปตามที่บริษัทฯ กำหนด/โปรดตรวจสอบโปรโมชัน ณ จุดขาย
+*โปรโมชันนี้เฉพาะช้อปหน้าร้าน SCG HOME เท่านั้น</t>
+  </si>
+  <si>
+    <t>ผนังบ้านไม้เดิมอายุกว่า 40 ปีผุพัง ปรับปรุงใหม่ให้ปังคราวนี้ขอเลือกใช้ “ผนังสมาร์ทบอร์ด” แล้วกัน เพราะมีรูปแบบลวดลายใกล้เคียงผนังไม้ให้เลือก ที่สำคัญเป็นวัสดุที่มีซีเมนต์เป็นส่วนผสม แข็งแรงแน่นอน และยังไม่เป็นอาหารของปลวกด้วย แต่จะมีวิธีการอย่างไร โฉมใหม่จะถูกใจแค่ไหน ไปดูกันเลย
+สนใจ ผนังสมาร์ทบอร์ด เอสซีจี ราคาเริ่มต้น 414.00 บาท / ชิ้น คลิก &gt;&gt; https://bit.ly/4dbTxuV
+โปรฯ ฉ่ำรับหน้าฝน สินค้าวัสดุก่อสร้าง รับส่วนลดสูงสุด 10,000 บาท ตั้งแต่วันที่ 1 ก.ค. 67 - 30 ก.ย. 67 คลิก &gt;&gt; https://bit.ly/4dc6qoD</t>
+  </si>
+  <si>
+    <t>ปรับผนังบ้านเดิม เพิ่มเติมให้ช่วย “กันเสียง” 
+หนึ่งปัญหาที่หลายบ้านคุ้นเคย คือ เสียงรบกวน ไม่ว่าจะเป็นจาก 
+- ข้างห้องที่อยู่ภายในบ้านเดียวกัน 
+- ข้างบ้านที่ใช้ผนังร่วมกัน เช่น ทาวน์โฮม 
+- ข้างห้องที่ใช้ผนังร่วมกัน เช่น คอนโด 
+แก้ปัญหาง่ายๆ ด้วย “ระบบผนังเบากันเสียง” ประกอบด้วย 4 ไอเทมหลัก 
+- โครงกัลวาไนซ์ ซี74 และยู76 : ใช้ขึ้นโครงสำหรับการทำระบบผนังเบา 
+- วัสดุอะคูสติก เอสซีจี รุ่น Cylence Zoundblock : ติดตั้งเป็นไส้ตรงกลางผนัง ช่วยป้องกันเสียงทะลุรบกวนระหว่างห้อง 
+- ผนังสมาร์ทบอร์ด เอสซีจี รุ่น ขอบลาด : ผนังกึ่งสำเร็จรูป ติดตั้งง่าย แผ่นใหญ่ ลดรอยต่อ 
+- ปูนฉาบสมาร์ทจ๊อยท์ เอสซีจี : ฉาบรอยต่อผนังสมาร์ทบอร์ด เก็บงานเนี้ยบ 
+สนใจวัสดุอะคูสติก เอสซีจี คลิก &gt;&gt; https://bit.ly/4d71uRR 
+ใครสนใจมาช้อปสินค้าที่ร้าน SCG HOME 
+ดูสาขาใกล้บ้านท่านคลิกเลย &gt;&gt;https://bit.ly/47QdS63 
+.</t>
+  </si>
+  <si>
+    <t>จะเลือกพัดลมเพดานมาติดที่บ้านให้สวยและเย็นทั้งที นอกจากจะเล็งแบบที่เหมาะกับสไตล์การแต่งบ้านแล้ว ยังต้องดูเรื่องของขนาดและความสูงห้อง ตำแหน่ง รวมถึงฝ้าเพดานที่จะติดตั้งด้วย วันนี้แอดมินเลยนำวิธีเลือกมาฝากกัน 
+ตามอ่านต่อกับ “5 เรื่องน่ารู้ เลือกพัดลมเพดานให้โดนใจใช้ดี” คลิก &gt;&gt; https://bit.ly/3LxUOAP
+เลือกซื้อพัดลมเพดานสวยๆ ราคาพิเศษ คลิก &gt;&gt; https://bit.ly/3WzjdfB
+ซื้อพัดลมเพดานพร้อมบริการติดตั้ง คลิก &gt;&gt; https://bit.ly/4dbYa87_x000B_.
+โปรโมชัน “พัดลมเพดานพร้อมบริการติดตั้ง” เฉพาะวันที่ 1 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น !!! 
+- ต่อที่ 1: สำรวจหน้างานเพียง 615.- จากปกติ 899
+- ต่อที่ 2 : เลือก “ผ่อนชำระ 0% นาน 3 เดือน กับบัตรเครดิตร่วมรายการ” หรือ "รับบัตรเติมน้ำมันสูงสุด 6,000 บาท” ตามเงื่อนไข
+- ต่อที่ 3 : เมื่อชำระด้วยบัตรเครดิตในต่อที่ 2 รับโปรโมชั่นบัตรเครดิตเพิ่มเติม ตามเงื่อนไขของบัตรแต่ละรายการ
+ดูแคตตาล็อกพร้อมรายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3A1yHzU</t>
+  </si>
+  <si>
+    <t>เครื่องช่วยนอนหลับ เพิ่มสมาธิ ลดความเครียด ด้วยนวัตกรรมคลื่นเสียงอัจฉริยะ Banala Sense 
+- ระบบช่วยนอนหลับ (Sleep)
+- ระบบช่วยเสริมสมาธิจดจ่อ (Focus)
+- ระบบช่วยผ่อนคลาย (Relax)
+- ระบบช่วยลดความซึมเครียด (Feel Good)
+* สนใจ "อุปกรณ์เสริมสมาธิจดจ่อ ด้วยนวัตกรรมคลื่นเสียงอัจฉริยะ Banala Sense" 
+ราคาพิเศษ 2,839.00 บาท / ชิ้น (จากปกติ 2,990.00 บาท)</t>
+  </si>
+  <si>
+    <t>3 ขั้นตอนง่าย ๆ กับการเลือกชุดครัวใหม่จาก Starmark 
+.
+1.สำรวจพื้นที่ เลือกชุดครัวให้เหมาะสมกับผู้ใช้งาน
+2.เลือกดีไซน์ที่ชอบ ตอบโจทย์เจ้าของบ้าน 
+- ชุดครัวสำเร็จรูป รุ่น CONTE สไตล์โมเดิร์น ราคาเริ่มต้น 22,500 บาท 
+- ชุดครัวสำเร็จรูป รุ่น ALICE สไตล์วินเทจ ราคาเริ่มต้น 27,750 บาท
+- ชุดครัวสำเร็จรูป รุ่น BLANCE สไตล์โมเดิร์นมินิมอล ราคาเริ่มต้น 27,750 บาท
+3.เตรียมพื้นที่ จัดวางตำแหน่งท่อน้ำและสายไฟ ให้ตรงกับแปลนงานระบบของชุดครัวที่เลือก
+.
+ช้อปชุดครัว Starmark ที่ใช่ได้ที่ SCG Home Online รับโปรฯสุดคุ้ม 
+- ลดเพิ่ม 5% เพียงกรอกโค้ด STARMARK (เฉพาะรุ่นที่กำหนด) พร้อมรับของแถมสูงสุด 10 รายการ*
+* โปรโมชันวันที่ 1 ก.ค. 67 - 31 ก.ค. 67
+*เงื่อนไขเป็นไปตามบริษัทฯกำหนด</t>
+  </si>
+  <si>
+    <t>รู้มั้ยการถมดินในบ้านเพื่อให้บริเวณบ้านสูงขึ้นก็มีกฎหมายที่เกี่ยวข้องนะ ที่สำคัญหากถมดินสูงมากกว่า 30 ซม. จำเป็นต้องทำกำแพงกันดินขึ้นมาก่อน เพื่อกั้นแนวดินที่สูงขึ้นไม่ให้ไปชนกับรั้ว แล้วทำไมถึงชนชิดรั้วไม่ได้ล่ะ.
+- สนใจบริการ ติดตั้ง รั้ว ระแนงบังตาไวนิล โดย HomeSmile ราคาเริ่มต้น 3,200 บาท/ตร.ม. คลิก 
+- สนใจบริการ ติดตั้ง รั้ว ระแนงบังตาไฟเบอร์ซิเมนต์ โดย HomeSmile ราคาเริ่มต้น 2,800 บาท/ตร.ม.</t>
+  </si>
+  <si>
+    <t>จะต่อเติมโรงรถหน้าบ้านต้องเริ่มยังไง... หลังคาโรงรถต้องมีเสาหรือไม่ ใช้วัสดุอะไรมุงหลังคาดี ? แล้วพื้นโรงรถล่ะ จะทำแบบไหนดี? ลองมาทำความเข้าใจภาพรวมของการต่อเติมพื้นและหลังคาโรงรถกันก่อน แล้วทุกอย่างจะง่ายขึ้น...
+** หลากบริการต่อเติมหลังคาโรงรถ พื้นโรงรถ โดย HomeSmile (อย่าลืมคลิกดูแต่ละท้ายหน้าอาจมีโปรโมชันดีๆ!!!) **
+• ต่อเติมหลังคา หลังคากันสาด (เริ่มต้น ตร.ม. 3,600 บ.) คลิก 
+• ตกแต่งพื้นด้วยบล็อก กระเบื้องคอนกรีต (เริ่มต้น ตร.ม. 1,490 บ.) 
+• ทำพื้นคอนกรีตพิมพ์ลายโดย (เริ่มต้น ตร.ม. ละ 900 บ.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -878,6 +928,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -896,10 +967,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -916,8 +988,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1250,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AEA82-BF8D-D54E-A5FA-BADEDC03F209}">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1287,12 +1366,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1372,22 +1451,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="272" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="272" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="272" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="272" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1432,22 +1511,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="255" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="238" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="306" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="221" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="221" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="187" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="255" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="238" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -1457,7 +1536,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="221" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="204" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -1497,77 +1576,150 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="340" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="323" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="356" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="289" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="323" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:1" ht="342" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="356" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="404" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="388" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="404" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:1" ht="165" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:1" ht="225" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="388" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:1" ht="150" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="62" spans="1:1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="195" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="210" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="135" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="195" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A62" r:id="rId1" display="https://bit.ly/4cPqugN" xr:uid="{48A6A910-9868-BA4D-9C95-21782BA7322D}"/>
+    <hyperlink ref="A63" r:id="rId2" display="https://bit.ly/3SmX15F" xr:uid="{3C57DA79-3D51-2041-BA15-59F4502DFFC7}"/>
+    <hyperlink ref="A64" r:id="rId3" display="https://bit.ly/3zVC2AE" xr:uid="{3CF215A3-8561-0145-8708-A2D2FAD57368}"/>
+    <hyperlink ref="A66" r:id="rId4" display="https://bit.ly/3Smcy5I" xr:uid="{F1C204AA-8C98-C242-AC7D-56F3A72BCAFA}"/>
+    <hyperlink ref="A68" r:id="rId5" display="https://bit.ly/4dc6qoD" xr:uid="{2314D905-843C-044C-B8AB-C1AAE33FE556}"/>
+    <hyperlink ref="A70" r:id="rId6" display="https://bit.ly/3LxUOAP" xr:uid="{454292F4-3AFD-CE4D-956F-A5B2EAF3B3A7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/context_scg_home.xlsx
+++ b/data/context_scg_home.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasunimsuwan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB788399-8A2B-8946-AE9A-99B808E2BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B899B-0B06-AA4F-B96F-68F6F849605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21480" xr2:uid="{4845C39F-9F50-9C4F-9591-143131F091DE}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>ค่าเสาพร้อมเข็มเหล็ก ราคาเริ่มต้น 10,500 บาท/ต้น // ค่าเสา ราคาเริ่มต้น 5,500 บาท/ต้น ไม่รวมลงเสาเข็ม</t>
   </si>
@@ -626,6 +624,222 @@
 SCG GREEN SALE! สินค้าวัสดุตกแต่ง DECAAR By SCG รับส่วนลดเริ่มต้น 200 บาท ตั้งแต่วันที่ 1 ก.ค. 67 - 30 ก.ย. 67</t>
   </si>
   <si>
+    <t>เตียงนอนเก่าแข็งหรือนิ่มเกินไปทำให้นอนหลับไม่สบาย SCGHOME.COM ขอแนะนำ “10 ข้อดี เตียงปรับระดับไฟฟ้าพร้อมที่นอนยางพารา The Bed รุ่น Luxury” ‼​
+- สนใจ: The Bed รุ่น Luxury เตียงปรับระดับไฟฟ้าพร้อมที่นอนยางพารา​
+- ราคาเริ่มต้น: 59,900 บาท / ชิ้น​
+- คลิกเลย: https://bit.ly/4ccFiVA</t>
+  </si>
+  <si>
+    <t>*ใช้มิเตอร์ TOU ร่วมกับหลังคาโซลาร์ จะดีหรือไม่ ? หาคำตอบได้ใน VDO https://www.facebook.com/reel/471506892475138
+*ติดตั้ง “หลังคาโซลาร์ SCG Solar Roof" พร้อมบริการครบวงจร” (เริ่มต้น 117,000 บ. ราคารวมค่าระบบโซลาร์ ค่าติดตั้ง และการดำเนินการขออนุญาตหน่วยงานรัฐทั้งหมด) คลิก &gt;&gt; https https://bit.ly/4dpo6xl
+แจกโค้ดโปรโมชัน SOLJUL24 “ติดตั้งหลังคาโซลาร์เซลล์ SCG Solar Roof” เฉพาะวันที่ 1 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น!! 
+- ค่าสำรวจ 2,000.- ลดพิเศษเหลือเพียง 500.- และรับคืนเป็นส่วนลดเมื่อใช้บริการติดตั้ง 
+- ชำระค่าติดตั้งรับส่วนลดสูงสุด 100,000 บาท โดยยอดทุกๆ 100,000 บาท รับส่วนลด 10,000 บาท
+- เลือกผ่อนชำระ 0% นาน 10 เดือน เมื่อชำระดัวยบัตรเครดิตร่วมรายการตามเงื่อนไข
+- โปรโมชันอื่นๆ เพิ่มเติมจากบัตรเครดิตร่วมรายการตามเงื่อนไข
+รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/4c4tnJC</t>
+  </si>
+  <si>
+    <t>" ซีเมนต์บอร์ด เอสซีจี" สามารถนำไปประยุกต์ใช้งานได้อย่างหลากหลายมากกกว่าที่คิด โดยเฉพาะงานโชว์ผิวผนังปูนเปลือย เท่ ๆ ตามสไตล์ลอฟต์ บทความนี้จะพาทุกคนไปรู้จักให้มากขึ้น • อ่านต่อ.. คลิก https://bit.ly/4d4Gzzn
+- สนใจ แผ่นสมาร์ทบอร์ด-ซีเมนต์บอร์ดและซีเมนต์วูด
+- ราคาเริ่มต้น 45.00 - 54.00 บาท / ชิ้น 
+- คลิก https://bit.ly/3ykQxNU</t>
+  </si>
+  <si>
+    <t>ฝักบัวสำหรับสัตว์เลี้ยง COTTO
+- ผลิตจากพลาสติก ABS แข็งแรง ทนทาน 
+- ปรับระดับน้ำได้ 4 ฟังก์ชั่น : Full Spray, Half Spray, Rinsing, Flush
+- หน้าฝักบัวเป็นแปรงซิลิโคน อ่อนโยนต่อสัตว์เลี้ยง 
+- มาพร้อมกับสายและขอแขวนฝักบัว
+สนใจ ฝักบัวสำหรับสัตว์เลี้ยง COTTO 
+- ราคาพิเศษ 890.00 บาท / ชิ้น จากปกติ 1,010.00 บาท</t>
+  </si>
+  <si>
+    <t>ปัจจุบันสภาพอากาศแปรปรวน เกิดพายุฝนฟ้าคะนอง ซึ่งปัญหานี้เป็นสิ่งที่ใกล้ตัวมาก โดยเฉพาะบ้านหากหลังคาบ้านคุณไม่แข็งแรงพออาจจะเกิดปัญหาหลังคารั่ว ร้าว หรือหลุดปลิวได้
+เลือกใช้หลังคาที่มั่นใจ หลังคาไฟเบอร์ซีเมนต์ เอสซีจี รุ่น ลอนคู่ไฮบริด 
+- อย่างหนา ต้องหลังคาเอสซีจี หนาที่สุด 5.5 มม.
+- แข็งแรง ทนทาน ด้วยเทคโนโลยี Fiber Hybrid+
+- สีสวย ยึดเกาะแน่น เคลือบ 2 ชั้น
+- บ้านไม่ร้อนอบอ้าว เพราะเป็นวัสดุนำความร้อนต่ำ
+- เสียงเบากว่า เมทัลชีททั่วไป 17%
+- ปลอดภัยไร้ใยหิน ซึ่งเป็นสารก่อมะเร็ง
+- ได้มาตรฐาน มอก. มั่นใจด้วยคุณภาพจาก SCG</t>
+  </si>
+  <si>
+    <t>*ถ้าใช้เครื่องฟอกอากาศแล้วภูมิแพ้ยังไม่หาย แสดงว่าเครื่องฟอกของเราอาจไม่สามารถกำจัดสารที่เราแพ้ได้ งั้นลองมาดู “เครื่องเติมอากาศดี” ที่กรองอากาศจากภายนอกให้สะอาดก่อนเข้าบ้าน อาจจะเวิร์กกว่า
+*ติดตั้ง “เครื่องเติมอากาศดี” SCG Active Air Quality (เริ่มต้น 20,900 บ.) 
+โปรโมชัน “ติดตั้งเครื่องเติมอากาศดี SCG Active Air Quality” เฉพาะวันที่ 1 ก.ค. 67 - 31 ก.ค. 67 เท่านั้น !!! 
+- ซื้อสินค้าพร้อมติดตั้ง ตามเงื่อนไข รับส่วนลดพิเศษทุกรุ่น 5% กรอกโค้ด AAQJUN24
+- พิเศษ เมื่อซื้อ AAQ จำนวน 3 เครื่องขึ้นไปรุ่นใดก็ได้ สำหรับติดตั้งภายในบ้านเดียวกัน รับส่วนลด 8 % จากราคาปกติ กรอกโค้ด AAQ3UP8
+- เลือกผ่อน 0% 3 เดือน กับธนาคารที่ร่วมรายการ 
+- รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3LFbq9H
+โปรโมชัน ค่าสำรวจเพื่อเตรียมติดตั้งเครื่องเติมอากาศดี เหลือเพียง 1500 บาท !! จากปกติ 2,000 บาท เมื่อกรอกโค้ด AAQSV724 และ ชำระค่าสำรวจภายใน 8 ก.ค. 67 - 31 ก.ค. 67
+- รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3WB0Fvp
+.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ต่อเติมหลังคาโรงรถหน้าบ้าน หรือกันสาดเหนือประตูหน้าต่าง ด้วย “แผ่นหลังคาอะคริลิก SHINKOLITE” ทำให้บ้านดูทันสมัย สว่าง สบายตา ไม่ว่าจะเป็นแผ่นโปร่งใสเทียบเท่ากระจก หรือแผ่นโปร่งแสงนวลตา มาพร้อมคุณสมบัติช่วยกันฝน ลดร้อน และคุณสมบัติด้านอื่น ๆ ที่น่าสนใจอีกมากมาย
+- สนใจ “แผ่นหลังคาอะคริลิก SHINKOLITE” ราคาเริ่มต้น 6,386.00 บาท / ชิ้น 
+โปรโมชัน ลดฉ่ำ รับฝน ! บริการต่อเติมหลังคาโรงรถ กันสาด โดย HomeSmile สำรวจหน้างาน ราคาพิเศษ 499 บาท จากปกติ 1,000 บาท ตั้งแต่วันที่ 8 ก.ค. 67 - 31 ส.ค. 67 
+</t>
+  </si>
+  <si>
+    <t>เตรียมพร้อมสำหรับพัฒนาการลูก ตั้งแต่หัดพลิกตัว นั่ง คลาน ตั้งไข่ ยืน เดิน “คอกกั้นเด็กปลอดสาร แบรนด์ GEKO ไซส์ L” มั่นใจได้ในเรื่องความแข็งแรง ปลอดภัย ปลอดสาร อีกทั้งสามารถปรับรูปแบบได้หลากหลาย จึงใช้ได้ตั้งแต่เด็กเล็กจนโต หากพร้อมแล้ว ไปชมวิดีโอการรีวิวสินค้ากันเลยค่ะ https://fb.watch/tMltfR7cuY/
+*รวมสนใจสินค้า “คอกกั้นเด็ก GEKO" ราคาเริ่มต้น 12,900.00 บาท / ชุด คลิก https://bit.ly/3zU9l7l 
+- ออกแบบโครงสร้างโดยวิศวกร มั่นใจในความแข็งแรงปลอดภัย
+- ใช้ PE Foam คุณภาพสูง นุ่มแต่ไม่ยุบตัว รองรับแรงกระแทกได้ดี หนา 7.5 cm
+- ใช้หนังที่ผ่านการทดสอบจาก SGS Lab ว่าผ่านมาตรฐานของเล่นเด็ก EN71-3 ปลอดสาร BPA, Phthalates, DMF, PVC, Formaldehyde (มีให้เลือก 2 รุ่น คือหนัง PU และหนัง Silicone)
+- ไม่มีการใช้กาวสารระเหย ตะปู น็อตหรือชิ้นส่วนโลหะที่อาจก่อให้เกิดอันตรายในการยึดชิ้นส่วนของคอก</t>
+  </si>
+  <si>
+    <t>ปัญหาของรั้วบ้านเตี้ยคือ ไม่ปลอดภัย ไม่เป็นส่วนตัว... แก้ได้ไม่ยาก คือต่อเติมรั้วให้สูงขึ้น จะทำแบบทึบ แบบโปร่ง หรือถือโอกาสตกแต่งรั้วให้สวย สร้างบรรยากาศใหม่ๆ ไปเลยก็ได้...
+สนใจต่อเติมรั้วระแนงไม้เทียมกับ HomeSmile (อย่าลืมเลื่อนดูโปรโมชันดีๆ ท้ายหน้า!!!)
+- ต่อเติมรั้วระแนงไฟเบอร์ซีเมนต์ (เริ่มต้น 2,800 บาท/ตร.ม.) 
+- ต่อเติมรั้วระแนงไวนิล (เริ่มต้น 3,200 บาท/ตร.ม.) 
+โปรโมชัน “ติดตั้ง รั้ว ระแนงบังตา ไฟเบอร์ซิเมนต์ โดย HomeSmile ” เฉพาะวันที่ 8 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น !!! 
+- ต่อที่ 1: สำรวจหน้างานงานเพียง 499 บาท จากปกติ 1,000 บาท เมื่อกรอกโค้ด HSSH245 (นำมาเป็นส่วนลดค่าบริการติดตั้งได้)
+- ต่อที่ 2: เลือกรับบัตรเติมน้ำมันหรือสิทธิ์ผ่อน 0% ตามเงื่อนไข
+- ต่อที่ 3: โปรฯ เพิ่มเติมจากบัตรเครดิตร่วมรายการ ตามเงื่อนไข
+รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/4cPqugN</t>
+  </si>
+  <si>
+    <t>รีวิว เตียงปรับระด้บไฟฟ้า+ที่นอนยางพารา The Bed Luxury ที่นอนยางพาราเพื่อสุขภาพ แบบ FULL LATEX พร้อมรีโมทสั่งการ 2 อัน 
+รายละเอียดรีโมทคอนโทรล : 
+- ZERO G โหมดท่านอนสภาวะไร้แรงโน้มถ่วง
+- ANTI SNORE (ZZZ) โหมดท่านอนลดอาการนอนกรน
+- TV โหมดปรับระดับดูทีวี
+- FLAT โหมดท่านอนแนวราบ
+- HEAD UP ปรับระดับหัวเตียงขึ้น
+- HEAD DOWN ปรับระดับหัวเตียงลง
+- FOOT UP ปรับระดับปลายเตียงขึ้น
+- FOOT DOWN ปรับระดับปลายเตียงลง
+ดูสินค้าเพิ่มเติม &gt;&gt; https://bit.ly/3SmX15F
+สนใจ เตียงปรับระด้บไฟฟ้า+ที่นอนยางพารา The Bed Luxury ราคาพิเศษ 53,900.00 บาท / ชิ้น จากปกติ 59,900.00 บาท
+คลิกเลย https://bit.ly/3SmX15F</t>
+  </si>
+  <si>
+    <t>แดดแรงเมืองไทยแปลงเป็นไฟฟ้าใช้ตอนกลางวันได้ มาฟังเสียงเจ้าของบริษัทและเจ้าของบ้านที่ติดตั้งหลังคาโซลาร์ ว่าใช้ไฟฟ้าได้อย่างมั่นใจขนาดไหน ประหยัดค่าไฟกันมากน้อยเพียงใด ตามดู VDO กันเลยค่ะ ^^
+สนใจ ระบบหลังคาโซลาร์ เอสซีจี SCG Solar Roof พร้อมบริการครบวงจร (รวมติดตั้งและขออนุญาตจากหน่วยงานราชการ)
+- สำหรับบ้านพักอาศัย เริ่มต้น 117,000 บ.
+- สำหรับอาคารสำนักงาน โรงงาน เริ่มต้น 709,000 บ. 
+- ดูรายละเอียดบริการ คลิก &gt;&gt; https://bit.ly/3WfULyw
+โค้ดโปรโมชัน: SOLJUL24 “ติดตั้งหลังคาโซลาร์ SCG Solar Roof” เฉพาะ 1 ก.ค. 67 - 31 ส.ค. 67 นี้ รับสิทธิ์พิเศษ !!
+- ค่าสำรวจ 2,000.- ลดพิเศษเหลือเพียง 500.- และรับคืนเป็นส่วนลดเมื่อใช้บริการติดตั้ง
+- รับส่วนลดสูงสุด 100,000 บาท โดยยอดทุกๆ 100,000 บาท รับส่วนลด 10,000 บาท เมื่อชำระค่าติดตั้งระหว่างวันที่ 1 ก.ค. 67 - 31 ส.ค. 67
+- เลือกผ่อนชำระ 0% นาน 10 เดือน เมื่อยอดใช้จ่าย 20,000 บาท ขึ้นไปด้วยบัตรเครดิตที่ร่วมรายการตามเงื่อนไข
+- รับโปรฯ เพิ่มเติม ตามเงื่อนไขของบัตรเครดิตแต่ละธนาคารที่ร่วมรายการ
+ดูรายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3zVC2AE</t>
+  </si>
+  <si>
+    <t>ที่สุดของประสิทธิภาพดการชำระล้างอันทรงพลัง
+สุขภัณฑ์ใหม่ สวยล้ำทันสมัย สุขภัณฑ์ชิ้นเดียว Armani รุ่น HC-2420 สีขาว
+- สนใจดูรายละเอียดสินค้า คลิก &gt; https://bit.ly/4d7MTX6
+- ชำระล้างเงียบ สะอาดหมดจด ด้วยระบบน้ำวน Siphon Vortex
+- Urea-Formaldehyde ฝารองนั่งผลิตจากพลาสติกคุณภาพสูง
+- บรรจุน้ำได้ 3/6 ลิตร
+- ฝารองนั่ง เปิด-ปิด ได้อย่างนุ่มนวล
+- รับประกันตัวสุขภัณฑ์นานถึง 10 ปี (รับประกันอุปกรณ์ 1 ปี)
+- แถมฟรี! สายน้ำดี ประเก็นดับกลิ่น
+ดูโบรชัวร์ ลดใหญ่กลางปี คลิก &gt; https://bit.ly/3zh45u1
+ใครสนใจมาช้อปได้เลยที่ร้าน SCG HOME ทุกสาขาทั่วประเทศ
+ดูสาขาใกล้บ้านท่านคลิกเลย &gt;&gt; https://bit.ly/47QdS63
+*เงื่อนไขเป็นไปตามที่บริษัทฯ กำหนด/โปรดตรวจสอบโปรโมชัน ณ จุดขาย
+*โปรโมชันนี้เฉพาะช้อปหน้าร้าน SCG HOME เท่านั้น</t>
+  </si>
+  <si>
+    <t>ไม่ใช่ทุกคนที่อยากให้บ้านมีกันสาดยื่นออกมา หรือบางทีหน้าตาบ้านเราก็ไม่เหมาะกับการมีกันสาด แต่พอเจอแดดฝนเมืองไทยเข้าไปก็ยอมใจ คงต้องทำอะไรซักอย่าง ทางออกมีอะไรบ้าง...
+- กันสาดพับได้ 
+- หลังคาพับได้สำหรับ Skylight
+- ม่านม้วนแนวดิ่ง 
+สนใจติดตั้ง “กันสาดพับได้ หลังคาพับได้สำหรับ Skylight ม่านม้วนแนวดิ่ง” (กันสาดพับได้ ราคาเริ่มต้น 20,000 บ.) พร้อมโปรโมชันดีๆ ท้ายหน้า คลิก &gt;&gt; https://bit.ly/3LzGYxR
+โปรโมชัน ติดตั้ง “กันสาดพับได้ หลังคาพับได้สำหรับ Skylight ม่านม้วนแนวดิ่ง” เฉพาะวันที่ 1 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น !!! 
+- ต่อที่ 1: ค่าสำรวจ หน้างานเหลือเพียง 499 บาท จากปกติ 1,000 บาท เมื่อกรอกโค้ด SSS2407
+- ต่อที่ 2: เลือกรับบัตรเติมน้ำมัน ปตท หรือสิทธิ์ผ่อน 0% ตามเงื่อนไข
+- ต่อที่ 3: โปรฯ เพิ่มเติมจากบัตรเครดิตร่วมรายการ ตามเงื่อนไข
+รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3Smcy5I</t>
+  </si>
+  <si>
+    <t>ใหม่ กระเบื้อง Home Choice by SCG Home 
+ขนาด 60x120 ซม. สวย แกร่งทนทาน ใช้งานได้ทั้งพื้นและผนัง
+- ผลิตจากแกนิตโตคุณภาพดี
+- ลวดลายคมชัด สีสันไม่ซีดจางง่าย
+- ดูแลรักษา และทำความสะอาดง่าย
+ติดต่อขอใบเสนอราคา คลิก https://bit.ly/4emBpzO
+ดูโบรชัวร์ ลดใหญ่กลางปี คลิก &gt; https://bit.ly/3zh45u1
+ใครสนใจมาช้อปได้เลยที่ร้าน SCG HOME ทุกสาขาทั่วประเทศ
+ดูสาขาใกล้บ้านท่านคลิกเลย &gt;&gt;https://bit.ly/47QdS63
+*เงื่อนไขเป็นไปตามที่บริษัทฯ กำหนด/โปรดตรวจสอบโปรโมชัน ณ จุดขาย
+*โปรโมชันนี้เฉพาะช้อปหน้าร้าน SCG HOME เท่านั้น</t>
+  </si>
+  <si>
+    <t>ผนังบ้านไม้เดิมอายุกว่า 40 ปีผุพัง ปรับปรุงใหม่ให้ปังคราวนี้ขอเลือกใช้ “ผนังสมาร์ทบอร์ด” แล้วกัน เพราะมีรูปแบบลวดลายใกล้เคียงผนังไม้ให้เลือก ที่สำคัญเป็นวัสดุที่มีซีเมนต์เป็นส่วนผสม แข็งแรงแน่นอน และยังไม่เป็นอาหารของปลวกด้วย แต่จะมีวิธีการอย่างไร โฉมใหม่จะถูกใจแค่ไหน ไปดูกันเลย
+สนใจ ผนังสมาร์ทบอร์ด เอสซีจี ราคาเริ่มต้น 414.00 บาท / ชิ้น คลิก &gt;&gt; https://bit.ly/4dbTxuV
+โปรฯ ฉ่ำรับหน้าฝน สินค้าวัสดุก่อสร้าง รับส่วนลดสูงสุด 10,000 บาท ตั้งแต่วันที่ 1 ก.ค. 67 - 30 ก.ย. 67 คลิก &gt;&gt; https://bit.ly/4dc6qoD</t>
+  </si>
+  <si>
+    <t>ปรับผนังบ้านเดิม เพิ่มเติมให้ช่วย “กันเสียง” 
+หนึ่งปัญหาที่หลายบ้านคุ้นเคย คือ เสียงรบกวน ไม่ว่าจะเป็นจาก 
+- ข้างห้องที่อยู่ภายในบ้านเดียวกัน 
+- ข้างบ้านที่ใช้ผนังร่วมกัน เช่น ทาวน์โฮม 
+- ข้างห้องที่ใช้ผนังร่วมกัน เช่น คอนโด 
+แก้ปัญหาง่ายๆ ด้วย “ระบบผนังเบากันเสียง” ประกอบด้วย 4 ไอเทมหลัก 
+- โครงกัลวาไนซ์ ซี74 และยู76 : ใช้ขึ้นโครงสำหรับการทำระบบผนังเบา 
+- วัสดุอะคูสติก เอสซีจี รุ่น Cylence Zoundblock : ติดตั้งเป็นไส้ตรงกลางผนัง ช่วยป้องกันเสียงทะลุรบกวนระหว่างห้อง 
+- ผนังสมาร์ทบอร์ด เอสซีจี รุ่น ขอบลาด : ผนังกึ่งสำเร็จรูป ติดตั้งง่าย แผ่นใหญ่ ลดรอยต่อ 
+- ปูนฉาบสมาร์ทจ๊อยท์ เอสซีจี : ฉาบรอยต่อผนังสมาร์ทบอร์ด เก็บงานเนี้ยบ 
+สนใจวัสดุอะคูสติก เอสซีจี คลิก &gt;&gt; https://bit.ly/4d71uRR 
+ใครสนใจมาช้อปสินค้าที่ร้าน SCG HOME 
+ดูสาขาใกล้บ้านท่านคลิกเลย &gt;&gt;https://bit.ly/47QdS63 
+.</t>
+  </si>
+  <si>
+    <t>จะเลือกพัดลมเพดานมาติดที่บ้านให้สวยและเย็นทั้งที นอกจากจะเล็งแบบที่เหมาะกับสไตล์การแต่งบ้านแล้ว ยังต้องดูเรื่องของขนาดและความสูงห้อง ตำแหน่ง รวมถึงฝ้าเพดานที่จะติดตั้งด้วย วันนี้แอดมินเลยนำวิธีเลือกมาฝากกัน 
+ตามอ่านต่อกับ “5 เรื่องน่ารู้ เลือกพัดลมเพดานให้โดนใจใช้ดี” คลิก &gt;&gt; https://bit.ly/3LxUOAP
+เลือกซื้อพัดลมเพดานสวยๆ ราคาพิเศษ คลิก &gt;&gt; https://bit.ly/3WzjdfB
+ซื้อพัดลมเพดานพร้อมบริการติดตั้ง คลิก &gt;&gt; https://bit.ly/4dbYa87_x000B_.
+โปรโมชัน “พัดลมเพดานพร้อมบริการติดตั้ง” เฉพาะวันที่ 1 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น !!! 
+- ต่อที่ 1: สำรวจหน้างานเพียง 615.- จากปกติ 899
+- ต่อที่ 2 : เลือก “ผ่อนชำระ 0% นาน 3 เดือน กับบัตรเครดิตร่วมรายการ” หรือ "รับบัตรเติมน้ำมันสูงสุด 6,000 บาท” ตามเงื่อนไข
+- ต่อที่ 3 : เมื่อชำระด้วยบัตรเครดิตในต่อที่ 2 รับโปรโมชั่นบัตรเครดิตเพิ่มเติม ตามเงื่อนไขของบัตรแต่ละรายการ
+ดูแคตตาล็อกพร้อมรายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3A1yHzU</t>
+  </si>
+  <si>
+    <t>เครื่องช่วยนอนหลับ เพิ่มสมาธิ ลดความเครียด ด้วยนวัตกรรมคลื่นเสียงอัจฉริยะ Banala Sense 
+- ระบบช่วยนอนหลับ (Sleep)
+- ระบบช่วยเสริมสมาธิจดจ่อ (Focus)
+- ระบบช่วยผ่อนคลาย (Relax)
+- ระบบช่วยลดความซึมเครียด (Feel Good)
+* สนใจ "อุปกรณ์เสริมสมาธิจดจ่อ ด้วยนวัตกรรมคลื่นเสียงอัจฉริยะ Banala Sense" 
+ราคาพิเศษ 2,839.00 บาท / ชิ้น (จากปกติ 2,990.00 บาท)</t>
+  </si>
+  <si>
+    <t>3 ขั้นตอนง่าย ๆ กับการเลือกชุดครัวใหม่จาก Starmark 
+.
+1.สำรวจพื้นที่ เลือกชุดครัวให้เหมาะสมกับผู้ใช้งาน
+2.เลือกดีไซน์ที่ชอบ ตอบโจทย์เจ้าของบ้าน 
+- ชุดครัวสำเร็จรูป รุ่น CONTE สไตล์โมเดิร์น ราคาเริ่มต้น 22,500 บาท 
+- ชุดครัวสำเร็จรูป รุ่น ALICE สไตล์วินเทจ ราคาเริ่มต้น 27,750 บาท
+- ชุดครัวสำเร็จรูป รุ่น BLANCE สไตล์โมเดิร์นมินิมอล ราคาเริ่มต้น 27,750 บาท
+3.เตรียมพื้นที่ จัดวางตำแหน่งท่อน้ำและสายไฟ ให้ตรงกับแปลนงานระบบของชุดครัวที่เลือก
+.
+ช้อปชุดครัว Starmark ที่ใช่ได้ที่ SCG Home Online รับโปรฯสุดคุ้ม 
+- ลดเพิ่ม 5% เพียงกรอกโค้ด STARMARK (เฉพาะรุ่นที่กำหนด) พร้อมรับของแถมสูงสุด 10 รายการ*
+* โปรโมชันวันที่ 1 ก.ค. 67 - 31 ก.ค. 67
+*เงื่อนไขเป็นไปตามบริษัทฯกำหนด</t>
+  </si>
+  <si>
+    <t>รู้มั้ยการถมดินในบ้านเพื่อให้บริเวณบ้านสูงขึ้นก็มีกฎหมายที่เกี่ยวข้องนะ ที่สำคัญหากถมดินสูงมากกว่า 30 ซม. จำเป็นต้องทำกำแพงกันดินขึ้นมาก่อน เพื่อกั้นแนวดินที่สูงขึ้นไม่ให้ไปชนกับรั้ว แล้วทำไมถึงชนชิดรั้วไม่ได้ล่ะ.
+- สนใจบริการ ติดตั้ง รั้ว ระแนงบังตาไวนิล โดย HomeSmile ราคาเริ่มต้น 3,200 บาท/ตร.ม. คลิก 
+- สนใจบริการ ติดตั้ง รั้ว ระแนงบังตาไฟเบอร์ซิเมนต์ โดย HomeSmile ราคาเริ่มต้น 2,800 บาท/ตร.ม.</t>
+  </si>
+  <si>
+    <t>จะต่อเติมโรงรถหน้าบ้านต้องเริ่มยังไง... หลังคาโรงรถต้องมีเสาหรือไม่ ใช้วัสดุอะไรมุงหลังคาดี ? แล้วพื้นโรงรถล่ะ จะทำแบบไหนดี? ลองมาทำความเข้าใจภาพรวมของการต่อเติมพื้นและหลังคาโรงรถกันก่อน แล้วทุกอย่างจะง่ายขึ้น...
+** หลากบริการต่อเติมหลังคาโรงรถ พื้นโรงรถ โดย HomeSmile (อย่าลืมคลิกดูแต่ละท้ายหน้าอาจมีโปรโมชันดีๆ!!!) **
+• ต่อเติมหลังคา หลังคากันสาด (เริ่มต้น ตร.ม. 3,600 บ.) คลิก 
+• ตกแต่งพื้นด้วยบล็อก กระเบื้องคอนกรีต (เริ่มต้น ตร.ม. 1,490 บ.) 
+• ทำพื้นคอนกรีตพิมพ์ลายโดย (เริ่มต้น ตร.ม. ละ 900 บ.)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">โปรโมชันบริการเรื่องบ้านสุดคุ้ม! อยู่บ้านก็ช้อปได้สะดวกตลอดวัน! ที่ SCGHOME.com
 - ชำระค่าสำรวจหรือมัดจำวันนี้ผ่านเว็บไซต์ SCGHOME.com รับข้อเสนอเดียวกันกับงานบ้านและสวนแฟร์ MidYear 2024! และรับโปรพิเศษเพิ่มอีก!
@@ -636,9 +850,9 @@
     <r>
       <rPr>
         <u/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://bit.ly/3Yx7OOQ
@@ -646,9 +860,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">หลากหลายบริการเรื่องบ้านที่ตอบครบทุกความต้องการ ไม่ว่าจะเป็น
@@ -663,9 +877,9 @@
     <r>
       <rPr>
         <u/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://bit.ly/3Yx7OOQ
@@ -673,9 +887,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
@@ -688,220 +902,13 @@
     </r>
   </si>
   <si>
-    <t>เตียงนอนเก่าแข็งหรือนิ่มเกินไปทำให้นอนหลับไม่สบาย SCGHOME.COM ขอแนะนำ “10 ข้อดี เตียงปรับระดับไฟฟ้าพร้อมที่นอนยางพารา The Bed รุ่น Luxury” ‼​
-- สนใจ: The Bed รุ่น Luxury เตียงปรับระดับไฟฟ้าพร้อมที่นอนยางพารา​
-- ราคาเริ่มต้น: 59,900 บาท / ชิ้น​
-- คลิกเลย: https://bit.ly/4ccFiVA</t>
-  </si>
-  <si>
-    <t>*ใช้มิเตอร์ TOU ร่วมกับหลังคาโซลาร์ จะดีหรือไม่ ? หาคำตอบได้ใน VDO https://www.facebook.com/reel/471506892475138
-*ติดตั้ง “หลังคาโซลาร์ SCG Solar Roof" พร้อมบริการครบวงจร” (เริ่มต้น 117,000 บ. ราคารวมค่าระบบโซลาร์ ค่าติดตั้ง และการดำเนินการขออนุญาตหน่วยงานรัฐทั้งหมด) คลิก &gt;&gt; https https://bit.ly/4dpo6xl
-แจกโค้ดโปรโมชัน SOLJUL24 “ติดตั้งหลังคาโซลาร์เซลล์ SCG Solar Roof” เฉพาะวันที่ 1 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น!! 
-- ค่าสำรวจ 2,000.- ลดพิเศษเหลือเพียง 500.- และรับคืนเป็นส่วนลดเมื่อใช้บริการติดตั้ง 
-- ชำระค่าติดตั้งรับส่วนลดสูงสุด 100,000 บาท โดยยอดทุกๆ 100,000 บาท รับส่วนลด 10,000 บาท
-- เลือกผ่อนชำระ 0% นาน 10 เดือน เมื่อชำระดัวยบัตรเครดิตร่วมรายการตามเงื่อนไข
-- โปรโมชันอื่นๆ เพิ่มเติมจากบัตรเครดิตร่วมรายการตามเงื่อนไข
-รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/4c4tnJC</t>
-  </si>
-  <si>
-    <t>" ซีเมนต์บอร์ด เอสซีจี" สามารถนำไปประยุกต์ใช้งานได้อย่างหลากหลายมากกกว่าที่คิด โดยเฉพาะงานโชว์ผิวผนังปูนเปลือย เท่ ๆ ตามสไตล์ลอฟต์ บทความนี้จะพาทุกคนไปรู้จักให้มากขึ้น • อ่านต่อ.. คลิก https://bit.ly/4d4Gzzn
-- สนใจ แผ่นสมาร์ทบอร์ด-ซีเมนต์บอร์ดและซีเมนต์วูด
-- ราคาเริ่มต้น 45.00 - 54.00 บาท / ชิ้น 
-- คลิก https://bit.ly/3ykQxNU</t>
-  </si>
-  <si>
-    <t>ฝักบัวสำหรับสัตว์เลี้ยง COTTO
-- ผลิตจากพลาสติก ABS แข็งแรง ทนทาน 
-- ปรับระดับน้ำได้ 4 ฟังก์ชั่น : Full Spray, Half Spray, Rinsing, Flush
-- หน้าฝักบัวเป็นแปรงซิลิโคน อ่อนโยนต่อสัตว์เลี้ยง 
-- มาพร้อมกับสายและขอแขวนฝักบัว
-สนใจ ฝักบัวสำหรับสัตว์เลี้ยง COTTO 
-- ราคาพิเศษ 890.00 บาท / ชิ้น จากปกติ 1,010.00 บาท</t>
-  </si>
-  <si>
-    <t>ปัจจุบันสภาพอากาศแปรปรวน เกิดพายุฝนฟ้าคะนอง ซึ่งปัญหานี้เป็นสิ่งที่ใกล้ตัวมาก โดยเฉพาะบ้านหากหลังคาบ้านคุณไม่แข็งแรงพออาจจะเกิดปัญหาหลังคารั่ว ร้าว หรือหลุดปลิวได้
-เลือกใช้หลังคาที่มั่นใจ หลังคาไฟเบอร์ซีเมนต์ เอสซีจี รุ่น ลอนคู่ไฮบริด 
-- อย่างหนา ต้องหลังคาเอสซีจี หนาที่สุด 5.5 มม.
-- แข็งแรง ทนทาน ด้วยเทคโนโลยี Fiber Hybrid+
-- สีสวย ยึดเกาะแน่น เคลือบ 2 ชั้น
-- บ้านไม่ร้อนอบอ้าว เพราะเป็นวัสดุนำความร้อนต่ำ
-- เสียงเบากว่า เมทัลชีททั่วไป 17%
-- ปลอดภัยไร้ใยหิน ซึ่งเป็นสารก่อมะเร็ง
-- ได้มาตรฐาน มอก. มั่นใจด้วยคุณภาพจาก SCG</t>
-  </si>
-  <si>
-    <t>*ถ้าใช้เครื่องฟอกอากาศแล้วภูมิแพ้ยังไม่หาย แสดงว่าเครื่องฟอกของเราอาจไม่สามารถกำจัดสารที่เราแพ้ได้ งั้นลองมาดู “เครื่องเติมอากาศดี” ที่กรองอากาศจากภายนอกให้สะอาดก่อนเข้าบ้าน อาจจะเวิร์กกว่า
-*ติดตั้ง “เครื่องเติมอากาศดี” SCG Active Air Quality (เริ่มต้น 20,900 บ.) 
-โปรโมชัน “ติดตั้งเครื่องเติมอากาศดี SCG Active Air Quality” เฉพาะวันที่ 1 ก.ค. 67 - 31 ก.ค. 67 เท่านั้น !!! 
-- ซื้อสินค้าพร้อมติดตั้ง ตามเงื่อนไข รับส่วนลดพิเศษทุกรุ่น 5% กรอกโค้ด AAQJUN24
-- พิเศษ เมื่อซื้อ AAQ จำนวน 3 เครื่องขึ้นไปรุ่นใดก็ได้ สำหรับติดตั้งภายในบ้านเดียวกัน รับส่วนลด 8 % จากราคาปกติ กรอกโค้ด AAQ3UP8
-- เลือกผ่อน 0% 3 เดือน กับธนาคารที่ร่วมรายการ 
-- รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3LFbq9H
-โปรโมชัน ค่าสำรวจเพื่อเตรียมติดตั้งเครื่องเติมอากาศดี เหลือเพียง 1500 บาท !! จากปกติ 2,000 บาท เมื่อกรอกโค้ด AAQSV724 และ ชำระค่าสำรวจภายใน 8 ก.ค. 67 - 31 ก.ค. 67
-- รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3WB0Fvp
-.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ต่อเติมหลังคาโรงรถหน้าบ้าน หรือกันสาดเหนือประตูหน้าต่าง ด้วย “แผ่นหลังคาอะคริลิก SHINKOLITE” ทำให้บ้านดูทันสมัย สว่าง สบายตา ไม่ว่าจะเป็นแผ่นโปร่งใสเทียบเท่ากระจก หรือแผ่นโปร่งแสงนวลตา มาพร้อมคุณสมบัติช่วยกันฝน ลดร้อน และคุณสมบัติด้านอื่น ๆ ที่น่าสนใจอีกมากมาย
-- สนใจ “แผ่นหลังคาอะคริลิก SHINKOLITE” ราคาเริ่มต้น 6,386.00 บาท / ชิ้น 
-โปรโมชัน ลดฉ่ำ รับฝน ! บริการต่อเติมหลังคาโรงรถ กันสาด โดย HomeSmile สำรวจหน้างาน ราคาพิเศษ 499 บาท จากปกติ 1,000 บาท ตั้งแต่วันที่ 8 ก.ค. 67 - 31 ส.ค. 67 
-</t>
-  </si>
-  <si>
-    <t>เตรียมพร้อมสำหรับพัฒนาการลูก ตั้งแต่หัดพลิกตัว นั่ง คลาน ตั้งไข่ ยืน เดิน “คอกกั้นเด็กปลอดสาร แบรนด์ GEKO ไซส์ L” มั่นใจได้ในเรื่องความแข็งแรง ปลอดภัย ปลอดสาร อีกทั้งสามารถปรับรูปแบบได้หลากหลาย จึงใช้ได้ตั้งแต่เด็กเล็กจนโต หากพร้อมแล้ว ไปชมวิดีโอการรีวิวสินค้ากันเลยค่ะ https://fb.watch/tMltfR7cuY/
-*รวมสนใจสินค้า “คอกกั้นเด็ก GEKO" ราคาเริ่มต้น 12,900.00 บาท / ชุด คลิก https://bit.ly/3zU9l7l 
-- ออกแบบโครงสร้างโดยวิศวกร มั่นใจในความแข็งแรงปลอดภัย
-- ใช้ PE Foam คุณภาพสูง นุ่มแต่ไม่ยุบตัว รองรับแรงกระแทกได้ดี หนา 7.5 cm
-- ใช้หนังที่ผ่านการทดสอบจาก SGS Lab ว่าผ่านมาตรฐานของเล่นเด็ก EN71-3 ปลอดสาร BPA, Phthalates, DMF, PVC, Formaldehyde (มีให้เลือก 2 รุ่น คือหนัง PU และหนัง Silicone)
-- ไม่มีการใช้กาวสารระเหย ตะปู น็อตหรือชิ้นส่วนโลหะที่อาจก่อให้เกิดอันตรายในการยึดชิ้นส่วนของคอก</t>
-  </si>
-  <si>
-    <t>ปัญหาของรั้วบ้านเตี้ยคือ ไม่ปลอดภัย ไม่เป็นส่วนตัว... แก้ได้ไม่ยาก คือต่อเติมรั้วให้สูงขึ้น จะทำแบบทึบ แบบโปร่ง หรือถือโอกาสตกแต่งรั้วให้สวย สร้างบรรยากาศใหม่ๆ ไปเลยก็ได้...
-สนใจต่อเติมรั้วระแนงไม้เทียมกับ HomeSmile (อย่าลืมเลื่อนดูโปรโมชันดีๆ ท้ายหน้า!!!)
-- ต่อเติมรั้วระแนงไฟเบอร์ซีเมนต์ (เริ่มต้น 2,800 บาท/ตร.ม.) 
-- ต่อเติมรั้วระแนงไวนิล (เริ่มต้น 3,200 บาท/ตร.ม.) 
-โปรโมชัน “ติดตั้ง รั้ว ระแนงบังตา ไฟเบอร์ซิเมนต์ โดย HomeSmile ” เฉพาะวันที่ 8 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น !!! 
-- ต่อที่ 1: สำรวจหน้างานงานเพียง 499 บาท จากปกติ 1,000 บาท เมื่อกรอกโค้ด HSSH245 (นำมาเป็นส่วนลดค่าบริการติดตั้งได้)
-- ต่อที่ 2: เลือกรับบัตรเติมน้ำมันหรือสิทธิ์ผ่อน 0% ตามเงื่อนไข
-- ต่อที่ 3: โปรฯ เพิ่มเติมจากบัตรเครดิตร่วมรายการ ตามเงื่อนไข
-รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/4cPqugN</t>
-  </si>
-  <si>
-    <t>รีวิว เตียงปรับระด้บไฟฟ้า+ที่นอนยางพารา The Bed Luxury ที่นอนยางพาราเพื่อสุขภาพ แบบ FULL LATEX พร้อมรีโมทสั่งการ 2 อัน 
-รายละเอียดรีโมทคอนโทรล : 
-- ZERO G โหมดท่านอนสภาวะไร้แรงโน้มถ่วง
-- ANTI SNORE (ZZZ) โหมดท่านอนลดอาการนอนกรน
-- TV โหมดปรับระดับดูทีวี
-- FLAT โหมดท่านอนแนวราบ
-- HEAD UP ปรับระดับหัวเตียงขึ้น
-- HEAD DOWN ปรับระดับหัวเตียงลง
-- FOOT UP ปรับระดับปลายเตียงขึ้น
-- FOOT DOWN ปรับระดับปลายเตียงลง
-ดูสินค้าเพิ่มเติม &gt;&gt; https://bit.ly/3SmX15F
-สนใจ เตียงปรับระด้บไฟฟ้า+ที่นอนยางพารา The Bed Luxury ราคาพิเศษ 53,900.00 บาท / ชิ้น จากปกติ 59,900.00 บาท
-คลิกเลย https://bit.ly/3SmX15F</t>
-  </si>
-  <si>
-    <t>แดดแรงเมืองไทยแปลงเป็นไฟฟ้าใช้ตอนกลางวันได้ มาฟังเสียงเจ้าของบริษัทและเจ้าของบ้านที่ติดตั้งหลังคาโซลาร์ ว่าใช้ไฟฟ้าได้อย่างมั่นใจขนาดไหน ประหยัดค่าไฟกันมากน้อยเพียงใด ตามดู VDO กันเลยค่ะ ^^
-สนใจ ระบบหลังคาโซลาร์ เอสซีจี SCG Solar Roof พร้อมบริการครบวงจร (รวมติดตั้งและขออนุญาตจากหน่วยงานราชการ)
-- สำหรับบ้านพักอาศัย เริ่มต้น 117,000 บ.
-- สำหรับอาคารสำนักงาน โรงงาน เริ่มต้น 709,000 บ. 
-- ดูรายละเอียดบริการ คลิก &gt;&gt; https://bit.ly/3WfULyw
-โค้ดโปรโมชัน: SOLJUL24 “ติดตั้งหลังคาโซลาร์ SCG Solar Roof” เฉพาะ 1 ก.ค. 67 - 31 ส.ค. 67 นี้ รับสิทธิ์พิเศษ !!
-- ค่าสำรวจ 2,000.- ลดพิเศษเหลือเพียง 500.- และรับคืนเป็นส่วนลดเมื่อใช้บริการติดตั้ง
-- รับส่วนลดสูงสุด 100,000 บาท โดยยอดทุกๆ 100,000 บาท รับส่วนลด 10,000 บาท เมื่อชำระค่าติดตั้งระหว่างวันที่ 1 ก.ค. 67 - 31 ส.ค. 67
-- เลือกผ่อนชำระ 0% นาน 10 เดือน เมื่อยอดใช้จ่าย 20,000 บาท ขึ้นไปด้วยบัตรเครดิตที่ร่วมรายการตามเงื่อนไข
-- รับโปรฯ เพิ่มเติม ตามเงื่อนไขของบัตรเครดิตแต่ละธนาคารที่ร่วมรายการ
-ดูรายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3zVC2AE</t>
-  </si>
-  <si>
-    <t>ที่สุดของประสิทธิภาพดการชำระล้างอันทรงพลัง
-สุขภัณฑ์ใหม่ สวยล้ำทันสมัย สุขภัณฑ์ชิ้นเดียว Armani รุ่น HC-2420 สีขาว
-- สนใจดูรายละเอียดสินค้า คลิก &gt; https://bit.ly/4d7MTX6
-- ชำระล้างเงียบ สะอาดหมดจด ด้วยระบบน้ำวน Siphon Vortex
-- Urea-Formaldehyde ฝารองนั่งผลิตจากพลาสติกคุณภาพสูง
-- บรรจุน้ำได้ 3/6 ลิตร
-- ฝารองนั่ง เปิด-ปิด ได้อย่างนุ่มนวล
-- รับประกันตัวสุขภัณฑ์นานถึง 10 ปี (รับประกันอุปกรณ์ 1 ปี)
-- แถมฟรี! สายน้ำดี ประเก็นดับกลิ่น
-ดูโบรชัวร์ ลดใหญ่กลางปี คลิก &gt; https://bit.ly/3zh45u1
-ใครสนใจมาช้อปได้เลยที่ร้าน SCG HOME ทุกสาขาทั่วประเทศ
-ดูสาขาใกล้บ้านท่านคลิกเลย &gt;&gt; https://bit.ly/47QdS63
-*เงื่อนไขเป็นไปตามที่บริษัทฯ กำหนด/โปรดตรวจสอบโปรโมชัน ณ จุดขาย
-*โปรโมชันนี้เฉพาะช้อปหน้าร้าน SCG HOME เท่านั้น</t>
-  </si>
-  <si>
-    <t>ไม่ใช่ทุกคนที่อยากให้บ้านมีกันสาดยื่นออกมา หรือบางทีหน้าตาบ้านเราก็ไม่เหมาะกับการมีกันสาด แต่พอเจอแดดฝนเมืองไทยเข้าไปก็ยอมใจ คงต้องทำอะไรซักอย่าง ทางออกมีอะไรบ้าง...
-- กันสาดพับได้ 
-- หลังคาพับได้สำหรับ Skylight
-- ม่านม้วนแนวดิ่ง 
-สนใจติดตั้ง “กันสาดพับได้ หลังคาพับได้สำหรับ Skylight ม่านม้วนแนวดิ่ง” (กันสาดพับได้ ราคาเริ่มต้น 20,000 บ.) พร้อมโปรโมชันดีๆ ท้ายหน้า คลิก &gt;&gt; https://bit.ly/3LzGYxR
-โปรโมชัน ติดตั้ง “กันสาดพับได้ หลังคาพับได้สำหรับ Skylight ม่านม้วนแนวดิ่ง” เฉพาะวันที่ 1 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น !!! 
-- ต่อที่ 1: ค่าสำรวจ หน้างานเหลือเพียง 499 บาท จากปกติ 1,000 บาท เมื่อกรอกโค้ด SSS2407
-- ต่อที่ 2: เลือกรับบัตรเติมน้ำมัน ปตท หรือสิทธิ์ผ่อน 0% ตามเงื่อนไข
-- ต่อที่ 3: โปรฯ เพิ่มเติมจากบัตรเครดิตร่วมรายการ ตามเงื่อนไข
-รายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3Smcy5I</t>
-  </si>
-  <si>
-    <t>ใหม่ กระเบื้อง Home Choice by SCG Home 
-ขนาด 60x120 ซม. สวย แกร่งทนทาน ใช้งานได้ทั้งพื้นและผนัง
-- ผลิตจากแกนิตโตคุณภาพดี
-- ลวดลายคมชัด สีสันไม่ซีดจางง่าย
-- ดูแลรักษา และทำความสะอาดง่าย
-ติดต่อขอใบเสนอราคา คลิก https://bit.ly/4emBpzO
-ดูโบรชัวร์ ลดใหญ่กลางปี คลิก &gt; https://bit.ly/3zh45u1
-ใครสนใจมาช้อปได้เลยที่ร้าน SCG HOME ทุกสาขาทั่วประเทศ
-ดูสาขาใกล้บ้านท่านคลิกเลย &gt;&gt;https://bit.ly/47QdS63
-*เงื่อนไขเป็นไปตามที่บริษัทฯ กำหนด/โปรดตรวจสอบโปรโมชัน ณ จุดขาย
-*โปรโมชันนี้เฉพาะช้อปหน้าร้าน SCG HOME เท่านั้น</t>
-  </si>
-  <si>
-    <t>ผนังบ้านไม้เดิมอายุกว่า 40 ปีผุพัง ปรับปรุงใหม่ให้ปังคราวนี้ขอเลือกใช้ “ผนังสมาร์ทบอร์ด” แล้วกัน เพราะมีรูปแบบลวดลายใกล้เคียงผนังไม้ให้เลือก ที่สำคัญเป็นวัสดุที่มีซีเมนต์เป็นส่วนผสม แข็งแรงแน่นอน และยังไม่เป็นอาหารของปลวกด้วย แต่จะมีวิธีการอย่างไร โฉมใหม่จะถูกใจแค่ไหน ไปดูกันเลย
-สนใจ ผนังสมาร์ทบอร์ด เอสซีจี ราคาเริ่มต้น 414.00 บาท / ชิ้น คลิก &gt;&gt; https://bit.ly/4dbTxuV
-โปรฯ ฉ่ำรับหน้าฝน สินค้าวัสดุก่อสร้าง รับส่วนลดสูงสุด 10,000 บาท ตั้งแต่วันที่ 1 ก.ค. 67 - 30 ก.ย. 67 คลิก &gt;&gt; https://bit.ly/4dc6qoD</t>
-  </si>
-  <si>
-    <t>ปรับผนังบ้านเดิม เพิ่มเติมให้ช่วย “กันเสียง” 
-หนึ่งปัญหาที่หลายบ้านคุ้นเคย คือ เสียงรบกวน ไม่ว่าจะเป็นจาก 
-- ข้างห้องที่อยู่ภายในบ้านเดียวกัน 
-- ข้างบ้านที่ใช้ผนังร่วมกัน เช่น ทาวน์โฮม 
-- ข้างห้องที่ใช้ผนังร่วมกัน เช่น คอนโด 
-แก้ปัญหาง่ายๆ ด้วย “ระบบผนังเบากันเสียง” ประกอบด้วย 4 ไอเทมหลัก 
-- โครงกัลวาไนซ์ ซี74 และยู76 : ใช้ขึ้นโครงสำหรับการทำระบบผนังเบา 
-- วัสดุอะคูสติก เอสซีจี รุ่น Cylence Zoundblock : ติดตั้งเป็นไส้ตรงกลางผนัง ช่วยป้องกันเสียงทะลุรบกวนระหว่างห้อง 
-- ผนังสมาร์ทบอร์ด เอสซีจี รุ่น ขอบลาด : ผนังกึ่งสำเร็จรูป ติดตั้งง่าย แผ่นใหญ่ ลดรอยต่อ 
-- ปูนฉาบสมาร์ทจ๊อยท์ เอสซีจี : ฉาบรอยต่อผนังสมาร์ทบอร์ด เก็บงานเนี้ยบ 
-สนใจวัสดุอะคูสติก เอสซีจี คลิก &gt;&gt; https://bit.ly/4d71uRR 
-ใครสนใจมาช้อปสินค้าที่ร้าน SCG HOME 
-ดูสาขาใกล้บ้านท่านคลิกเลย &gt;&gt;https://bit.ly/47QdS63 
-.</t>
-  </si>
-  <si>
-    <t>จะเลือกพัดลมเพดานมาติดที่บ้านให้สวยและเย็นทั้งที นอกจากจะเล็งแบบที่เหมาะกับสไตล์การแต่งบ้านแล้ว ยังต้องดูเรื่องของขนาดและความสูงห้อง ตำแหน่ง รวมถึงฝ้าเพดานที่จะติดตั้งด้วย วันนี้แอดมินเลยนำวิธีเลือกมาฝากกัน 
-ตามอ่านต่อกับ “5 เรื่องน่ารู้ เลือกพัดลมเพดานให้โดนใจใช้ดี” คลิก &gt;&gt; https://bit.ly/3LxUOAP
-เลือกซื้อพัดลมเพดานสวยๆ ราคาพิเศษ คลิก &gt;&gt; https://bit.ly/3WzjdfB
-ซื้อพัดลมเพดานพร้อมบริการติดตั้ง คลิก &gt;&gt; https://bit.ly/4dbYa87_x000B_.
-โปรโมชัน “พัดลมเพดานพร้อมบริการติดตั้ง” เฉพาะวันที่ 1 ก.ค. 67 - 31 ส.ค. 67 เท่านั้น !!! 
-- ต่อที่ 1: สำรวจหน้างานเพียง 615.- จากปกติ 899
-- ต่อที่ 2 : เลือก “ผ่อนชำระ 0% นาน 3 เดือน กับบัตรเครดิตร่วมรายการ” หรือ "รับบัตรเติมน้ำมันสูงสุด 6,000 บาท” ตามเงื่อนไข
-- ต่อที่ 3 : เมื่อชำระด้วยบัตรเครดิตในต่อที่ 2 รับโปรโมชั่นบัตรเครดิตเพิ่มเติม ตามเงื่อนไขของบัตรแต่ละรายการ
-ดูแคตตาล็อกพร้อมรายละเอียดโปรโมชัน คลิก &gt;&gt; https://bit.ly/3A1yHzU</t>
-  </si>
-  <si>
-    <t>เครื่องช่วยนอนหลับ เพิ่มสมาธิ ลดความเครียด ด้วยนวัตกรรมคลื่นเสียงอัจฉริยะ Banala Sense 
-- ระบบช่วยนอนหลับ (Sleep)
-- ระบบช่วยเสริมสมาธิจดจ่อ (Focus)
-- ระบบช่วยผ่อนคลาย (Relax)
-- ระบบช่วยลดความซึมเครียด (Feel Good)
-* สนใจ "อุปกรณ์เสริมสมาธิจดจ่อ ด้วยนวัตกรรมคลื่นเสียงอัจฉริยะ Banala Sense" 
-ราคาพิเศษ 2,839.00 บาท / ชิ้น (จากปกติ 2,990.00 บาท)</t>
-  </si>
-  <si>
-    <t>3 ขั้นตอนง่าย ๆ กับการเลือกชุดครัวใหม่จาก Starmark 
-.
-1.สำรวจพื้นที่ เลือกชุดครัวให้เหมาะสมกับผู้ใช้งาน
-2.เลือกดีไซน์ที่ชอบ ตอบโจทย์เจ้าของบ้าน 
-- ชุดครัวสำเร็จรูป รุ่น CONTE สไตล์โมเดิร์น ราคาเริ่มต้น 22,500 บาท 
-- ชุดครัวสำเร็จรูป รุ่น ALICE สไตล์วินเทจ ราคาเริ่มต้น 27,750 บาท
-- ชุดครัวสำเร็จรูป รุ่น BLANCE สไตล์โมเดิร์นมินิมอล ราคาเริ่มต้น 27,750 บาท
-3.เตรียมพื้นที่ จัดวางตำแหน่งท่อน้ำและสายไฟ ให้ตรงกับแปลนงานระบบของชุดครัวที่เลือก
-.
-ช้อปชุดครัว Starmark ที่ใช่ได้ที่ SCG Home Online รับโปรฯสุดคุ้ม 
-- ลดเพิ่ม 5% เพียงกรอกโค้ด STARMARK (เฉพาะรุ่นที่กำหนด) พร้อมรับของแถมสูงสุด 10 รายการ*
-* โปรโมชันวันที่ 1 ก.ค. 67 - 31 ก.ค. 67
-*เงื่อนไขเป็นไปตามบริษัทฯกำหนด</t>
-  </si>
-  <si>
-    <t>รู้มั้ยการถมดินในบ้านเพื่อให้บริเวณบ้านสูงขึ้นก็มีกฎหมายที่เกี่ยวข้องนะ ที่สำคัญหากถมดินสูงมากกว่า 30 ซม. จำเป็นต้องทำกำแพงกันดินขึ้นมาก่อน เพื่อกั้นแนวดินที่สูงขึ้นไม่ให้ไปชนกับรั้ว แล้วทำไมถึงชนชิดรั้วไม่ได้ล่ะ.
-- สนใจบริการ ติดตั้ง รั้ว ระแนงบังตาไวนิล โดย HomeSmile ราคาเริ่มต้น 3,200 บาท/ตร.ม. คลิก 
-- สนใจบริการ ติดตั้ง รั้ว ระแนงบังตาไฟเบอร์ซิเมนต์ โดย HomeSmile ราคาเริ่มต้น 2,800 บาท/ตร.ม.</t>
-  </si>
-  <si>
-    <t>จะต่อเติมโรงรถหน้าบ้านต้องเริ่มยังไง... หลังคาโรงรถต้องมีเสาหรือไม่ ใช้วัสดุอะไรมุงหลังคาดี ? แล้วพื้นโรงรถล่ะ จะทำแบบไหนดี? ลองมาทำความเข้าใจภาพรวมของการต่อเติมพื้นและหลังคาโรงรถกันก่อน แล้วทุกอย่างจะง่ายขึ้น...
-** หลากบริการต่อเติมหลังคาโรงรถ พื้นโรงรถ โดย HomeSmile (อย่าลืมคลิกดูแต่ละท้ายหน้าอาจมีโปรโมชันดีๆ!!!) **
-• ต่อเติมหลังคา หลังคากันสาด (เริ่มต้น ตร.ม. 3,600 บ.) คลิก 
-• ตกแต่งพื้นด้วยบล็อก กระเบื้องคอนกรีต (เริ่มต้น ตร.ม. 1,490 บ.) 
-• ทำพื้นคอนกรีตพิมพ์ลายโดย (เริ่มต้น ตร.ม. ละ 900 บ.)</t>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>package</t>
   </si>
 </sst>
 </file>
@@ -920,25 +927,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -949,13 +944,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -969,29 +990,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1329,386 +1350,609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AEA82-BF8D-D54E-A5FA-BADEDC03F209}">
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="130.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="56.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="323" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="306" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="372" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="170" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="323" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="B33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="B41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="B44" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="B47" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="165" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="B48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="165" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="B49" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="105" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="B50" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="B51" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="342" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="B52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="B54" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="165" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="B56" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="120" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="165" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="225" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="B59" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="105" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="B60" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="150" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="B61" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="B62" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="B63" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="B64" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="B65" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="B66" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="195" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="B68" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="210" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+      <c r="B69" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="135" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+      <c r="B71" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="195" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+      <c r="B72" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+      <c r="B73" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="120" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>73</v>
+      <c r="B74" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/context_scg_home.xlsx
+++ b/data/context_scg_home.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasunimsuwan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasunimsuwan/Desktop/Python Project/gemini-15flash/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B899B-0B06-AA4F-B96F-68F6F849605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37AA22C-30B4-934D-B26A-3383C061CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21480" xr2:uid="{4845C39F-9F50-9C4F-9591-143131F091DE}"/>
   </bookViews>
@@ -616,12 +616,6 @@
 - ขึ้นชั้นบน ลงชั้นล่าง ง่าย ปลอดภัยไม่เหนื่อย... ติดลิฟต์บ้าน ลิฟต์บันไดพร้อมติดตั้ง (เริ่มต้น 139,000 บ.) 
 - เลือกซื้อราวจับทรงตัว....(เริ่มต้นชิ้นละ 1,800 บ.) คลิก &gt;&gt; https://bit.ly/3ylGeJE
 -เบาใจได้เมื่อแม่อยู่บ้านคนเดียว...กับอุปกรณ์ขอความช่วยเหลือฉุกเฉินประจำบ้าน .... (เริ่มต้น ชุดละ 16,900 บ.)</t>
-  </si>
-  <si>
-    <t>คอร์ทกลางบ้าน สัมผัสอบอุ่น ลุคธรรมชาติ
-- สนใจ ระแนงตกแต่ง เอสซีจี รุ่น รัสติค ผิวลายเสี้ยน ขนาด 7.5x300x0.8 ซม. สีซีเมนต์ ราคา 43.00 - 50.00 บาท / ชิ้น
-- สนใจ กระเบื้องคอตโต้ GP 20x120 ริเวอร์วู้ดเบจ(HYG)R10ตัดขอบPM ราคา 700.00 บาท / กล่อง
-SCG GREEN SALE! สินค้าวัสดุตกแต่ง DECAAR By SCG รับส่วนลดเริ่มต้น 200 บาท ตั้งแต่วันที่ 1 ก.ค. 67 - 30 ก.ย. 67</t>
   </si>
   <si>
     <t>เตียงนอนเก่าแข็งหรือนิ่มเกินไปทำให้นอนหลับไม่สบาย SCGHOME.COM ขอแนะนำ “10 ข้อดี เตียงปรับระดับไฟฟ้าพร้อมที่นอนยางพารา The Bed รุ่น Luxury” ‼​
@@ -909,6 +903,12 @@
   </si>
   <si>
     <t>package</t>
+  </si>
+  <si>
+    <t>โปรโมชั่นคอร์ทกลางบ้าน สัมผัสอบอุ่น ลุคธรรมชาติ
+- สนใจ ระแนงตกแต่ง เอสซีจี รุ่น รัสติค ผิวลายเสี้ยน ขนาด 7.5x300x0.8 ซม. สีซีเมนต์ ราคา 43.00 - 50.00 บาท / ชิ้น
+- สนใจ กระเบื้องคอตโต้ GP 20x120 ริเวอร์วู้ดเบจ(HYG)R10ตัดขอบPM ราคา 700.00 บาท / กล่อง
+SCG GREEN SALE! สินค้าวัสดุตกแต่ง DECAAR By SCG รับส่วนลดเริ่มต้น 200 บาท ตั้งแต่วันที่ 1 ก.ค. 67 - 30 ก.ย. 67</t>
   </si>
 </sst>
 </file>
@@ -997,22 +997,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AEA82-BF8D-D54E-A5FA-BADEDC03F209}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,7 +1368,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -1376,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="388" x14ac:dyDescent="0.2">
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1400,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -1416,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="272" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="372" x14ac:dyDescent="0.2">
@@ -1456,7 +1456,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="323" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="289" x14ac:dyDescent="0.2">
@@ -1480,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1496,7 +1496,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="170" x14ac:dyDescent="0.2">
@@ -1504,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -1520,7 +1520,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="255" x14ac:dyDescent="0.2">
@@ -1528,7 +1528,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -1544,7 +1544,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -1560,7 +1560,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -1568,7 +1568,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="272" x14ac:dyDescent="0.2">
@@ -1576,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="388" x14ac:dyDescent="0.2">
@@ -1584,7 +1584,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="221" x14ac:dyDescent="0.2">
@@ -1592,7 +1592,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -1608,7 +1608,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -1616,7 +1616,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -1632,7 +1632,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="272" x14ac:dyDescent="0.2">
@@ -1640,7 +1640,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="356" x14ac:dyDescent="0.2">
@@ -1648,7 +1648,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="255" x14ac:dyDescent="0.2">
@@ -1656,7 +1656,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -1664,7 +1664,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -1672,7 +1672,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="289" x14ac:dyDescent="0.2">
@@ -1680,7 +1680,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="289" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -1696,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -1712,7 +1712,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="204" x14ac:dyDescent="0.2">
@@ -1720,7 +1720,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="170" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -1736,7 +1736,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -1744,7 +1744,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="340" x14ac:dyDescent="0.2">
@@ -1752,7 +1752,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="323" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="204" x14ac:dyDescent="0.2">
@@ -1768,191 +1768,191 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
